--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9060"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="746">
   <si>
     <t>界面编号</t>
   </si>
@@ -2728,6 +2728,87 @@
   </si>
   <si>
     <t>times/min</t>
+  </si>
+  <si>
+    <t>自定义</t>
+  </si>
+  <si>
+    <t>STR_CUSTOM</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>单次</t>
+  </si>
+  <si>
+    <t>STR_ONCE</t>
+  </si>
+  <si>
+    <t>Single time</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>STR_EVERY_DAY</t>
+  </si>
+  <si>
+    <t>Every day</t>
+  </si>
+  <si>
+    <t>重复:</t>
+  </si>
+  <si>
+    <t>STR_REPEAT</t>
+  </si>
+  <si>
+    <t>Repeat:</t>
+  </si>
+  <si>
+    <t>无闹钟</t>
+  </si>
+  <si>
+    <t>STR_NO_CLOCK</t>
+  </si>
+  <si>
+    <t>No alarm clock</t>
+  </si>
+  <si>
+    <t>是否关机?</t>
+  </si>
+  <si>
+    <t>STR_SURE_OFF</t>
+  </si>
+  <si>
+    <t>Is it powered off?</t>
+  </si>
+  <si>
+    <t>是否恢复出厂设置?</t>
+  </si>
+  <si>
+    <t>STR_SURE_RESET</t>
+  </si>
+  <si>
+    <t>Is it a factory reset or not?</t>
+  </si>
+  <si>
+    <t>是否重启?</t>
+  </si>
+  <si>
+    <t>STR_SURE_REBOOT</t>
+  </si>
+  <si>
+    <t>Reboot or not?</t>
+  </si>
+  <si>
+    <t>飞扬的小鸟</t>
+  </si>
+  <si>
+    <t>STR_FLY_BIRD</t>
+  </si>
+  <si>
+    <t>Flappy birds</t>
   </si>
 </sst>
 </file>
@@ -4996,11 +5077,11 @@
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AW228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AW237" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C235" sqref="C235"/>
+      <selection pane="bottomRight" activeCell="A239" sqref="A239:A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -18945,11 +19026,19 @@
       <c r="AZ234" s="41"/>
     </row>
     <row r="235" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A235" s="12"/>
+      <c r="A235" s="12">
+        <v>233</v>
+      </c>
       <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
-      <c r="D235" s="83"/>
-      <c r="E235" s="13"/>
+      <c r="C235" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="D235" s="83" t="s">
+        <v>720</v>
+      </c>
+      <c r="E235" s="13" t="s">
+        <v>721</v>
+      </c>
       <c r="F235" s="87"/>
       <c r="G235" s="13"/>
       <c r="H235" s="88"/>
@@ -18996,11 +19085,19 @@
       <c r="AZ235" s="41"/>
     </row>
     <row r="236" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A236" s="12"/>
+      <c r="A236" s="12">
+        <v>234</v>
+      </c>
       <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="83"/>
-      <c r="E236" s="80"/>
+      <c r="C236" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="D236" s="83" t="s">
+        <v>723</v>
+      </c>
+      <c r="E236" s="80" t="s">
+        <v>724</v>
+      </c>
       <c r="F236" s="89"/>
       <c r="G236" s="80"/>
       <c r="H236" s="90"/>
@@ -19047,11 +19144,19 @@
       <c r="AZ236" s="41"/>
     </row>
     <row r="237" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A237" s="12"/>
+      <c r="A237" s="12">
+        <v>235</v>
+      </c>
       <c r="B237" s="13"/>
-      <c r="C237" s="13"/>
-      <c r="D237" s="83"/>
-      <c r="E237" s="13"/>
+      <c r="C237" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="D237" s="83" t="s">
+        <v>726</v>
+      </c>
+      <c r="E237" s="13" t="s">
+        <v>727</v>
+      </c>
       <c r="F237" s="82"/>
       <c r="G237" s="13"/>
       <c r="H237" s="13"/>
@@ -19098,11 +19203,19 @@
       <c r="AZ237" s="41"/>
     </row>
     <row r="238" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A238" s="12"/>
+      <c r="A238" s="12">
+        <v>236</v>
+      </c>
       <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-      <c r="D238" s="83"/>
-      <c r="E238" s="13"/>
+      <c r="C238" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="D238" s="83" t="s">
+        <v>729</v>
+      </c>
+      <c r="E238" s="13" t="s">
+        <v>730</v>
+      </c>
       <c r="F238" s="57"/>
       <c r="G238" s="13"/>
       <c r="H238" s="13"/>
@@ -19149,11 +19262,19 @@
       <c r="AZ238" s="41"/>
     </row>
     <row r="239" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A239" s="12"/>
+      <c r="A239" s="12">
+        <v>237</v>
+      </c>
       <c r="B239" s="13"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="83"/>
-      <c r="E239" s="13"/>
+      <c r="C239" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="D239" s="83" t="s">
+        <v>732</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>733</v>
+      </c>
       <c r="F239" s="82"/>
       <c r="G239" s="13"/>
       <c r="H239" s="13"/>
@@ -19200,11 +19321,19 @@
       <c r="AZ239" s="41"/>
     </row>
     <row r="240" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A240" s="12"/>
+      <c r="A240" s="12">
+        <v>238</v>
+      </c>
       <c r="B240" s="13"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="83"/>
-      <c r="E240" s="13"/>
+      <c r="C240" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="D240" s="83" t="s">
+        <v>735</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>736</v>
+      </c>
       <c r="F240" s="82"/>
       <c r="G240" s="13"/>
       <c r="H240" s="13"/>
@@ -19251,11 +19380,19 @@
       <c r="AZ240" s="41"/>
     </row>
     <row r="241" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A241" s="12"/>
+      <c r="A241" s="12">
+        <v>239</v>
+      </c>
       <c r="B241" s="13"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="83"/>
-      <c r="E241" s="13"/>
+      <c r="C241" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="D241" s="83" t="s">
+        <v>738</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>739</v>
+      </c>
       <c r="F241" s="82"/>
       <c r="G241" s="13"/>
       <c r="H241" s="13"/>
@@ -19302,11 +19439,19 @@
       <c r="AZ241" s="13"/>
     </row>
     <row r="242" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A242" s="12"/>
+      <c r="A242" s="12">
+        <v>240</v>
+      </c>
       <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="83"/>
-      <c r="E242" s="80"/>
+      <c r="C242" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D242" s="83" t="s">
+        <v>741</v>
+      </c>
+      <c r="E242" s="80" t="s">
+        <v>742</v>
+      </c>
       <c r="F242" s="81"/>
       <c r="G242" s="80"/>
       <c r="H242" s="80"/>
@@ -19353,11 +19498,19 @@
       <c r="AZ242" s="41"/>
     </row>
     <row r="243" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A243" s="12"/>
+      <c r="A243" s="12">
+        <v>241</v>
+      </c>
       <c r="B243" s="13"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="83"/>
-      <c r="E243" s="13"/>
+      <c r="C243" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="D243" s="83" t="s">
+        <v>744</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>745</v>
+      </c>
       <c r="F243" s="82"/>
       <c r="G243" s="13"/>
       <c r="H243" s="13"/>
@@ -38389,7 +38542,7 @@
       <c r="P686" s="212"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA233" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA239" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="40">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$247</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="764">
   <si>
     <t>界面编号</t>
   </si>
@@ -2809,6 +2809,60 @@
   </si>
   <si>
     <t>Flappy birds</t>
+  </si>
+  <si>
+    <t>呼叫中...</t>
+  </si>
+  <si>
+    <t>STR_IN_CALL</t>
+  </si>
+  <si>
+    <t>In call...</t>
+  </si>
+  <si>
+    <t>来电</t>
+  </si>
+  <si>
+    <t>STR_CALL_ME</t>
+  </si>
+  <si>
+    <t>Call me</t>
+  </si>
+  <si>
+    <t>更改时间</t>
+  </si>
+  <si>
+    <t>STR_REVISE_TIMR</t>
+  </si>
+  <si>
+    <t>Change the time</t>
+  </si>
+  <si>
+    <t>设置重复</t>
+  </si>
+  <si>
+    <t>STR_SET_REPEAT</t>
+  </si>
+  <si>
+    <t>Set up duplicates</t>
+  </si>
+  <si>
+    <t>重试</t>
+  </si>
+  <si>
+    <t>STR_RETRY</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>通讯录</t>
+  </si>
+  <si>
+    <t>STR_CONTACTS</t>
+  </si>
+  <si>
+    <t>Contacts</t>
   </si>
 </sst>
 </file>
@@ -5077,11 +5131,11 @@
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AW237" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AW242" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A239" sqref="A239:A243"/>
+      <selection pane="bottomRight" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -19557,11 +19611,19 @@
       <c r="AZ243" s="42"/>
     </row>
     <row r="244" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A244" s="12"/>
+      <c r="A244" s="12">
+        <v>242</v>
+      </c>
       <c r="B244" s="13"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="83"/>
-      <c r="E244" s="13"/>
+      <c r="C244" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="D244" s="83" t="s">
+        <v>747</v>
+      </c>
+      <c r="E244" s="13" t="s">
+        <v>748</v>
+      </c>
       <c r="F244" s="82"/>
       <c r="G244" s="13"/>
       <c r="H244" s="13"/>
@@ -19608,11 +19670,19 @@
       <c r="AZ244" s="42"/>
     </row>
     <row r="245" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A245" s="12"/>
+      <c r="A245" s="12">
+        <v>243</v>
+      </c>
       <c r="B245" s="13"/>
-      <c r="C245" s="13"/>
-      <c r="D245" s="83"/>
-      <c r="E245" s="13"/>
+      <c r="C245" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="D245" s="83" t="s">
+        <v>750</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>751</v>
+      </c>
       <c r="F245" s="82"/>
       <c r="G245" s="13"/>
       <c r="H245" s="13"/>
@@ -19659,11 +19729,19 @@
       <c r="AZ245" s="41"/>
     </row>
     <row r="246" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A246" s="12"/>
+      <c r="A246" s="12">
+        <v>244</v>
+      </c>
       <c r="B246" s="13"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="83"/>
-      <c r="E246" s="13"/>
+      <c r="C246" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D246" s="83" t="s">
+        <v>753</v>
+      </c>
+      <c r="E246" s="13" t="s">
+        <v>754</v>
+      </c>
       <c r="F246" s="82"/>
       <c r="G246" s="13"/>
       <c r="H246" s="13"/>
@@ -19710,11 +19788,19 @@
       <c r="AZ246" s="41"/>
     </row>
     <row r="247" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A247" s="12"/>
+      <c r="A247" s="12">
+        <v>245</v>
+      </c>
       <c r="B247" s="13"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="83"/>
-      <c r="E247" s="80"/>
+      <c r="C247" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="D247" s="83" t="s">
+        <v>756</v>
+      </c>
+      <c r="E247" s="80" t="s">
+        <v>757</v>
+      </c>
       <c r="F247" s="81"/>
       <c r="G247" s="80"/>
       <c r="H247" s="80"/>
@@ -19761,11 +19847,19 @@
       <c r="AZ247" s="41"/>
     </row>
     <row r="248" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A248" s="12"/>
+      <c r="A248" s="12">
+        <v>246</v>
+      </c>
       <c r="B248" s="13"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="83"/>
-      <c r="E248" s="80"/>
+      <c r="C248" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="D248" s="83" t="s">
+        <v>759</v>
+      </c>
+      <c r="E248" s="13" t="s">
+        <v>760</v>
+      </c>
       <c r="F248" s="81"/>
       <c r="G248" s="80"/>
       <c r="H248" s="80"/>
@@ -19812,11 +19906,19 @@
       <c r="AZ248" s="41"/>
     </row>
     <row r="249" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A249" s="12"/>
+      <c r="A249" s="12">
+        <v>247</v>
+      </c>
       <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="83"/>
-      <c r="E249" s="80"/>
+      <c r="C249" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D249" s="83" t="s">
+        <v>762</v>
+      </c>
+      <c r="E249" s="80" t="s">
+        <v>763</v>
+      </c>
       <c r="F249" s="81"/>
       <c r="G249" s="80"/>
       <c r="H249" s="80"/>
@@ -38542,7 +38644,7 @@
       <c r="P686" s="212"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA239" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA247" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="40">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$247</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$250</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="767">
   <si>
     <t>界面编号</t>
   </si>
@@ -2232,13 +2232,13 @@
     <t>Measuring</t>
   </si>
   <si>
-    <t>佩戴检测中</t>
+    <t>请正确佩戴手表，保持静止</t>
   </si>
   <si>
     <t>STR_WEAR_CHECK</t>
   </si>
   <si>
-    <t>Wearing test</t>
+    <t>Please wear the watch correctly and keep it still</t>
   </si>
   <si>
     <t>未知</t>
@@ -2863,6 +2863,15 @@
   </si>
   <si>
     <t>Contacts</t>
+  </si>
+  <si>
+    <t>请输入电话号码！</t>
+  </si>
+  <si>
+    <t>STR_ENTER_NUMBER</t>
+  </si>
+  <si>
+    <t>Please enter a phone number!</t>
   </si>
 </sst>
 </file>
@@ -5127,15 +5136,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AW242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D249" sqref="D249"/>
+      <selection pane="bottomRight" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -5232,7 +5241,7 @@
       <c r="AH1" s="30"/>
       <c r="AI1" s="30"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="56.25" customHeight="1" spans="1:53">
+    <row r="2" s="1" customFormat="1" ht="56.25" hidden="1" customHeight="1" spans="1:53">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" ht="26.25" customHeight="1" spans="1:52">
+    <row r="3" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -5452,7 +5461,7 @@
       <c r="AX3" s="5"/>
       <c r="AZ3" s="41"/>
     </row>
-    <row r="4" ht="26.25" customHeight="1" spans="1:52">
+    <row r="4" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -5511,7 +5520,7 @@
       <c r="AV4" s="13"/>
       <c r="AZ4" s="41"/>
     </row>
-    <row r="5" ht="26.25" customHeight="1" spans="1:52">
+    <row r="5" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -5570,7 +5579,7 @@
       <c r="AV5" s="13"/>
       <c r="AZ5" s="41"/>
     </row>
-    <row r="6" ht="26.25" customHeight="1" spans="1:52">
+    <row r="6" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -5629,7 +5638,7 @@
       <c r="AV6" s="13"/>
       <c r="AZ6" s="41"/>
     </row>
-    <row r="7" ht="26.25" customHeight="1" spans="1:52">
+    <row r="7" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A7" s="12">
         <v>5</v>
       </c>
@@ -5688,7 +5697,7 @@
       <c r="AV7" s="13"/>
       <c r="AZ7" s="41"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1" spans="1:52">
+    <row r="8" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -5747,7 +5756,7 @@
       <c r="AV8" s="13"/>
       <c r="AZ8" s="41"/>
     </row>
-    <row r="9" ht="26.25" customHeight="1" spans="1:52">
+    <row r="9" ht="26.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -5806,7 +5815,7 @@
       <c r="AV9" s="13"/>
       <c r="AZ9" s="41"/>
     </row>
-    <row r="10" ht="24.75" customHeight="1" spans="1:52">
+    <row r="10" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -5865,7 +5874,7 @@
       <c r="AV10" s="13"/>
       <c r="AZ10" s="41"/>
     </row>
-    <row r="11" ht="24.75" customHeight="1" spans="1:52">
+    <row r="11" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -5924,7 +5933,7 @@
       <c r="AV11" s="13"/>
       <c r="AZ11" s="41"/>
     </row>
-    <row r="12" ht="24.75" customHeight="1" spans="1:52">
+    <row r="12" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -5983,7 +5992,7 @@
       <c r="AV12" s="13"/>
       <c r="AZ12" s="41"/>
     </row>
-    <row r="13" ht="24.75" customHeight="1" spans="1:52">
+    <row r="13" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -6042,7 +6051,7 @@
       <c r="AV13" s="13"/>
       <c r="AZ13" s="41"/>
     </row>
-    <row r="14" ht="24.75" customHeight="1" spans="1:52">
+    <row r="14" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -6101,7 +6110,7 @@
       <c r="AV14" s="13"/>
       <c r="AZ14" s="41"/>
     </row>
-    <row r="15" ht="24.75" customHeight="1" spans="1:52">
+    <row r="15" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -6160,7 +6169,7 @@
       <c r="AV15" s="13"/>
       <c r="AZ15" s="41"/>
     </row>
-    <row r="16" ht="24.75" customHeight="1" spans="1:52">
+    <row r="16" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A16" s="12">
         <v>14</v>
       </c>
@@ -6219,7 +6228,7 @@
       <c r="AV16" s="13"/>
       <c r="AZ16" s="41"/>
     </row>
-    <row r="17" ht="24.75" customHeight="1" spans="1:52">
+    <row r="17" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -6278,7 +6287,7 @@
       <c r="AV17" s="13"/>
       <c r="AZ17" s="41"/>
     </row>
-    <row r="18" ht="24.75" customHeight="1" spans="1:52">
+    <row r="18" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -6337,7 +6346,7 @@
       <c r="AV18" s="13"/>
       <c r="AZ18" s="41"/>
     </row>
-    <row r="19" ht="24.75" customHeight="1" spans="1:52">
+    <row r="19" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -6396,7 +6405,7 @@
       <c r="AV19" s="13"/>
       <c r="AZ19" s="41"/>
     </row>
-    <row r="20" ht="24.75" customHeight="1" spans="1:52">
+    <row r="20" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -6455,7 +6464,7 @@
       <c r="AV20" s="13"/>
       <c r="AZ20" s="41"/>
     </row>
-    <row r="21" ht="24.75" customHeight="1" spans="1:52">
+    <row r="21" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -6514,7 +6523,7 @@
       <c r="AV21" s="13"/>
       <c r="AZ21" s="41"/>
     </row>
-    <row r="22" ht="24.75" customHeight="1" spans="1:52">
+    <row r="22" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -6573,7 +6582,7 @@
       <c r="AV22" s="13"/>
       <c r="AZ22" s="42"/>
     </row>
-    <row r="23" ht="24.75" customHeight="1" spans="1:52">
+    <row r="23" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -6632,7 +6641,7 @@
       <c r="AV23" s="13"/>
       <c r="AZ23" s="41"/>
     </row>
-    <row r="24" ht="24.75" customHeight="1" spans="1:52">
+    <row r="24" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -6691,7 +6700,7 @@
       <c r="AV24" s="13"/>
       <c r="AZ24" s="41"/>
     </row>
-    <row r="25" ht="24.75" customHeight="1" spans="1:52">
+    <row r="25" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A25" s="12">
         <v>23</v>
       </c>
@@ -6750,7 +6759,7 @@
       <c r="AV25" s="13"/>
       <c r="AZ25" s="42"/>
     </row>
-    <row r="26" ht="24.75" customHeight="1" spans="1:52">
+    <row r="26" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -6809,7 +6818,7 @@
       <c r="AV26" s="13"/>
       <c r="AZ26" s="42"/>
     </row>
-    <row r="27" ht="24.75" customHeight="1" spans="1:52">
+    <row r="27" ht="24.75" hidden="1" customHeight="1" spans="1:52">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -6868,7 +6877,7 @@
       <c r="AV27" s="13"/>
       <c r="AZ27" s="42"/>
     </row>
-    <row r="28" ht="18" spans="1:52">
+    <row r="28" ht="18" hidden="1" spans="1:52">
       <c r="A28" s="12">
         <v>26</v>
       </c>
@@ -6927,7 +6936,7 @@
       <c r="AV28" s="13"/>
       <c r="AZ28" s="42"/>
     </row>
-    <row r="29" ht="18" spans="1:52">
+    <row r="29" ht="18" hidden="1" spans="1:52">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -6986,7 +6995,7 @@
       <c r="AV29" s="13"/>
       <c r="AZ29" s="41"/>
     </row>
-    <row r="30" ht="18" spans="1:52">
+    <row r="30" ht="18" hidden="1" spans="1:52">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -7045,7 +7054,7 @@
       <c r="AV30" s="13"/>
       <c r="AZ30" s="41"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:52">
+    <row r="31" ht="18" hidden="1" customHeight="1" spans="1:52">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -7104,7 +7113,7 @@
       <c r="AV31" s="13"/>
       <c r="AZ31" s="41"/>
     </row>
-    <row r="32" ht="18" spans="1:52">
+    <row r="32" ht="18" hidden="1" spans="1:52">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -7163,7 +7172,7 @@
       <c r="AV32" s="13"/>
       <c r="AZ32" s="42"/>
     </row>
-    <row r="33" ht="18" spans="1:52">
+    <row r="33" ht="18" hidden="1" spans="1:52">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -7222,7 +7231,7 @@
       <c r="AV33" s="13"/>
       <c r="AZ33" s="42"/>
     </row>
-    <row r="34" ht="18" spans="1:52">
+    <row r="34" ht="18" hidden="1" spans="1:52">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -7281,7 +7290,7 @@
       <c r="AV34" s="13"/>
       <c r="AZ34" s="13"/>
     </row>
-    <row r="35" ht="50.25" customHeight="1" spans="1:52">
+    <row r="35" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -7340,7 +7349,7 @@
       <c r="AV35" s="13"/>
       <c r="AZ35" s="41"/>
     </row>
-    <row r="36" ht="50.25" customHeight="1" spans="1:52">
+    <row r="36" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -7399,7 +7408,7 @@
       <c r="AV36" s="13"/>
       <c r="AZ36" s="13"/>
     </row>
-    <row r="37" ht="50.25" customHeight="1" spans="1:52">
+    <row r="37" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A37" s="12">
         <v>35</v>
       </c>
@@ -7458,7 +7467,7 @@
       <c r="AV37" s="13"/>
       <c r="AZ37" s="13"/>
     </row>
-    <row r="38" ht="50.25" customHeight="1" spans="1:52">
+    <row r="38" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -7517,7 +7526,7 @@
       <c r="AV38" s="13"/>
       <c r="AZ38" s="13"/>
     </row>
-    <row r="39" ht="50.25" customHeight="1" spans="1:52">
+    <row r="39" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -7576,7 +7585,7 @@
       <c r="AV39" s="13"/>
       <c r="AZ39" s="13"/>
     </row>
-    <row r="40" ht="50.25" customHeight="1" spans="1:52">
+    <row r="40" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A40" s="12">
         <v>38</v>
       </c>
@@ -7635,7 +7644,7 @@
       <c r="AV40" s="13"/>
       <c r="AZ40" s="13"/>
     </row>
-    <row r="41" ht="50.25" customHeight="1" spans="1:52">
+    <row r="41" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -7694,7 +7703,7 @@
       <c r="AV41" s="13"/>
       <c r="AZ41" s="13"/>
     </row>
-    <row r="42" ht="50.25" customHeight="1" spans="1:52">
+    <row r="42" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -7753,7 +7762,7 @@
       <c r="AV42" s="13"/>
       <c r="AZ42" s="13"/>
     </row>
-    <row r="43" ht="50.25" customHeight="1" spans="1:52">
+    <row r="43" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A43" s="12">
         <v>41</v>
       </c>
@@ -7812,7 +7821,7 @@
       <c r="AV43" s="13"/>
       <c r="AZ43" s="13"/>
     </row>
-    <row r="44" ht="50.25" customHeight="1" spans="1:52">
+    <row r="44" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -7871,7 +7880,7 @@
       <c r="AV44" s="13"/>
       <c r="AZ44" s="13"/>
     </row>
-    <row r="45" ht="50.25" customHeight="1" spans="1:52">
+    <row r="45" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -7930,7 +7939,7 @@
       <c r="AV45" s="13"/>
       <c r="AZ45" s="13"/>
     </row>
-    <row r="46" ht="50.25" customHeight="1" spans="1:52">
+    <row r="46" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A46" s="12">
         <v>44</v>
       </c>
@@ -7989,7 +7998,7 @@
       <c r="AV46" s="13"/>
       <c r="AZ46" s="13"/>
     </row>
-    <row r="47" ht="50.25" customHeight="1" spans="1:52">
+    <row r="47" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -8048,7 +8057,7 @@
       <c r="AV47" s="13"/>
       <c r="AZ47" s="13"/>
     </row>
-    <row r="48" ht="50.25" customHeight="1" spans="1:52">
+    <row r="48" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -8107,7 +8116,7 @@
       <c r="AV48" s="13"/>
       <c r="AZ48" s="13"/>
     </row>
-    <row r="49" ht="50.25" customHeight="1" spans="1:52">
+    <row r="49" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -8166,7 +8175,7 @@
       <c r="AV49" s="13"/>
       <c r="AZ49" s="13"/>
     </row>
-    <row r="50" ht="50.25" customHeight="1" spans="1:52">
+    <row r="50" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -8225,7 +8234,7 @@
       <c r="AV50" s="13"/>
       <c r="AZ50" s="13"/>
     </row>
-    <row r="51" ht="50.25" customHeight="1" spans="1:52">
+    <row r="51" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -8284,7 +8293,7 @@
       <c r="AV51" s="13"/>
       <c r="AZ51" s="13"/>
     </row>
-    <row r="52" ht="50.25" customHeight="1" spans="1:52">
+    <row r="52" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A52" s="12">
         <v>50</v>
       </c>
@@ -8343,7 +8352,7 @@
       <c r="AV52" s="13"/>
       <c r="AZ52" s="13"/>
     </row>
-    <row r="53" ht="50.25" customHeight="1" spans="1:52">
+    <row r="53" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -8402,7 +8411,7 @@
       <c r="AV53" s="13"/>
       <c r="AZ53" s="13"/>
     </row>
-    <row r="54" ht="50.25" customHeight="1" spans="1:52">
+    <row r="54" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -8461,7 +8470,7 @@
       <c r="AV54" s="13"/>
       <c r="AZ54" s="13"/>
     </row>
-    <row r="55" ht="50.25" customHeight="1" spans="1:52">
+    <row r="55" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A55" s="12">
         <v>53</v>
       </c>
@@ -8520,7 +8529,7 @@
       <c r="AV55" s="13"/>
       <c r="AZ55" s="13"/>
     </row>
-    <row r="56" ht="50.25" customHeight="1" spans="1:52">
+    <row r="56" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -8579,7 +8588,7 @@
       <c r="AV56" s="13"/>
       <c r="AZ56" s="13"/>
     </row>
-    <row r="57" ht="50.25" customHeight="1" spans="1:52">
+    <row r="57" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -8638,7 +8647,7 @@
       <c r="AV57" s="13"/>
       <c r="AZ57" s="13"/>
     </row>
-    <row r="58" ht="50.25" customHeight="1" spans="1:52">
+    <row r="58" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A58" s="12">
         <v>56</v>
       </c>
@@ -8697,7 +8706,7 @@
       <c r="AV58" s="13"/>
       <c r="AZ58" s="41"/>
     </row>
-    <row r="59" ht="50.25" customHeight="1" spans="1:52">
+    <row r="59" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -8756,7 +8765,7 @@
       <c r="AV59" s="13"/>
       <c r="AZ59" s="41"/>
     </row>
-    <row r="60" ht="50.25" customHeight="1" spans="1:52">
+    <row r="60" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -8815,7 +8824,7 @@
       <c r="AV60" s="13"/>
       <c r="AZ60" s="42"/>
     </row>
-    <row r="61" ht="50.25" customHeight="1" spans="1:52">
+    <row r="61" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A61" s="12">
         <v>59</v>
       </c>
@@ -8874,7 +8883,7 @@
       <c r="AV61" s="13"/>
       <c r="AZ61" s="42"/>
     </row>
-    <row r="62" ht="50.25" customHeight="1" spans="1:52">
+    <row r="62" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -8933,7 +8942,7 @@
       <c r="AV62" s="13"/>
       <c r="AZ62" s="43"/>
     </row>
-    <row r="63" ht="50.25" customHeight="1" spans="1:52">
+    <row r="63" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -8992,7 +9001,7 @@
       <c r="AV63" s="13"/>
       <c r="AZ63" s="42"/>
     </row>
-    <row r="64" ht="50.25" customHeight="1" spans="1:52">
+    <row r="64" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A64" s="12">
         <v>62</v>
       </c>
@@ -9051,7 +9060,7 @@
       <c r="AV64" s="13"/>
       <c r="AZ64" s="41"/>
     </row>
-    <row r="65" ht="50.25" customHeight="1" spans="1:52">
+    <row r="65" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -9110,7 +9119,7 @@
       <c r="AV65" s="13"/>
       <c r="AZ65" s="42"/>
     </row>
-    <row r="66" ht="50.25" customHeight="1" spans="1:52">
+    <row r="66" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -9169,7 +9178,7 @@
       <c r="AV66" s="13"/>
       <c r="AZ66" s="41"/>
     </row>
-    <row r="67" ht="50.25" customHeight="1" spans="1:52">
+    <row r="67" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A67" s="12">
         <v>65</v>
       </c>
@@ -9228,7 +9237,7 @@
       <c r="AV67" s="13"/>
       <c r="AZ67" s="42"/>
     </row>
-    <row r="68" ht="50.25" customHeight="1" spans="1:52">
+    <row r="68" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -9287,7 +9296,7 @@
       <c r="AV68" s="13"/>
       <c r="AZ68" s="41"/>
     </row>
-    <row r="69" ht="50.25" customHeight="1" spans="1:52">
+    <row r="69" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -9346,7 +9355,7 @@
       <c r="AV69" s="13"/>
       <c r="AZ69" s="41"/>
     </row>
-    <row r="70" ht="50.25" customHeight="1" spans="1:52">
+    <row r="70" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A70" s="12">
         <v>68</v>
       </c>
@@ -9405,7 +9414,7 @@
       <c r="AV70" s="13"/>
       <c r="AZ70" s="41"/>
     </row>
-    <row r="71" ht="50.25" customHeight="1" spans="1:52">
+    <row r="71" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -9464,7 +9473,7 @@
       <c r="AV71" s="13"/>
       <c r="AZ71" s="41"/>
     </row>
-    <row r="72" ht="60" customHeight="1" spans="1:52">
+    <row r="72" ht="60" hidden="1" customHeight="1" spans="1:52">
       <c r="A72" s="12">
         <v>70</v>
       </c>
@@ -9523,7 +9532,7 @@
       <c r="AV72" s="13"/>
       <c r="AZ72" s="41"/>
     </row>
-    <row r="73" ht="50.25" customHeight="1" spans="1:52">
+    <row r="73" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A73" s="12">
         <v>71</v>
       </c>
@@ -9582,7 +9591,7 @@
       <c r="AV73" s="13"/>
       <c r="AZ73" s="41"/>
     </row>
-    <row r="74" ht="50.25" customHeight="1" spans="1:52">
+    <row r="74" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A74" s="12">
         <v>72</v>
       </c>
@@ -9641,7 +9650,7 @@
       <c r="AV74" s="13"/>
       <c r="AZ74" s="42"/>
     </row>
-    <row r="75" ht="78" customHeight="1" spans="1:52">
+    <row r="75" ht="78" hidden="1" customHeight="1" spans="1:52">
       <c r="A75" s="12">
         <v>73</v>
       </c>
@@ -9700,7 +9709,7 @@
       <c r="AV75" s="13"/>
       <c r="AZ75" s="61"/>
     </row>
-    <row r="76" ht="50.25" customHeight="1" spans="1:52">
+    <row r="76" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A76" s="12">
         <v>74</v>
       </c>
@@ -9759,7 +9768,7 @@
       <c r="AV76" s="13"/>
       <c r="AZ76" s="41"/>
     </row>
-    <row r="77" ht="50.25" customHeight="1" spans="1:52">
+    <row r="77" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A77" s="12">
         <v>75</v>
       </c>
@@ -9818,7 +9827,7 @@
       <c r="AV77" s="13"/>
       <c r="AZ77" s="42"/>
     </row>
-    <row r="78" ht="108" customHeight="1" spans="1:52">
+    <row r="78" ht="108" hidden="1" customHeight="1" spans="1:52">
       <c r="A78" s="12">
         <v>76</v>
       </c>
@@ -9877,7 +9886,7 @@
       <c r="AV78" s="13"/>
       <c r="AZ78" s="41"/>
     </row>
-    <row r="79" ht="50.25" customHeight="1" spans="1:52">
+    <row r="79" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A79" s="12">
         <v>77</v>
       </c>
@@ -9936,7 +9945,7 @@
       <c r="AV79" s="13"/>
       <c r="AZ79" s="61"/>
     </row>
-    <row r="80" ht="50.25" customHeight="1" spans="1:52">
+    <row r="80" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A80" s="12">
         <v>78</v>
       </c>
@@ -9995,7 +10004,7 @@
       <c r="AV80" s="13"/>
       <c r="AZ80" s="42"/>
     </row>
-    <row r="81" ht="50.25" customHeight="1" spans="1:52">
+    <row r="81" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A81" s="12">
         <v>79</v>
       </c>
@@ -10054,7 +10063,7 @@
       <c r="AV81" s="13"/>
       <c r="AZ81" s="43"/>
     </row>
-    <row r="82" ht="50.25" customHeight="1" spans="1:52">
+    <row r="82" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A82" s="12">
         <v>80</v>
       </c>
@@ -10113,7 +10122,7 @@
       <c r="AV82" s="13"/>
       <c r="AZ82" s="41"/>
     </row>
-    <row r="83" ht="18" spans="1:52">
+    <row r="83" ht="18" hidden="1" spans="1:52">
       <c r="A83" s="12">
         <v>81</v>
       </c>
@@ -10172,7 +10181,7 @@
       <c r="AV83" s="13"/>
       <c r="AZ83" s="41"/>
     </row>
-    <row r="84" ht="18" spans="1:52">
+    <row r="84" ht="18" hidden="1" spans="1:52">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -10231,7 +10240,7 @@
       <c r="AV84" s="13"/>
       <c r="AZ84" s="41"/>
     </row>
-    <row r="85" ht="50.25" customHeight="1" spans="1:52">
+    <row r="85" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -10290,7 +10299,7 @@
       <c r="AV85" s="13"/>
       <c r="AZ85" s="41"/>
     </row>
-    <row r="86" ht="50.25" customHeight="1" spans="1:52">
+    <row r="86" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A86" s="12">
         <v>84</v>
       </c>
@@ -10349,7 +10358,7 @@
       <c r="AV86" s="13"/>
       <c r="AZ86" s="41"/>
     </row>
-    <row r="87" ht="77.25" customHeight="1" spans="1:52">
+    <row r="87" ht="77.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A87" s="12">
         <v>85</v>
       </c>
@@ -10408,7 +10417,7 @@
       <c r="AV87" s="13"/>
       <c r="AZ87" s="41"/>
     </row>
-    <row r="88" ht="50.25" customHeight="1" spans="1:52">
+    <row r="88" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A88" s="12">
         <v>86</v>
       </c>
@@ -10467,7 +10476,7 @@
       <c r="AV88" s="13"/>
       <c r="AZ88" s="41"/>
     </row>
-    <row r="89" ht="60" customHeight="1" spans="1:52">
+    <row r="89" ht="60" hidden="1" customHeight="1" spans="1:52">
       <c r="A89" s="12">
         <v>87</v>
       </c>
@@ -10526,7 +10535,7 @@
       <c r="AV89" s="13"/>
       <c r="AZ89" s="42"/>
     </row>
-    <row r="90" ht="50.25" customHeight="1" spans="1:52">
+    <row r="90" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A90" s="12">
         <v>88</v>
       </c>
@@ -10585,7 +10594,7 @@
       <c r="AV90" s="13"/>
       <c r="AZ90" s="42"/>
     </row>
-    <row r="91" ht="50.25" customHeight="1" spans="1:52">
+    <row r="91" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A91" s="12">
         <v>89</v>
       </c>
@@ -10644,7 +10653,7 @@
       <c r="AV91" s="13"/>
       <c r="AZ91" s="42"/>
     </row>
-    <row r="92" ht="50.25" customHeight="1" spans="1:52">
+    <row r="92" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A92" s="12">
         <v>90</v>
       </c>
@@ -10703,7 +10712,7 @@
       <c r="AV92" s="13"/>
       <c r="AZ92" s="42"/>
     </row>
-    <row r="93" ht="50.25" customHeight="1" spans="1:52">
+    <row r="93" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A93" s="12">
         <v>91</v>
       </c>
@@ -10762,7 +10771,7 @@
       <c r="AV93" s="13"/>
       <c r="AZ93" s="42"/>
     </row>
-    <row r="94" ht="50.25" customHeight="1" spans="1:52">
+    <row r="94" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A94" s="12">
         <v>92</v>
       </c>
@@ -10821,7 +10830,7 @@
       <c r="AV94" s="13"/>
       <c r="AZ94" s="43"/>
     </row>
-    <row r="95" ht="50.25" customHeight="1" spans="1:52">
+    <row r="95" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A95" s="12">
         <v>93</v>
       </c>
@@ -10880,7 +10889,7 @@
       <c r="AV95" s="13"/>
       <c r="AZ95" s="42"/>
     </row>
-    <row r="96" ht="50.25" customHeight="1" spans="1:52">
+    <row r="96" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A96" s="12">
         <v>94</v>
       </c>
@@ -10939,7 +10948,7 @@
       <c r="AV96" s="13"/>
       <c r="AZ96" s="42"/>
     </row>
-    <row r="97" ht="50.25" customHeight="1" spans="1:52">
+    <row r="97" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A97" s="12">
         <v>95</v>
       </c>
@@ -10998,7 +11007,7 @@
       <c r="AV97" s="13"/>
       <c r="AZ97" s="41"/>
     </row>
-    <row r="98" ht="50.25" customHeight="1" spans="1:52">
+    <row r="98" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A98" s="12">
         <v>96</v>
       </c>
@@ -11057,7 +11066,7 @@
       <c r="AV98" s="13"/>
       <c r="AZ98" s="42"/>
     </row>
-    <row r="99" ht="50.25" customHeight="1" spans="1:52">
+    <row r="99" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A99" s="12">
         <v>97</v>
       </c>
@@ -11116,7 +11125,7 @@
       <c r="AV99" s="13"/>
       <c r="AZ99" s="43"/>
     </row>
-    <row r="100" ht="50.25" customHeight="1" spans="1:52">
+    <row r="100" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A100" s="12">
         <v>98</v>
       </c>
@@ -11175,7 +11184,7 @@
       <c r="AV100" s="13"/>
       <c r="AZ100" s="42"/>
     </row>
-    <row r="101" ht="50.25" customHeight="1" spans="1:52">
+    <row r="101" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A101" s="12">
         <v>99</v>
       </c>
@@ -11234,7 +11243,7 @@
       <c r="AV101" s="13"/>
       <c r="AZ101" s="41"/>
     </row>
-    <row r="102" ht="50.25" customHeight="1" spans="1:52">
+    <row r="102" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A102" s="12">
         <v>100</v>
       </c>
@@ -11293,7 +11302,7 @@
       <c r="AV102" s="13"/>
       <c r="AZ102" s="62"/>
     </row>
-    <row r="103" ht="50.25" customHeight="1" spans="1:52">
+    <row r="103" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A103" s="12">
         <v>101</v>
       </c>
@@ -11352,7 +11361,7 @@
       <c r="AV103" s="45"/>
       <c r="AZ103" s="42"/>
     </row>
-    <row r="104" ht="50.25" customHeight="1" spans="1:52">
+    <row r="104" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A104" s="12">
         <v>102</v>
       </c>
@@ -11411,7 +11420,7 @@
       <c r="AV104" s="13"/>
       <c r="AZ104" s="42"/>
     </row>
-    <row r="105" ht="50.25" customHeight="1" spans="1:52">
+    <row r="105" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A105" s="12">
         <v>103</v>
       </c>
@@ -11470,7 +11479,7 @@
       <c r="AV105" s="13"/>
       <c r="AZ105" s="41"/>
     </row>
-    <row r="106" ht="50.25" customHeight="1" spans="1:52">
+    <row r="106" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A106" s="12">
         <v>104</v>
       </c>
@@ -11529,7 +11538,7 @@
       <c r="AV106" s="13"/>
       <c r="AZ106" s="41"/>
     </row>
-    <row r="107" ht="50.25" customHeight="1" spans="1:52">
+    <row r="107" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A107" s="12">
         <v>105</v>
       </c>
@@ -11588,7 +11597,7 @@
       <c r="AV107" s="13"/>
       <c r="AZ107" s="41"/>
     </row>
-    <row r="108" ht="50.25" customHeight="1" spans="1:52">
+    <row r="108" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A108" s="12">
         <v>106</v>
       </c>
@@ -11647,7 +11656,7 @@
       <c r="AV108" s="13"/>
       <c r="AZ108" s="41"/>
     </row>
-    <row r="109" ht="50.25" customHeight="1" spans="1:52">
+    <row r="109" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A109" s="12">
         <v>107</v>
       </c>
@@ -11706,7 +11715,7 @@
       <c r="AV109" s="13"/>
       <c r="AZ109" s="62"/>
     </row>
-    <row r="110" ht="50.25" customHeight="1" spans="1:52">
+    <row r="110" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A110" s="12">
         <v>108</v>
       </c>
@@ -11765,7 +11774,7 @@
       <c r="AV110" s="60"/>
       <c r="AZ110" s="62"/>
     </row>
-    <row r="111" ht="50.25" customHeight="1" spans="1:52">
+    <row r="111" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A111" s="12">
         <v>109</v>
       </c>
@@ -11824,7 +11833,7 @@
       <c r="AV111" s="60"/>
       <c r="AZ111" s="42"/>
     </row>
-    <row r="112" ht="18" spans="1:52">
+    <row r="112" ht="18" hidden="1" spans="1:52">
       <c r="A112" s="12">
         <v>110</v>
       </c>
@@ -11883,7 +11892,7 @@
       <c r="AV112" s="60"/>
       <c r="AZ112" s="42"/>
     </row>
-    <row r="113" ht="18" spans="1:52">
+    <row r="113" ht="18" hidden="1" spans="1:52">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -11942,7 +11951,7 @@
       <c r="AV113" s="60"/>
       <c r="AZ113" s="42"/>
     </row>
-    <row r="114" ht="50.25" customHeight="1" spans="1:52">
+    <row r="114" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -12001,7 +12010,7 @@
       <c r="AV114" s="60"/>
       <c r="AZ114" s="42"/>
     </row>
-    <row r="115" ht="50.25" customHeight="1" spans="1:52">
+    <row r="115" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A115" s="12">
         <v>113</v>
       </c>
@@ -12060,7 +12069,7 @@
       <c r="AV115" s="60"/>
       <c r="AZ115" s="41"/>
     </row>
-    <row r="116" ht="50.25" customHeight="1" spans="1:52">
+    <row r="116" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A116" s="12">
         <v>114</v>
       </c>
@@ -12119,7 +12128,7 @@
       <c r="AV116" s="60"/>
       <c r="AZ116" s="42"/>
     </row>
-    <row r="117" ht="50.25" customHeight="1" spans="1:52">
+    <row r="117" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A117" s="12">
         <v>115</v>
       </c>
@@ -12178,7 +12187,7 @@
       <c r="AV117" s="60"/>
       <c r="AZ117" s="42"/>
     </row>
-    <row r="118" ht="50.25" customHeight="1" spans="1:52">
+    <row r="118" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A118" s="12">
         <v>116</v>
       </c>
@@ -12237,7 +12246,7 @@
       <c r="AV118" s="60"/>
       <c r="AZ118" s="42"/>
     </row>
-    <row r="119" ht="50.25" customHeight="1" spans="1:52">
+    <row r="119" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A119" s="12">
         <v>117</v>
       </c>
@@ -12296,7 +12305,7 @@
       <c r="AV119" s="60"/>
       <c r="AZ119" s="42"/>
     </row>
-    <row r="120" ht="50.25" customHeight="1" spans="1:52">
+    <row r="120" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A120" s="12">
         <v>118</v>
       </c>
@@ -12355,7 +12364,7 @@
       <c r="AV120" s="60"/>
       <c r="AZ120" s="41"/>
     </row>
-    <row r="121" ht="50.25" customHeight="1" spans="1:52">
+    <row r="121" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A121" s="12">
         <v>119</v>
       </c>
@@ -12414,7 +12423,7 @@
       <c r="AV121" s="60"/>
       <c r="AZ121" s="42"/>
     </row>
-    <row r="122" ht="50.25" customHeight="1" spans="1:52">
+    <row r="122" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A122" s="12">
         <v>120</v>
       </c>
@@ -12473,7 +12482,7 @@
       <c r="AV122" s="60"/>
       <c r="AZ122" s="41"/>
     </row>
-    <row r="123" ht="50.25" customHeight="1" spans="1:52">
+    <row r="123" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A123" s="12">
         <v>121</v>
       </c>
@@ -12532,7 +12541,7 @@
       <c r="AV123" s="60"/>
       <c r="AZ123" s="42"/>
     </row>
-    <row r="124" ht="50.25" customHeight="1" spans="1:52">
+    <row r="124" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A124" s="12">
         <v>122</v>
       </c>
@@ -12591,7 +12600,7 @@
       <c r="AV124" s="60"/>
       <c r="AZ124" s="42"/>
     </row>
-    <row r="125" ht="50.25" customHeight="1" spans="1:52">
+    <row r="125" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A125" s="12">
         <v>123</v>
       </c>
@@ -12650,7 +12659,7 @@
       <c r="AV125" s="60"/>
       <c r="AZ125" s="43"/>
     </row>
-    <row r="126" ht="50.25" customHeight="1" spans="1:52">
+    <row r="126" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A126" s="12">
         <v>124</v>
       </c>
@@ -12709,7 +12718,7 @@
       <c r="AV126" s="60"/>
       <c r="AZ126" s="42"/>
     </row>
-    <row r="127" ht="50.25" customHeight="1" spans="1:52">
+    <row r="127" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A127" s="12">
         <v>125</v>
       </c>
@@ -12768,7 +12777,7 @@
       <c r="AV127" s="60"/>
       <c r="AZ127" s="42"/>
     </row>
-    <row r="128" ht="50.25" customHeight="1" spans="1:52">
+    <row r="128" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A128" s="12">
         <v>126</v>
       </c>
@@ -12827,7 +12836,7 @@
       <c r="AV128" s="60"/>
       <c r="AZ128" s="42"/>
     </row>
-    <row r="129" ht="50.25" customHeight="1" spans="1:52">
+    <row r="129" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A129" s="12">
         <v>127</v>
       </c>
@@ -12886,7 +12895,7 @@
       <c r="AV129" s="60"/>
       <c r="AZ129" s="43"/>
     </row>
-    <row r="130" ht="50.25" customHeight="1" spans="1:52">
+    <row r="130" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A130" s="12">
         <v>128</v>
       </c>
@@ -12945,7 +12954,7 @@
       <c r="AV130" s="60"/>
       <c r="AZ130" s="71"/>
     </row>
-    <row r="131" ht="50.25" customHeight="1" spans="1:52">
+    <row r="131" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A131" s="12">
         <v>129</v>
       </c>
@@ -13004,7 +13013,7 @@
       <c r="AV131" s="60"/>
       <c r="AZ131" s="42"/>
     </row>
-    <row r="132" ht="50.25" customHeight="1" spans="1:52">
+    <row r="132" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A132" s="12">
         <v>130</v>
       </c>
@@ -13063,7 +13072,7 @@
       <c r="AV132" s="60"/>
       <c r="AZ132" s="41"/>
     </row>
-    <row r="133" ht="50.25" customHeight="1" spans="1:52">
+    <row r="133" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A133" s="12">
         <v>131</v>
       </c>
@@ -13122,7 +13131,7 @@
       <c r="AV133" s="13"/>
       <c r="AZ133" s="42"/>
     </row>
-    <row r="134" ht="50.25" customHeight="1" spans="1:52">
+    <row r="134" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A134" s="12">
         <v>132</v>
       </c>
@@ -13181,7 +13190,7 @@
       <c r="AV134" s="13"/>
       <c r="AZ134" s="43"/>
     </row>
-    <row r="135" ht="50.25" customHeight="1" spans="1:52">
+    <row r="135" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A135" s="12">
         <v>133</v>
       </c>
@@ -13240,7 +13249,7 @@
       <c r="AV135" s="13"/>
       <c r="AZ135" s="42"/>
     </row>
-    <row r="136" ht="50.25" customHeight="1" spans="1:52">
+    <row r="136" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A136" s="12">
         <v>134</v>
       </c>
@@ -13299,7 +13308,7 @@
       <c r="AV136" s="13"/>
       <c r="AZ136" s="42"/>
     </row>
-    <row r="137" ht="50.25" customHeight="1" spans="1:52">
+    <row r="137" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A137" s="12">
         <v>135</v>
       </c>
@@ -13358,7 +13367,7 @@
       <c r="AV137" s="13"/>
       <c r="AZ137" s="41"/>
     </row>
-    <row r="138" ht="50.25" customHeight="1" spans="1:52">
+    <row r="138" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A138" s="12">
         <v>136</v>
       </c>
@@ -13417,7 +13426,7 @@
       <c r="AV138" s="13"/>
       <c r="AZ138" s="41"/>
     </row>
-    <row r="139" ht="50.25" customHeight="1" spans="1:52">
+    <row r="139" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A139" s="12">
         <v>137</v>
       </c>
@@ -13476,7 +13485,7 @@
       <c r="AV139" s="13"/>
       <c r="AZ139" s="42"/>
     </row>
-    <row r="140" ht="50.25" customHeight="1" spans="1:52">
+    <row r="140" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A140" s="12">
         <v>138</v>
       </c>
@@ -13535,7 +13544,7 @@
       <c r="AV140" s="13"/>
       <c r="AZ140" s="42"/>
     </row>
-    <row r="141" ht="50.25" customHeight="1" spans="1:52">
+    <row r="141" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A141" s="12">
         <v>139</v>
       </c>
@@ -13594,7 +13603,7 @@
       <c r="AV141" s="13"/>
       <c r="AZ141" s="42"/>
     </row>
-    <row r="142" ht="50.25" customHeight="1" spans="1:52">
+    <row r="142" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A142" s="12">
         <v>140</v>
       </c>
@@ -13653,7 +13662,7 @@
       <c r="AV142" s="13"/>
       <c r="AZ142" s="42"/>
     </row>
-    <row r="143" ht="50.25" customHeight="1" spans="1:52">
+    <row r="143" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A143" s="12">
         <v>141</v>
       </c>
@@ -13712,7 +13721,7 @@
       <c r="AV143" s="13"/>
       <c r="AZ143" s="71"/>
     </row>
-    <row r="144" ht="50.25" customHeight="1" spans="1:52">
+    <row r="144" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A144" s="12">
         <v>142</v>
       </c>
@@ -13771,7 +13780,7 @@
       <c r="AV144" s="13"/>
       <c r="AZ144" s="62"/>
     </row>
-    <row r="145" ht="50.25" customHeight="1" spans="1:52">
+    <row r="145" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A145" s="12">
         <v>143</v>
       </c>
@@ -13830,7 +13839,7 @@
       <c r="AV145" s="13"/>
       <c r="AZ145" s="41"/>
     </row>
-    <row r="146" ht="50.25" customHeight="1" spans="1:52">
+    <row r="146" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A146" s="12">
         <v>144</v>
       </c>
@@ -13889,7 +13898,7 @@
       <c r="AV146" s="13"/>
       <c r="AZ146" s="41"/>
     </row>
-    <row r="147" ht="50.25" customHeight="1" spans="1:52">
+    <row r="147" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A147" s="12">
         <v>145</v>
       </c>
@@ -13948,7 +13957,7 @@
       <c r="AV147" s="13"/>
       <c r="AZ147" s="41"/>
     </row>
-    <row r="148" ht="50.25" customHeight="1" spans="1:52">
+    <row r="148" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A148" s="12">
         <v>146</v>
       </c>
@@ -14007,7 +14016,7 @@
       <c r="AV148" s="13"/>
       <c r="AZ148" s="41"/>
     </row>
-    <row r="149" ht="50.25" customHeight="1" spans="1:52">
+    <row r="149" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A149" s="12">
         <v>147</v>
       </c>
@@ -14066,7 +14075,7 @@
       <c r="AV149" s="13"/>
       <c r="AZ149" s="41"/>
     </row>
-    <row r="150" ht="50.25" customHeight="1" spans="1:52">
+    <row r="150" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A150" s="12">
         <v>148</v>
       </c>
@@ -14125,7 +14134,7 @@
       <c r="AV150" s="13"/>
       <c r="AZ150" s="41"/>
     </row>
-    <row r="151" ht="50.25" customHeight="1" spans="1:52">
+    <row r="151" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A151" s="12">
         <v>149</v>
       </c>
@@ -14184,7 +14193,7 @@
       <c r="AV151" s="13"/>
       <c r="AZ151" s="41"/>
     </row>
-    <row r="152" ht="50.25" customHeight="1" spans="1:52">
+    <row r="152" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A152" s="12">
         <v>150</v>
       </c>
@@ -14243,7 +14252,7 @@
       <c r="AV152" s="13"/>
       <c r="AZ152" s="41"/>
     </row>
-    <row r="153" ht="50.25" customHeight="1" spans="1:52">
+    <row r="153" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A153" s="12">
         <v>151</v>
       </c>
@@ -14302,7 +14311,7 @@
       <c r="AV153" s="13"/>
       <c r="AZ153" s="41"/>
     </row>
-    <row r="154" ht="50.25" customHeight="1" spans="1:52">
+    <row r="154" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A154" s="12">
         <v>152</v>
       </c>
@@ -14361,7 +14370,7 @@
       <c r="AV154" s="13"/>
       <c r="AZ154" s="41"/>
     </row>
-    <row r="155" ht="50.25" customHeight="1" spans="1:52">
+    <row r="155" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A155" s="12">
         <v>153</v>
       </c>
@@ -14420,7 +14429,7 @@
       <c r="AV155" s="13"/>
       <c r="AZ155" s="13"/>
     </row>
-    <row r="156" ht="50.25" customHeight="1" spans="1:52">
+    <row r="156" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A156" s="12">
         <v>154</v>
       </c>
@@ -14479,7 +14488,7 @@
       <c r="AV156" s="13"/>
       <c r="AZ156" s="41"/>
     </row>
-    <row r="157" ht="50.25" customHeight="1" spans="1:52">
+    <row r="157" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A157" s="12">
         <v>155</v>
       </c>
@@ -14538,7 +14547,7 @@
       <c r="AV157" s="13"/>
       <c r="AZ157" s="41"/>
     </row>
-    <row r="158" ht="50.25" customHeight="1" spans="1:52">
+    <row r="158" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A158" s="12">
         <v>156</v>
       </c>
@@ -14597,7 +14606,7 @@
       <c r="AV158" s="13"/>
       <c r="AZ158" s="41"/>
     </row>
-    <row r="159" ht="50.25" customHeight="1" spans="1:52">
+    <row r="159" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A159" s="12">
         <v>157</v>
       </c>
@@ -14656,7 +14665,7 @@
       <c r="AV159" s="13"/>
       <c r="AZ159" s="41"/>
     </row>
-    <row r="160" ht="50.25" customHeight="1" spans="1:52">
+    <row r="160" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A160" s="12">
         <v>158</v>
       </c>
@@ -14715,7 +14724,7 @@
       <c r="AV160" s="13"/>
       <c r="AZ160" s="41"/>
     </row>
-    <row r="161" ht="50.25" customHeight="1" spans="1:52">
+    <row r="161" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A161" s="12">
         <v>159</v>
       </c>
@@ -14774,7 +14783,7 @@
       <c r="AV161" s="13"/>
       <c r="AZ161" s="41"/>
     </row>
-    <row r="162" ht="50.25" customHeight="1" spans="1:52">
+    <row r="162" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A162" s="12">
         <v>160</v>
       </c>
@@ -14833,7 +14842,7 @@
       <c r="AV162" s="13"/>
       <c r="AZ162" s="41"/>
     </row>
-    <row r="163" ht="50.25" customHeight="1" spans="1:52">
+    <row r="163" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A163" s="12">
         <v>161</v>
       </c>
@@ -14892,7 +14901,7 @@
       <c r="AV163" s="13"/>
       <c r="AZ163" s="41"/>
     </row>
-    <row r="164" ht="50.25" customHeight="1" spans="1:52">
+    <row r="164" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A164" s="12">
         <v>162</v>
       </c>
@@ -14951,7 +14960,7 @@
       <c r="AV164" s="13"/>
       <c r="AZ164" s="41"/>
     </row>
-    <row r="165" ht="50.25" customHeight="1" spans="1:52">
+    <row r="165" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A165" s="12">
         <v>163</v>
       </c>
@@ -15010,7 +15019,7 @@
       <c r="AV165" s="13"/>
       <c r="AZ165" s="41"/>
     </row>
-    <row r="166" ht="50.25" customHeight="1" spans="1:52">
+    <row r="166" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A166" s="12">
         <v>164</v>
       </c>
@@ -15069,7 +15078,7 @@
       <c r="AV166" s="13"/>
       <c r="AZ166" s="41"/>
     </row>
-    <row r="167" ht="50.25" customHeight="1" spans="1:52">
+    <row r="167" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A167" s="12">
         <v>165</v>
       </c>
@@ -15128,7 +15137,7 @@
       <c r="AV167" s="13"/>
       <c r="AZ167" s="41"/>
     </row>
-    <row r="168" ht="50.25" customHeight="1" spans="1:52">
+    <row r="168" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A168" s="12">
         <v>166</v>
       </c>
@@ -15187,7 +15196,7 @@
       <c r="AV168" s="13"/>
       <c r="AZ168" s="41"/>
     </row>
-    <row r="169" ht="50.25" customHeight="1" spans="1:52">
+    <row r="169" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A169" s="12">
         <v>167</v>
       </c>
@@ -15246,7 +15255,7 @@
       <c r="AV169" s="13"/>
       <c r="AZ169" s="41"/>
     </row>
-    <row r="170" ht="50.25" customHeight="1" spans="1:52">
+    <row r="170" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A170" s="12">
         <v>168</v>
       </c>
@@ -15305,7 +15314,7 @@
       <c r="AV170" s="13"/>
       <c r="AZ170" s="41"/>
     </row>
-    <row r="171" ht="50.25" customHeight="1" spans="1:52">
+    <row r="171" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A171" s="12">
         <v>169</v>
       </c>
@@ -15364,7 +15373,7 @@
       <c r="AV171" s="13"/>
       <c r="AZ171" s="41"/>
     </row>
-    <row r="172" ht="50.25" customHeight="1" spans="1:52">
+    <row r="172" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A172" s="12">
         <v>170</v>
       </c>
@@ -15423,7 +15432,7 @@
       <c r="AV172" s="13"/>
       <c r="AZ172" s="41"/>
     </row>
-    <row r="173" ht="50.25" customHeight="1" spans="1:52">
+    <row r="173" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A173" s="12">
         <v>171</v>
       </c>
@@ -15482,7 +15491,7 @@
       <c r="AV173" s="13"/>
       <c r="AZ173" s="42"/>
     </row>
-    <row r="174" ht="50.25" customHeight="1" spans="1:52">
+    <row r="174" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A174" s="12">
         <v>172</v>
       </c>
@@ -15541,7 +15550,7 @@
       <c r="AV174" s="13"/>
       <c r="AZ174" s="42"/>
     </row>
-    <row r="175" ht="50.25" customHeight="1" spans="1:52">
+    <row r="175" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A175" s="12">
         <v>173</v>
       </c>
@@ -15659,7 +15668,7 @@
       <c r="AV176" s="13"/>
       <c r="AZ176" s="42"/>
     </row>
-    <row r="177" ht="50.25" customHeight="1" spans="1:52">
+    <row r="177" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A177" s="12">
         <v>175</v>
       </c>
@@ -15718,7 +15727,7 @@
       <c r="AV177" s="13"/>
       <c r="AZ177" s="43"/>
     </row>
-    <row r="178" ht="50.25" customHeight="1" spans="1:52">
+    <row r="178" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A178" s="12">
         <v>176</v>
       </c>
@@ -15777,7 +15786,7 @@
       <c r="AV178" s="13"/>
       <c r="AZ178" s="41"/>
     </row>
-    <row r="179" ht="50.25" customHeight="1" spans="1:52">
+    <row r="179" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A179" s="12">
         <v>177</v>
       </c>
@@ -15836,7 +15845,7 @@
       <c r="AV179" s="13"/>
       <c r="AZ179" s="41"/>
     </row>
-    <row r="180" ht="50.25" customHeight="1" spans="1:52">
+    <row r="180" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A180" s="12">
         <v>178</v>
       </c>
@@ -15895,7 +15904,7 @@
       <c r="AV180" s="13"/>
       <c r="AZ180" s="41"/>
     </row>
-    <row r="181" ht="50.25" customHeight="1" spans="1:52">
+    <row r="181" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A181" s="12">
         <v>179</v>
       </c>
@@ -15954,7 +15963,7 @@
       <c r="AV181" s="13"/>
       <c r="AZ181" s="42"/>
     </row>
-    <row r="182" ht="50.25" customHeight="1" spans="1:52">
+    <row r="182" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A182" s="12">
         <v>180</v>
       </c>
@@ -16013,7 +16022,7 @@
       <c r="AV182" s="13"/>
       <c r="AZ182" s="42"/>
     </row>
-    <row r="183" ht="50.25" customHeight="1" spans="1:52">
+    <row r="183" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A183" s="12">
         <v>181</v>
       </c>
@@ -16072,7 +16081,7 @@
       <c r="AV183" s="13"/>
       <c r="AZ183" s="42"/>
     </row>
-    <row r="184" ht="50.25" customHeight="1" spans="1:52">
+    <row r="184" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A184" s="12">
         <v>182</v>
       </c>
@@ -16131,7 +16140,7 @@
       <c r="AV184" s="13"/>
       <c r="AZ184" s="41"/>
     </row>
-    <row r="185" ht="50.25" customHeight="1" spans="1:52">
+    <row r="185" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A185" s="12">
         <v>183</v>
       </c>
@@ -16190,7 +16199,7 @@
       <c r="AV185" s="13"/>
       <c r="AZ185" s="42"/>
     </row>
-    <row r="186" ht="50.25" customHeight="1" spans="1:52">
+    <row r="186" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A186" s="12">
         <v>184</v>
       </c>
@@ -16249,7 +16258,7 @@
       <c r="AV186" s="13"/>
       <c r="AZ186" s="41"/>
     </row>
-    <row r="187" ht="50.25" customHeight="1" spans="1:52">
+    <row r="187" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A187" s="12">
         <v>185</v>
       </c>
@@ -16308,7 +16317,7 @@
       <c r="AV187" s="13"/>
       <c r="AZ187" s="42"/>
     </row>
-    <row r="188" ht="50.25" customHeight="1" spans="1:52">
+    <row r="188" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A188" s="12">
         <v>186</v>
       </c>
@@ -16367,7 +16376,7 @@
       <c r="AV188" s="13"/>
       <c r="AZ188" s="41"/>
     </row>
-    <row r="189" ht="50.25" customHeight="1" spans="1:52">
+    <row r="189" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A189" s="12">
         <v>187</v>
       </c>
@@ -16426,7 +16435,7 @@
       <c r="AV189" s="13"/>
       <c r="AZ189" s="41"/>
     </row>
-    <row r="190" ht="50.25" customHeight="1" spans="1:52">
+    <row r="190" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A190" s="12">
         <v>188</v>
       </c>
@@ -16485,7 +16494,7 @@
       <c r="AV190" s="13"/>
       <c r="AZ190" s="42"/>
     </row>
-    <row r="191" ht="50.25" customHeight="1" spans="1:52">
+    <row r="191" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A191" s="12">
         <v>189</v>
       </c>
@@ -16544,7 +16553,7 @@
       <c r="AV191" s="13"/>
       <c r="AZ191" s="41"/>
     </row>
-    <row r="192" ht="50.25" customHeight="1" spans="1:52">
+    <row r="192" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A192" s="12">
         <v>190</v>
       </c>
@@ -16603,7 +16612,7 @@
       <c r="AV192" s="13"/>
       <c r="AZ192" s="42"/>
     </row>
-    <row r="193" ht="50.25" customHeight="1" spans="1:52">
+    <row r="193" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A193" s="12">
         <v>191</v>
       </c>
@@ -16662,7 +16671,7 @@
       <c r="AV193" s="13"/>
       <c r="AZ193" s="42"/>
     </row>
-    <row r="194" ht="50.25" customHeight="1" spans="1:52">
+    <row r="194" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A194" s="12">
         <v>192</v>
       </c>
@@ -16721,7 +16730,7 @@
       <c r="AV194" s="13"/>
       <c r="AZ194" s="41"/>
     </row>
-    <row r="195" ht="50.25" customHeight="1" spans="1:52">
+    <row r="195" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A195" s="12">
         <v>193</v>
       </c>
@@ -16780,7 +16789,7 @@
       <c r="AV195" s="13"/>
       <c r="AZ195" s="42"/>
     </row>
-    <row r="196" ht="50.25" customHeight="1" spans="1:52">
+    <row r="196" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A196" s="12">
         <v>194</v>
       </c>
@@ -16839,7 +16848,7 @@
       <c r="AV196" s="13"/>
       <c r="AZ196" s="42"/>
     </row>
-    <row r="197" ht="50.25" customHeight="1" spans="1:52">
+    <row r="197" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A197" s="12">
         <v>195</v>
       </c>
@@ -16898,7 +16907,7 @@
       <c r="AV197" s="13"/>
       <c r="AZ197" s="41"/>
     </row>
-    <row r="198" ht="50.25" customHeight="1" spans="1:52">
+    <row r="198" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A198" s="12">
         <v>196</v>
       </c>
@@ -16953,7 +16962,7 @@
       <c r="AV198" s="13"/>
       <c r="AZ198" s="41"/>
     </row>
-    <row r="199" ht="50.25" customHeight="1" spans="1:52">
+    <row r="199" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A199" s="12">
         <v>197</v>
       </c>
@@ -17012,7 +17021,7 @@
       <c r="AV199" s="13"/>
       <c r="AZ199" s="41"/>
     </row>
-    <row r="200" ht="50.25" customHeight="1" spans="1:52">
+    <row r="200" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A200" s="12">
         <v>198</v>
       </c>
@@ -17071,7 +17080,7 @@
       <c r="AV200" s="13"/>
       <c r="AZ200" s="41"/>
     </row>
-    <row r="201" ht="50.25" customHeight="1" spans="1:52">
+    <row r="201" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A201" s="12">
         <v>199</v>
       </c>
@@ -17130,7 +17139,7 @@
       <c r="AV201" s="13"/>
       <c r="AZ201" s="41"/>
     </row>
-    <row r="202" ht="50.25" customHeight="1" spans="1:52">
+    <row r="202" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A202" s="12">
         <v>200</v>
       </c>
@@ -17189,7 +17198,7 @@
       <c r="AV202" s="13"/>
       <c r="AZ202" s="41"/>
     </row>
-    <row r="203" ht="50.25" customHeight="1" spans="1:52">
+    <row r="203" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A203" s="12">
         <v>201</v>
       </c>
@@ -17248,7 +17257,7 @@
       <c r="AV203" s="13"/>
       <c r="AZ203" s="41"/>
     </row>
-    <row r="204" ht="50.25" customHeight="1" spans="1:52">
+    <row r="204" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A204" s="12">
         <v>202</v>
       </c>
@@ -17307,7 +17316,7 @@
       <c r="AV204" s="13"/>
       <c r="AZ204" s="42"/>
     </row>
-    <row r="205" ht="50.25" customHeight="1" spans="1:52">
+    <row r="205" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A205" s="12">
         <v>203</v>
       </c>
@@ -17366,7 +17375,7 @@
       <c r="AV205" s="13"/>
       <c r="AZ205" s="41"/>
     </row>
-    <row r="206" ht="50.25" customHeight="1" spans="1:52">
+    <row r="206" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A206" s="12">
         <v>204</v>
       </c>
@@ -17425,7 +17434,7 @@
       <c r="AV206" s="13"/>
       <c r="AZ206" s="42"/>
     </row>
-    <row r="207" ht="50.25" customHeight="1" spans="1:52">
+    <row r="207" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A207" s="12">
         <v>205</v>
       </c>
@@ -17484,7 +17493,7 @@
       <c r="AV207" s="13"/>
       <c r="AZ207" s="41"/>
     </row>
-    <row r="208" ht="50.25" customHeight="1" spans="1:52">
+    <row r="208" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A208" s="12">
         <v>206</v>
       </c>
@@ -17543,7 +17552,7 @@
       <c r="AV208" s="13"/>
       <c r="AZ208" s="41"/>
     </row>
-    <row r="209" ht="50.25" customHeight="1" spans="1:52">
+    <row r="209" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A209" s="12">
         <v>207</v>
       </c>
@@ -17602,7 +17611,7 @@
       <c r="AV209" s="13"/>
       <c r="AZ209" s="42"/>
     </row>
-    <row r="210" ht="50.25" customHeight="1" spans="1:52">
+    <row r="210" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A210" s="12">
         <v>208</v>
       </c>
@@ -17661,7 +17670,7 @@
       <c r="AV210" s="13"/>
       <c r="AZ210" s="41"/>
     </row>
-    <row r="211" ht="50.25" customHeight="1" spans="1:52">
+    <row r="211" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A211" s="12">
         <v>209</v>
       </c>
@@ -17720,7 +17729,7 @@
       <c r="AV211" s="13"/>
       <c r="AZ211" s="41"/>
     </row>
-    <row r="212" ht="50.25" customHeight="1" spans="1:52">
+    <row r="212" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A212" s="12">
         <v>210</v>
       </c>
@@ -17779,7 +17788,7 @@
       <c r="AV212" s="13"/>
       <c r="AZ212" s="41"/>
     </row>
-    <row r="213" ht="50.25" customHeight="1" spans="1:52">
+    <row r="213" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A213" s="12">
         <v>211</v>
       </c>
@@ -17838,7 +17847,7 @@
       <c r="AV213" s="13"/>
       <c r="AZ213" s="41"/>
     </row>
-    <row r="214" ht="50.25" customHeight="1" spans="1:52">
+    <row r="214" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A214" s="12">
         <v>212</v>
       </c>
@@ -17897,7 +17906,7 @@
       <c r="AV214" s="13"/>
       <c r="AZ214" s="62"/>
     </row>
-    <row r="215" ht="50.25" customHeight="1" spans="1:52">
+    <row r="215" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A215" s="12">
         <v>213</v>
       </c>
@@ -17956,7 +17965,7 @@
       <c r="AV215" s="13"/>
       <c r="AZ215" s="41"/>
     </row>
-    <row r="216" ht="50.25" customHeight="1" spans="1:52">
+    <row r="216" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A216" s="12">
         <v>214</v>
       </c>
@@ -18015,7 +18024,7 @@
       <c r="AV216" s="13"/>
       <c r="AZ216" s="41"/>
     </row>
-    <row r="217" ht="50.25" customHeight="1" spans="1:52">
+    <row r="217" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A217" s="12">
         <v>215</v>
       </c>
@@ -18074,7 +18083,7 @@
       <c r="AV217" s="13"/>
       <c r="AZ217" s="41"/>
     </row>
-    <row r="218" ht="50.25" customHeight="1" spans="1:52">
+    <row r="218" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A218" s="12">
         <v>216</v>
       </c>
@@ -18133,7 +18142,7 @@
       <c r="AV218" s="13"/>
       <c r="AZ218" s="41"/>
     </row>
-    <row r="219" ht="50.25" customHeight="1" spans="1:52">
+    <row r="219" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A219" s="12">
         <v>217</v>
       </c>
@@ -18192,7 +18201,7 @@
       <c r="AV219" s="13"/>
       <c r="AZ219" s="41"/>
     </row>
-    <row r="220" ht="50.25" customHeight="1" spans="1:52">
+    <row r="220" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A220" s="12">
         <v>218</v>
       </c>
@@ -18251,7 +18260,7 @@
       <c r="AV220" s="13"/>
       <c r="AZ220" s="41"/>
     </row>
-    <row r="221" ht="50.25" customHeight="1" spans="1:52">
+    <row r="221" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A221" s="12">
         <v>219</v>
       </c>
@@ -18312,7 +18321,7 @@
       <c r="AV221" s="13"/>
       <c r="AZ221" s="41"/>
     </row>
-    <row r="222" ht="50.25" customHeight="1" spans="1:52">
+    <row r="222" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A222" s="12">
         <v>220</v>
       </c>
@@ -18371,7 +18380,7 @@
       <c r="AV222" s="13"/>
       <c r="AZ222" s="41"/>
     </row>
-    <row r="223" ht="50.25" customHeight="1" spans="1:52">
+    <row r="223" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A223" s="12">
         <v>221</v>
       </c>
@@ -18430,7 +18439,7 @@
       <c r="AV223" s="13"/>
       <c r="AZ223" s="41"/>
     </row>
-    <row r="224" ht="50.25" customHeight="1" spans="1:52">
+    <row r="224" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A224" s="12">
         <v>222</v>
       </c>
@@ -18489,7 +18498,7 @@
       <c r="AV224" s="80"/>
       <c r="AZ224" s="41"/>
     </row>
-    <row r="225" ht="50.25" customHeight="1" spans="1:52">
+    <row r="225" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A225" s="12">
         <v>223</v>
       </c>
@@ -18548,7 +18557,7 @@
       <c r="AV225" s="13"/>
       <c r="AZ225" s="41"/>
     </row>
-    <row r="226" ht="50.25" customHeight="1" spans="1:52">
+    <row r="226" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A226" s="12">
         <v>224</v>
       </c>
@@ -18607,7 +18616,7 @@
       <c r="AV226" s="13"/>
       <c r="AZ226" s="41"/>
     </row>
-    <row r="227" ht="50.25" customHeight="1" spans="1:52">
+    <row r="227" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A227" s="12">
         <v>225</v>
       </c>
@@ -18666,7 +18675,7 @@
       <c r="AV227" s="13"/>
       <c r="AZ227" s="41"/>
     </row>
-    <row r="228" ht="50.25" customHeight="1" spans="1:52">
+    <row r="228" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A228" s="12">
         <v>226</v>
       </c>
@@ -18725,7 +18734,7 @@
       <c r="AV228" s="13"/>
       <c r="AZ228" s="41"/>
     </row>
-    <row r="229" ht="50.25" customHeight="1" spans="1:52">
+    <row r="229" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A229" s="12">
         <v>227</v>
       </c>
@@ -18784,7 +18793,7 @@
       <c r="AV229" s="13"/>
       <c r="AZ229" s="41"/>
     </row>
-    <row r="230" ht="50.25" customHeight="1" spans="1:52">
+    <row r="230" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A230" s="12">
         <v>228</v>
       </c>
@@ -18843,7 +18852,7 @@
       <c r="AV230" s="13"/>
       <c r="AZ230" s="41"/>
     </row>
-    <row r="231" ht="50.25" customHeight="1" spans="1:52">
+    <row r="231" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A231" s="12">
         <v>229</v>
       </c>
@@ -18902,7 +18911,7 @@
       <c r="AV231" s="13"/>
       <c r="AZ231" s="41"/>
     </row>
-    <row r="232" ht="50.25" customHeight="1" spans="1:52">
+    <row r="232" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A232" s="12">
         <v>230</v>
       </c>
@@ -18961,7 +18970,7 @@
       <c r="AV232" s="13"/>
       <c r="AZ232" s="42"/>
     </row>
-    <row r="233" ht="50.25" customHeight="1" spans="1:52">
+    <row r="233" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A233" s="12">
         <v>231</v>
       </c>
@@ -19020,7 +19029,7 @@
       <c r="AV233" s="80"/>
       <c r="AZ233" s="41"/>
     </row>
-    <row r="234" ht="50.25" customHeight="1" spans="1:52">
+    <row r="234" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A234" s="12">
         <v>232</v>
       </c>
@@ -19079,7 +19088,7 @@
       <c r="AV234" s="13"/>
       <c r="AZ234" s="41"/>
     </row>
-    <row r="235" ht="50.25" customHeight="1" spans="1:52">
+    <row r="235" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A235" s="12">
         <v>233</v>
       </c>
@@ -19138,7 +19147,7 @@
       <c r="AV235" s="13"/>
       <c r="AZ235" s="41"/>
     </row>
-    <row r="236" ht="50.25" customHeight="1" spans="1:52">
+    <row r="236" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A236" s="12">
         <v>234</v>
       </c>
@@ -19197,7 +19206,7 @@
       <c r="AV236" s="80"/>
       <c r="AZ236" s="41"/>
     </row>
-    <row r="237" ht="50.25" customHeight="1" spans="1:52">
+    <row r="237" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A237" s="12">
         <v>235</v>
       </c>
@@ -19256,7 +19265,7 @@
       <c r="AV237" s="13"/>
       <c r="AZ237" s="41"/>
     </row>
-    <row r="238" ht="50.25" customHeight="1" spans="1:52">
+    <row r="238" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A238" s="12">
         <v>236</v>
       </c>
@@ -19315,7 +19324,7 @@
       <c r="AV238" s="13"/>
       <c r="AZ238" s="41"/>
     </row>
-    <row r="239" ht="50.25" customHeight="1" spans="1:52">
+    <row r="239" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A239" s="12">
         <v>237</v>
       </c>
@@ -19374,7 +19383,7 @@
       <c r="AV239" s="13"/>
       <c r="AZ239" s="41"/>
     </row>
-    <row r="240" ht="50.25" customHeight="1" spans="1:52">
+    <row r="240" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A240" s="12">
         <v>238</v>
       </c>
@@ -19433,7 +19442,7 @@
       <c r="AV240" s="13"/>
       <c r="AZ240" s="41"/>
     </row>
-    <row r="241" ht="50.25" customHeight="1" spans="1:52">
+    <row r="241" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A241" s="12">
         <v>239</v>
       </c>
@@ -19492,7 +19501,7 @@
       <c r="AV241" s="13"/>
       <c r="AZ241" s="13"/>
     </row>
-    <row r="242" ht="50.25" customHeight="1" spans="1:52">
+    <row r="242" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A242" s="12">
         <v>240</v>
       </c>
@@ -19551,7 +19560,7 @@
       <c r="AV242" s="80"/>
       <c r="AZ242" s="41"/>
     </row>
-    <row r="243" ht="50.25" customHeight="1" spans="1:52">
+    <row r="243" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A243" s="12">
         <v>241</v>
       </c>
@@ -19610,7 +19619,7 @@
       <c r="AV243" s="13"/>
       <c r="AZ243" s="42"/>
     </row>
-    <row r="244" ht="50.25" customHeight="1" spans="1:52">
+    <row r="244" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A244" s="12">
         <v>242</v>
       </c>
@@ -19669,7 +19678,7 @@
       <c r="AV244" s="13"/>
       <c r="AZ244" s="42"/>
     </row>
-    <row r="245" ht="50.25" customHeight="1" spans="1:52">
+    <row r="245" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A245" s="12">
         <v>243</v>
       </c>
@@ -19728,7 +19737,7 @@
       <c r="AV245" s="13"/>
       <c r="AZ245" s="41"/>
     </row>
-    <row r="246" ht="50.25" customHeight="1" spans="1:52">
+    <row r="246" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A246" s="12">
         <v>244</v>
       </c>
@@ -19787,7 +19796,7 @@
       <c r="AV246" s="13"/>
       <c r="AZ246" s="41"/>
     </row>
-    <row r="247" ht="50.25" customHeight="1" spans="1:52">
+    <row r="247" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A247" s="12">
         <v>245</v>
       </c>
@@ -19846,7 +19855,7 @@
       <c r="AV247" s="80"/>
       <c r="AZ247" s="41"/>
     </row>
-    <row r="248" ht="50.25" customHeight="1" spans="1:52">
+    <row r="248" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A248" s="12">
         <v>246</v>
       </c>
@@ -19905,7 +19914,7 @@
       <c r="AV248" s="80"/>
       <c r="AZ248" s="41"/>
     </row>
-    <row r="249" ht="50.25" customHeight="1" spans="1:52">
+    <row r="249" ht="50.25" hidden="1" customHeight="1" spans="1:52">
       <c r="A249" s="12">
         <v>247</v>
       </c>
@@ -19964,12 +19973,20 @@
       <c r="AV249" s="80"/>
       <c r="AZ249" s="41"/>
     </row>
-    <row r="250" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A250" s="12"/>
+    <row r="250" ht="50.25" hidden="1" customHeight="1" spans="1:52">
+      <c r="A250" s="12">
+        <v>248</v>
+      </c>
       <c r="B250" s="13"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="83"/>
-      <c r="E250" s="80"/>
+      <c r="C250" s="13" t="s">
+        <v>764</v>
+      </c>
+      <c r="D250" s="83" t="s">
+        <v>765</v>
+      </c>
+      <c r="E250" s="80" t="s">
+        <v>766</v>
+      </c>
       <c r="F250" s="81"/>
       <c r="G250" s="80"/>
       <c r="H250" s="80"/>
@@ -38644,7 +38661,12 @@
       <c r="P686" s="212"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA247" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA250" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="174"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="40">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$261</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="824">
   <si>
     <t>界面编号</t>
   </si>
@@ -2936,6 +2936,114 @@
   </si>
   <si>
     <t>Please use APP to sync contacts!!</t>
+  </si>
+  <si>
+    <t>星期:</t>
+  </si>
+  <si>
+    <t>STR_WEEK</t>
+  </si>
+  <si>
+    <t>week:</t>
+  </si>
+  <si>
+    <t>是否进入</t>
+  </si>
+  <si>
+    <t>STR_DO_WANT_IN</t>
+  </si>
+  <si>
+    <t>Do you want to enter</t>
+  </si>
+  <si>
+    <t>模式选择</t>
+  </si>
+  <si>
+    <t>STR_MODE_SELECTION</t>
+  </si>
+  <si>
+    <t>Mode selection</t>
+  </si>
+  <si>
+    <t>工厂测试模式</t>
+  </si>
+  <si>
+    <t>STR_FACTORY_TESTING</t>
+  </si>
+  <si>
+    <t>Factory testing mode</t>
+  </si>
+  <si>
+    <t>老化测试模式</t>
+  </si>
+  <si>
+    <t>STR_AGING_TESTING</t>
+  </si>
+  <si>
+    <t>Aging testing mode</t>
+  </si>
+  <si>
+    <t>船运模式</t>
+  </si>
+  <si>
+    <t>STR_SHIPPING</t>
+  </si>
+  <si>
+    <t>Shipping mode</t>
+  </si>
+  <si>
+    <t>音频测试</t>
+  </si>
+  <si>
+    <t>STR_AUDIO</t>
+  </si>
+  <si>
+    <t>Audio testing</t>
+  </si>
+  <si>
+    <t>版本号&amp;MAC</t>
+  </si>
+  <si>
+    <t>STR_AVERSION_MAC</t>
+  </si>
+  <si>
+    <t>Version number&amp;MAC</t>
+  </si>
+  <si>
+    <t>电池信息</t>
+  </si>
+  <si>
+    <t>STR_BATTERY_INFORMATION</t>
+  </si>
+  <si>
+    <t>Battery information</t>
+  </si>
+  <si>
+    <t>TP版本：</t>
+  </si>
+  <si>
+    <t>STR_TP_VERSION</t>
+  </si>
+  <si>
+    <t>TP version:</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>STR_PASS</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>不通过</t>
+  </si>
+  <si>
+    <t>STR_FALL</t>
+  </si>
+  <si>
+    <t>FALL</t>
   </si>
 </sst>
 </file>
@@ -5229,12 +5337,12 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F250" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F260" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
+      <selection pane="bottomRight" activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -20367,11 +20475,19 @@
       <c r="AZ254" s="44"/>
     </row>
     <row r="255" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A255" s="12"/>
+      <c r="A255" s="12">
+        <v>253</v>
+      </c>
       <c r="B255" s="50"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="85"/>
-      <c r="E255" s="82"/>
+      <c r="C255" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="D255" s="85" t="s">
+        <v>789</v>
+      </c>
+      <c r="E255" s="82" t="s">
+        <v>790</v>
+      </c>
       <c r="F255" s="83"/>
       <c r="G255" s="82"/>
       <c r="H255" s="82"/>
@@ -20418,11 +20534,19 @@
       <c r="AZ255" s="82"/>
     </row>
     <row r="256" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A256" s="12"/>
+      <c r="A256" s="12">
+        <v>254</v>
+      </c>
       <c r="B256" s="50"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="85"/>
-      <c r="E256" s="18"/>
+      <c r="C256" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="D256" s="85" t="s">
+        <v>792</v>
+      </c>
+      <c r="E256" s="18" t="s">
+        <v>793</v>
+      </c>
       <c r="F256" s="84"/>
       <c r="G256" s="18"/>
       <c r="H256" s="18"/>
@@ -20469,11 +20593,19 @@
       <c r="AZ256" s="45"/>
     </row>
     <row r="257" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A257" s="12"/>
+      <c r="A257" s="12">
+        <v>255</v>
+      </c>
       <c r="B257" s="50"/>
-      <c r="C257" s="99"/>
-      <c r="D257" s="85"/>
-      <c r="E257" s="100"/>
+      <c r="C257" s="99" t="s">
+        <v>794</v>
+      </c>
+      <c r="D257" s="85" t="s">
+        <v>795</v>
+      </c>
+      <c r="E257" s="100" t="s">
+        <v>796</v>
+      </c>
       <c r="F257" s="84"/>
       <c r="G257" s="18"/>
       <c r="H257" s="18"/>
@@ -20520,11 +20652,19 @@
       <c r="AZ257" s="45"/>
     </row>
     <row r="258" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A258" s="12"/>
+      <c r="A258" s="12">
+        <v>256</v>
+      </c>
       <c r="B258" s="50"/>
-      <c r="C258" s="18"/>
-      <c r="D258" s="85"/>
-      <c r="E258" s="18"/>
+      <c r="C258" s="18" t="s">
+        <v>797</v>
+      </c>
+      <c r="D258" s="85" t="s">
+        <v>798</v>
+      </c>
+      <c r="E258" s="18" t="s">
+        <v>799</v>
+      </c>
       <c r="F258" s="84"/>
       <c r="G258" s="18"/>
       <c r="H258" s="18"/>
@@ -20571,11 +20711,19 @@
       <c r="AZ258" s="44"/>
     </row>
     <row r="259" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A259" s="12"/>
+      <c r="A259" s="12">
+        <v>257</v>
+      </c>
       <c r="B259" s="50"/>
-      <c r="C259" s="18"/>
-      <c r="D259" s="85"/>
-      <c r="E259" s="18"/>
+      <c r="C259" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="D259" s="85" t="s">
+        <v>801</v>
+      </c>
+      <c r="E259" s="18" t="s">
+        <v>802</v>
+      </c>
       <c r="F259" s="88"/>
       <c r="G259" s="18"/>
       <c r="H259" s="89"/>
@@ -20622,11 +20770,19 @@
       <c r="AZ259" s="44"/>
     </row>
     <row r="260" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A260" s="12"/>
+      <c r="A260" s="12">
+        <v>258</v>
+      </c>
       <c r="B260" s="50"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="85"/>
-      <c r="E260" s="18"/>
+      <c r="C260" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="D260" s="85" t="s">
+        <v>804</v>
+      </c>
+      <c r="E260" s="18" t="s">
+        <v>805</v>
+      </c>
       <c r="F260" s="84"/>
       <c r="G260" s="91"/>
       <c r="H260" s="91"/>
@@ -20673,11 +20829,19 @@
       <c r="AZ260" s="44"/>
     </row>
     <row r="261" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A261" s="12"/>
+      <c r="A261" s="12">
+        <v>259</v>
+      </c>
       <c r="B261" s="50"/>
-      <c r="C261" s="18"/>
-      <c r="D261" s="85"/>
-      <c r="E261" s="18"/>
+      <c r="C261" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="D261" s="85" t="s">
+        <v>807</v>
+      </c>
+      <c r="E261" s="18" t="s">
+        <v>808</v>
+      </c>
       <c r="F261" s="101"/>
       <c r="G261" s="18"/>
       <c r="H261" s="102"/>
@@ -20724,11 +20888,19 @@
       <c r="AZ261" s="44"/>
     </row>
     <row r="262" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A262" s="12"/>
+      <c r="A262" s="12">
+        <v>260</v>
+      </c>
       <c r="B262" s="50"/>
-      <c r="C262" s="18"/>
-      <c r="D262" s="103"/>
-      <c r="E262" s="18"/>
+      <c r="C262" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D262" s="85" t="s">
+        <v>810</v>
+      </c>
+      <c r="E262" s="18" t="s">
+        <v>811</v>
+      </c>
       <c r="F262" s="84"/>
       <c r="G262" s="18"/>
       <c r="H262" s="18"/>
@@ -20775,11 +20947,19 @@
       <c r="AZ262" s="44"/>
     </row>
     <row r="263" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A263" s="12"/>
+      <c r="A263" s="12">
+        <v>261</v>
+      </c>
       <c r="B263" s="50"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="85"/>
-      <c r="E263" s="18"/>
+      <c r="C263" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="D263" s="85" t="s">
+        <v>813</v>
+      </c>
+      <c r="E263" s="18" t="s">
+        <v>814</v>
+      </c>
       <c r="F263" s="84"/>
       <c r="G263" s="18"/>
       <c r="H263" s="18"/>
@@ -20826,11 +21006,19 @@
       <c r="AZ263" s="44"/>
     </row>
     <row r="264" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A264" s="12"/>
+      <c r="A264" s="12">
+        <v>262</v>
+      </c>
       <c r="B264" s="50"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="85"/>
-      <c r="E264" s="18"/>
+      <c r="C264" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="D264" s="85" t="s">
+        <v>816</v>
+      </c>
+      <c r="E264" s="18" t="s">
+        <v>817</v>
+      </c>
       <c r="F264" s="84"/>
       <c r="G264" s="18"/>
       <c r="H264" s="18"/>
@@ -20877,11 +21065,19 @@
       <c r="AZ264" s="44"/>
     </row>
     <row r="265" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A265" s="12"/>
+      <c r="A265" s="12">
+        <v>263</v>
+      </c>
       <c r="B265" s="50"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="85"/>
-      <c r="E265" s="18"/>
+      <c r="C265" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="D265" s="85" t="s">
+        <v>819</v>
+      </c>
+      <c r="E265" s="18" t="s">
+        <v>820</v>
+      </c>
       <c r="F265" s="84"/>
       <c r="G265" s="18"/>
       <c r="H265" s="18"/>
@@ -20928,11 +21124,19 @@
       <c r="AZ265" s="44"/>
     </row>
     <row r="266" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A266" s="12"/>
+      <c r="A266" s="12">
+        <v>264</v>
+      </c>
       <c r="B266" s="50"/>
-      <c r="C266" s="18"/>
-      <c r="D266" s="85"/>
-      <c r="E266" s="18"/>
+      <c r="C266" s="18" t="s">
+        <v>821</v>
+      </c>
+      <c r="D266" s="85" t="s">
+        <v>822</v>
+      </c>
+      <c r="E266" s="18" t="s">
+        <v>823</v>
+      </c>
       <c r="F266" s="84"/>
       <c r="G266" s="18"/>
       <c r="H266" s="18"/>
@@ -38791,7 +38995,7 @@
       <c r="P686" s="217"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA250" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA261" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$266</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="830">
   <si>
     <t>界面编号</t>
   </si>
@@ -3044,6 +3044,24 @@
   </si>
   <si>
     <t>FALL</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>STR_AM</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>STR_PM</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
 </sst>
 </file>
@@ -5338,11 +5356,11 @@
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F263" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E268" sqref="E268"/>
+      <selection pane="bottomRight" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -21183,11 +21201,19 @@
       <c r="AZ266" s="44"/>
     </row>
     <row r="267" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A267" s="12"/>
+      <c r="A267" s="12">
+        <v>265</v>
+      </c>
       <c r="B267" s="50"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="85"/>
-      <c r="E267" s="18"/>
+      <c r="C267" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="D267" s="85" t="s">
+        <v>825</v>
+      </c>
+      <c r="E267" s="18" t="s">
+        <v>826</v>
+      </c>
       <c r="F267" s="84"/>
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
@@ -21234,11 +21260,19 @@
       <c r="AZ267" s="44"/>
     </row>
     <row r="268" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A268" s="12"/>
+      <c r="A268" s="12">
+        <v>266</v>
+      </c>
       <c r="B268" s="50"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="103"/>
-      <c r="E268" s="18"/>
+      <c r="C268" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="D268" s="103" t="s">
+        <v>828</v>
+      </c>
+      <c r="E268" s="18" t="s">
+        <v>829</v>
+      </c>
       <c r="F268" s="84"/>
       <c r="G268" s="18"/>
       <c r="H268" s="18"/>
@@ -38995,7 +39029,7 @@
       <c r="P686" s="217"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA261" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA266" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$266</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="827">
   <si>
     <t>界面编号</t>
   </si>
@@ -3044,6 +3044,15 @@
   </si>
   <si>
     <t>FALL</t>
+  </si>
+  <si>
+    <t>是否通过？</t>
+  </si>
+  <si>
+    <t>STR_DO_PASS</t>
+  </si>
+  <si>
+    <t>Did it pass?</t>
   </si>
 </sst>
 </file>
@@ -5338,11 +5347,11 @@
   <dimension ref="A1:BA686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F262" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E268" sqref="E268"/>
+      <selection pane="bottomRight" activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -21183,11 +21192,19 @@
       <c r="AZ266" s="44"/>
     </row>
     <row r="267" ht="50.25" customHeight="1" spans="1:52">
-      <c r="A267" s="12"/>
+      <c r="A267" s="12">
+        <v>265</v>
+      </c>
       <c r="B267" s="50"/>
-      <c r="C267" s="18"/>
-      <c r="D267" s="85"/>
-      <c r="E267" s="18"/>
+      <c r="C267" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="D267" s="85" t="s">
+        <v>825</v>
+      </c>
+      <c r="E267" s="18" t="s">
+        <v>826</v>
+      </c>
       <c r="F267" s="84"/>
       <c r="G267" s="18"/>
       <c r="H267" s="18"/>
@@ -38995,7 +39012,7 @@
       <c r="P686" s="217"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA261" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA266" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$271</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="845">
   <si>
     <t>界面编号</t>
   </si>
@@ -3089,6 +3089,24 @@
   </si>
   <si>
     <t>No call record</t>
+  </si>
+  <si>
+    <t>最高</t>
+  </si>
+  <si>
+    <t>STR_HIGHEST</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>STR_LOWSET</t>
+  </si>
+  <si>
+    <t>lowest</t>
   </si>
 </sst>
 </file>
@@ -5409,7 +5427,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E271" sqref="E271"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -21545,11 +21563,19 @@
       <c r="AZ271" s="44"/>
     </row>
     <row r="272" ht="33" customHeight="1" spans="1:52">
-      <c r="A272" s="12"/>
+      <c r="A272" s="12">
+        <v>270</v>
+      </c>
       <c r="B272" s="50"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="106"/>
-      <c r="E272" s="18"/>
+      <c r="C272" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="D272" s="106" t="s">
+        <v>840</v>
+      </c>
+      <c r="E272" s="18" t="s">
+        <v>841</v>
+      </c>
       <c r="F272" s="84"/>
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
@@ -21595,12 +21621,20 @@
       <c r="AV272" s="18"/>
       <c r="AZ272" s="44"/>
     </row>
-    <row r="273" ht="18" spans="1:52">
-      <c r="A273" s="12"/>
+    <row r="273" ht="36" customHeight="1" spans="1:52">
+      <c r="A273" s="12">
+        <v>271</v>
+      </c>
       <c r="B273" s="50"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="106"/>
-      <c r="E273" s="18"/>
+      <c r="C273" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="D273" s="106" t="s">
+        <v>843</v>
+      </c>
+      <c r="E273" s="18" t="s">
+        <v>844</v>
+      </c>
       <c r="F273" s="84"/>
       <c r="G273" s="18"/>
       <c r="H273" s="18"/>
@@ -21646,7 +21680,7 @@
       <c r="AV273" s="18"/>
       <c r="AZ273" s="44"/>
     </row>
-    <row r="274" ht="17.4" spans="1:52">
+    <row r="274" ht="31" customHeight="1" spans="1:52">
       <c r="A274" s="12"/>
       <c r="B274" s="50"/>
       <c r="C274" s="18"/>
@@ -21697,7 +21731,7 @@
       <c r="AV274" s="18"/>
       <c r="AZ274" s="44"/>
     </row>
-    <row r="275" ht="17.4" spans="1:52">
+    <row r="275" ht="24" customHeight="1" spans="1:52">
       <c r="A275" s="12"/>
       <c r="B275" s="50"/>
       <c r="C275" s="18"/>
@@ -21748,7 +21782,7 @@
       <c r="AV275" s="18"/>
       <c r="AZ275" s="44"/>
     </row>
-    <row r="276" ht="17.4" spans="1:52">
+    <row r="276" ht="28" customHeight="1" spans="1:52">
       <c r="A276" s="107"/>
       <c r="B276" s="50"/>
       <c r="C276" s="18"/>
@@ -21799,7 +21833,7 @@
       <c r="AV276" s="18"/>
       <c r="AZ276" s="44"/>
     </row>
-    <row r="277" ht="17.4" spans="1:52">
+    <row r="277" ht="32" customHeight="1" spans="1:52">
       <c r="A277" s="12"/>
       <c r="B277" s="50"/>
       <c r="C277" s="18"/>
@@ -21850,7 +21884,7 @@
       <c r="AV277" s="18"/>
       <c r="AZ277" s="45"/>
     </row>
-    <row r="278" ht="51.75" customHeight="1" spans="1:52">
+    <row r="278" ht="34" customHeight="1" spans="1:52">
       <c r="A278" s="12"/>
       <c r="B278" s="50"/>
       <c r="C278" s="18"/>
@@ -39102,7 +39136,7 @@
       <c r="P686" s="220"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA270" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA271" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$271</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$273</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="857">
   <si>
     <t>界面编号</t>
   </si>
@@ -3107,6 +3107,42 @@
   </si>
   <si>
     <t>lowest</t>
+  </si>
+  <si>
+    <t>滑动重启</t>
+  </si>
+  <si>
+    <t>STR_SLIDE_REST</t>
+  </si>
+  <si>
+    <t>Slide restart</t>
+  </si>
+  <si>
+    <t>滑动关机</t>
+  </si>
+  <si>
+    <t>STR_SLIDE_OFF</t>
+  </si>
+  <si>
+    <t>Sliding shutdown</t>
+  </si>
+  <si>
+    <t>滑动呼叫</t>
+  </si>
+  <si>
+    <t>STR_SLIDE_CALL</t>
+  </si>
+  <si>
+    <t>Slide call</t>
+  </si>
+  <si>
+    <t>无数据</t>
+  </si>
+  <si>
+    <t>STR_NO_DATA</t>
+  </si>
+  <si>
+    <t>No data available</t>
   </si>
 </sst>
 </file>
@@ -4753,12 +4789,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -4767,6 +4797,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5422,12 +5458,12 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F265" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F272" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="D277" sqref="D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -21681,11 +21717,19 @@
       <c r="AZ273" s="44"/>
     </row>
     <row r="274" ht="31" customHeight="1" spans="1:52">
-      <c r="A274" s="12"/>
+      <c r="A274" s="12">
+        <v>272</v>
+      </c>
       <c r="B274" s="50"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="106"/>
-      <c r="E274" s="18"/>
+      <c r="C274" s="105" t="s">
+        <v>845</v>
+      </c>
+      <c r="D274" s="106" t="s">
+        <v>846</v>
+      </c>
+      <c r="E274" s="18" t="s">
+        <v>847</v>
+      </c>
       <c r="F274" s="84"/>
       <c r="G274" s="18"/>
       <c r="H274" s="18"/>
@@ -21732,11 +21776,19 @@
       <c r="AZ274" s="44"/>
     </row>
     <row r="275" ht="24" customHeight="1" spans="1:52">
-      <c r="A275" s="12"/>
+      <c r="A275" s="12">
+        <v>273</v>
+      </c>
       <c r="B275" s="50"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="106"/>
-      <c r="E275" s="18"/>
+      <c r="C275" s="105" t="s">
+        <v>848</v>
+      </c>
+      <c r="D275" s="106" t="s">
+        <v>849</v>
+      </c>
+      <c r="E275" s="18" t="s">
+        <v>850</v>
+      </c>
       <c r="F275" s="84"/>
       <c r="G275" s="18"/>
       <c r="H275" s="18"/>
@@ -21783,11 +21835,19 @@
       <c r="AZ275" s="44"/>
     </row>
     <row r="276" ht="28" customHeight="1" spans="1:52">
-      <c r="A276" s="107"/>
+      <c r="A276" s="12">
+        <v>274</v>
+      </c>
       <c r="B276" s="50"/>
-      <c r="C276" s="18"/>
-      <c r="D276" s="108"/>
-      <c r="E276" s="18"/>
+      <c r="C276" s="105" t="s">
+        <v>851</v>
+      </c>
+      <c r="D276" s="106" t="s">
+        <v>852</v>
+      </c>
+      <c r="E276" s="18" t="s">
+        <v>853</v>
+      </c>
       <c r="F276" s="84"/>
       <c r="G276" s="18"/>
       <c r="H276" s="18"/>
@@ -21834,11 +21894,19 @@
       <c r="AZ276" s="44"/>
     </row>
     <row r="277" ht="32" customHeight="1" spans="1:52">
-      <c r="A277" s="12"/>
+      <c r="A277" s="12">
+        <v>275</v>
+      </c>
       <c r="B277" s="50"/>
-      <c r="C277" s="18"/>
-      <c r="D277" s="106"/>
-      <c r="E277" s="18"/>
+      <c r="C277" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="D277" s="106" t="s">
+        <v>855</v>
+      </c>
+      <c r="E277" s="18" t="s">
+        <v>856</v>
+      </c>
       <c r="F277" s="84"/>
       <c r="G277" s="18"/>
       <c r="H277" s="18"/>
@@ -21939,7 +22007,7 @@
       <c r="A279" s="12"/>
       <c r="B279" s="50"/>
       <c r="C279" s="89"/>
-      <c r="D279" s="109"/>
+      <c r="D279" s="107"/>
       <c r="E279" s="89"/>
       <c r="F279" s="88"/>
       <c r="G279" s="89"/>
@@ -21988,7 +22056,7 @@
     </row>
     <row r="280" ht="69.75" customHeight="1" spans="1:52">
       <c r="A280" s="12"/>
-      <c r="B280" s="110"/>
+      <c r="B280" s="108"/>
       <c r="C280" s="82"/>
       <c r="D280" s="106"/>
       <c r="E280" s="82"/>
@@ -22039,7 +22107,7 @@
     </row>
     <row r="281" ht="87.75" customHeight="1" spans="1:52">
       <c r="A281" s="12"/>
-      <c r="B281" s="110"/>
+      <c r="B281" s="108"/>
       <c r="C281" s="82"/>
       <c r="D281" s="106"/>
       <c r="E281" s="82"/>
@@ -22090,7 +22158,7 @@
     </row>
     <row r="282" ht="17.4" spans="1:52">
       <c r="A282" s="12"/>
-      <c r="B282" s="110"/>
+      <c r="B282" s="108"/>
       <c r="C282" s="82"/>
       <c r="D282" s="106"/>
       <c r="E282" s="82"/>
@@ -22141,7 +22209,7 @@
     </row>
     <row r="283" ht="17.4" spans="1:52">
       <c r="A283" s="12"/>
-      <c r="B283" s="110"/>
+      <c r="B283" s="108"/>
       <c r="C283" s="82"/>
       <c r="D283" s="106"/>
       <c r="E283" s="82"/>
@@ -22192,7 +22260,7 @@
     </row>
     <row r="284" ht="17.4" spans="1:52">
       <c r="A284" s="12"/>
-      <c r="B284" s="110"/>
+      <c r="B284" s="108"/>
       <c r="C284" s="82"/>
       <c r="D284" s="106"/>
       <c r="E284" s="82"/>
@@ -22243,7 +22311,7 @@
     </row>
     <row r="285" ht="17.4" spans="1:52">
       <c r="A285" s="12"/>
-      <c r="B285" s="110"/>
+      <c r="B285" s="108"/>
       <c r="C285" s="82"/>
       <c r="D285" s="106"/>
       <c r="E285" s="82"/>
@@ -22294,7 +22362,7 @@
     </row>
     <row r="286" ht="17.4" spans="1:52">
       <c r="A286" s="12"/>
-      <c r="B286" s="110"/>
+      <c r="B286" s="108"/>
       <c r="C286" s="82"/>
       <c r="D286" s="106"/>
       <c r="E286" s="82"/>
@@ -22345,7 +22413,7 @@
     </row>
     <row r="287" ht="17.4" spans="1:52">
       <c r="A287" s="12"/>
-      <c r="B287" s="110"/>
+      <c r="B287" s="108"/>
       <c r="C287" s="82"/>
       <c r="D287" s="106"/>
       <c r="E287" s="82"/>
@@ -22396,7 +22464,7 @@
     </row>
     <row r="288" ht="17.4" spans="1:52">
       <c r="A288" s="12"/>
-      <c r="B288" s="110"/>
+      <c r="B288" s="108"/>
       <c r="C288" s="82"/>
       <c r="D288" s="106"/>
       <c r="E288" s="82"/>
@@ -22447,7 +22515,7 @@
     </row>
     <row r="289" ht="17.4" spans="1:52">
       <c r="A289" s="12"/>
-      <c r="B289" s="110"/>
+      <c r="B289" s="108"/>
       <c r="C289" s="82"/>
       <c r="D289" s="106"/>
       <c r="E289" s="82"/>
@@ -22498,7 +22566,7 @@
     </row>
     <row r="290" ht="18" customHeight="1" spans="1:52">
       <c r="A290" s="12"/>
-      <c r="B290" s="110"/>
+      <c r="B290" s="108"/>
       <c r="C290" s="82"/>
       <c r="D290" s="106"/>
       <c r="E290" s="82"/>
@@ -22549,7 +22617,7 @@
     </row>
     <row r="291" ht="17.4" spans="1:52">
       <c r="A291" s="12"/>
-      <c r="B291" s="110"/>
+      <c r="B291" s="108"/>
       <c r="C291" s="82"/>
       <c r="D291" s="106"/>
       <c r="E291" s="82"/>
@@ -22905,7 +22973,7 @@
       <c r="AZ297" s="44"/>
     </row>
     <row r="298" ht="168" customHeight="1" spans="1:52">
-      <c r="A298" s="111"/>
+      <c r="A298" s="109"/>
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
       <c r="D298" s="106"/>
@@ -23976,10 +24044,10 @@
       <c r="AZ318" s="66"/>
     </row>
     <row r="319" ht="17.4" spans="1:52">
-      <c r="A319" s="107"/>
+      <c r="A319" s="110"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
-      <c r="D319" s="108"/>
+      <c r="D319" s="111"/>
       <c r="E319" s="18"/>
       <c r="F319" s="84"/>
       <c r="G319" s="18"/>
@@ -39136,7 +39204,7 @@
       <c r="P686" s="220"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA271" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA273" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$271</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="842">
   <si>
     <t>界面编号</t>
   </si>
@@ -3089,6 +3089,15 @@
   </si>
   <si>
     <t>No call record</t>
+  </si>
+  <si>
+    <t>血氧饱和度</t>
+  </si>
+  <si>
+    <t>STR_BLOOD_OXYGEN_UINT</t>
+  </si>
+  <si>
+    <t>Blood oxygen saturation</t>
   </si>
 </sst>
 </file>
@@ -5404,15 +5413,15 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F265" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E271" sqref="E271"/>
+      <selection pane="bottomRight" activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
@@ -5449,15 +5458,15 @@
     <col min="36" max="36" width="10" style="5"/>
     <col min="37" max="37" width="25.6666666666667" style="5" customWidth="1"/>
     <col min="38" max="38" width="10" style="5"/>
-    <col min="39" max="39" width="16.4444444444444" style="5" customWidth="1"/>
+    <col min="39" max="39" width="16.4416666666667" style="5" customWidth="1"/>
     <col min="40" max="43" width="10" style="5"/>
-    <col min="44" max="44" width="25.4444444444444" style="5" customWidth="1"/>
+    <col min="44" max="44" width="25.4416666666667" style="5" customWidth="1"/>
     <col min="45" max="47" width="10" style="5"/>
     <col min="48" max="48" width="49" style="5" customWidth="1"/>
     <col min="49" max="49" width="45.6666666666667" style="5" customWidth="1"/>
-    <col min="50" max="50" width="62.5555555555556" style="5" customWidth="1"/>
+    <col min="50" max="50" width="62.5583333333333" style="5" customWidth="1"/>
     <col min="51" max="51" width="10" style="5"/>
-    <col min="52" max="52" width="35.7777777777778" style="5" customWidth="1"/>
+    <col min="52" max="52" width="35.775" style="5" customWidth="1"/>
     <col min="53" max="16384" width="10" style="5"/>
   </cols>
   <sheetData>
@@ -7201,7 +7210,7 @@
       <c r="AV28" s="18"/>
       <c r="AZ28" s="45"/>
     </row>
-    <row r="29" ht="18" spans="1:52">
+    <row r="29" ht="18.75" spans="1:52">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -7260,7 +7269,7 @@
       <c r="AV29" s="18"/>
       <c r="AZ29" s="45"/>
     </row>
-    <row r="30" ht="18" spans="1:52">
+    <row r="30" ht="18.75" spans="1:52">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -7319,7 +7328,7 @@
       <c r="AV30" s="18"/>
       <c r="AZ30" s="44"/>
     </row>
-    <row r="31" ht="18" spans="1:52">
+    <row r="31" ht="18.75" spans="1:52">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -7437,7 +7446,7 @@
       <c r="AV32" s="18"/>
       <c r="AZ32" s="44"/>
     </row>
-    <row r="33" ht="18" spans="1:52">
+    <row r="33" ht="18.75" spans="1:52">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -7496,7 +7505,7 @@
       <c r="AV33" s="18"/>
       <c r="AZ33" s="45"/>
     </row>
-    <row r="34" ht="18" spans="1:52">
+    <row r="34" ht="18.75" spans="1:52">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -7555,7 +7564,7 @@
       <c r="AV34" s="18"/>
       <c r="AZ34" s="45"/>
     </row>
-    <row r="35" ht="18" spans="1:52">
+    <row r="35" ht="18.75" spans="1:52">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -7614,7 +7623,7 @@
       <c r="AV35" s="18"/>
       <c r="AZ35" s="18"/>
     </row>
-    <row r="36" ht="18" spans="1:52">
+    <row r="36" ht="18.75" spans="1:52">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -10446,7 +10455,7 @@
       <c r="AV83" s="18"/>
       <c r="AZ83" s="44"/>
     </row>
-    <row r="84" ht="18" spans="1:52">
+    <row r="84" ht="18.75" spans="1:52">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -10505,7 +10514,7 @@
       <c r="AV84" s="18"/>
       <c r="AZ84" s="44"/>
     </row>
-    <row r="85" ht="18" spans="1:52">
+    <row r="85" ht="18.75" spans="1:52">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -12157,7 +12166,7 @@
       <c r="AV112" s="64"/>
       <c r="AZ112" s="45"/>
     </row>
-    <row r="113" ht="18" spans="1:52">
+    <row r="113" ht="18.75" spans="1:52">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -12216,7 +12225,7 @@
       <c r="AV113" s="64"/>
       <c r="AZ113" s="45"/>
     </row>
-    <row r="114" ht="18" spans="1:52">
+    <row r="114" ht="18.75" spans="1:52">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -21545,11 +21554,19 @@
       <c r="AZ271" s="44"/>
     </row>
     <row r="272" ht="33" customHeight="1" spans="1:52">
-      <c r="A272" s="12"/>
+      <c r="A272" s="12">
+        <v>270</v>
+      </c>
       <c r="B272" s="50"/>
-      <c r="C272" s="18"/>
-      <c r="D272" s="106"/>
-      <c r="E272" s="18"/>
+      <c r="C272" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="D272" s="106" t="s">
+        <v>840</v>
+      </c>
+      <c r="E272" s="18" t="s">
+        <v>841</v>
+      </c>
       <c r="F272" s="84"/>
       <c r="G272" s="18"/>
       <c r="H272" s="18"/>
@@ -21595,7 +21612,7 @@
       <c r="AV272" s="18"/>
       <c r="AZ272" s="44"/>
     </row>
-    <row r="273" ht="18" spans="1:52">
+    <row r="273" ht="18.75" spans="1:52">
       <c r="A273" s="12"/>
       <c r="B273" s="50"/>
       <c r="C273" s="18"/>
@@ -21646,7 +21663,7 @@
       <c r="AV273" s="18"/>
       <c r="AZ273" s="44"/>
     </row>
-    <row r="274" ht="17.4" spans="1:52">
+    <row r="274" ht="18.75" spans="1:52">
       <c r="A274" s="12"/>
       <c r="B274" s="50"/>
       <c r="C274" s="18"/>
@@ -21697,7 +21714,7 @@
       <c r="AV274" s="18"/>
       <c r="AZ274" s="44"/>
     </row>
-    <row r="275" ht="17.4" spans="1:52">
+    <row r="275" ht="18.75" spans="1:52">
       <c r="A275" s="12"/>
       <c r="B275" s="50"/>
       <c r="C275" s="18"/>
@@ -21748,7 +21765,7 @@
       <c r="AV275" s="18"/>
       <c r="AZ275" s="44"/>
     </row>
-    <row r="276" ht="17.4" spans="1:52">
+    <row r="276" ht="18.75" spans="1:52">
       <c r="A276" s="107"/>
       <c r="B276" s="50"/>
       <c r="C276" s="18"/>
@@ -21799,7 +21816,7 @@
       <c r="AV276" s="18"/>
       <c r="AZ276" s="44"/>
     </row>
-    <row r="277" ht="17.4" spans="1:52">
+    <row r="277" ht="18.75" spans="1:52">
       <c r="A277" s="12"/>
       <c r="B277" s="50"/>
       <c r="C277" s="18"/>
@@ -22054,7 +22071,7 @@
       <c r="AV281" s="82"/>
       <c r="AZ281" s="44"/>
     </row>
-    <row r="282" ht="17.4" spans="1:52">
+    <row r="282" ht="18.75" spans="1:52">
       <c r="A282" s="12"/>
       <c r="B282" s="110"/>
       <c r="C282" s="82"/>
@@ -22105,7 +22122,7 @@
       <c r="AV282" s="82"/>
       <c r="AZ282" s="44"/>
     </row>
-    <row r="283" ht="17.4" spans="1:52">
+    <row r="283" ht="18.75" spans="1:52">
       <c r="A283" s="12"/>
       <c r="B283" s="110"/>
       <c r="C283" s="82"/>
@@ -22156,7 +22173,7 @@
       <c r="AV283" s="82"/>
       <c r="AZ283" s="44"/>
     </row>
-    <row r="284" ht="17.4" spans="1:52">
+    <row r="284" ht="18.75" spans="1:52">
       <c r="A284" s="12"/>
       <c r="B284" s="110"/>
       <c r="C284" s="82"/>
@@ -22207,7 +22224,7 @@
       <c r="AV284" s="82"/>
       <c r="AZ284" s="44"/>
     </row>
-    <row r="285" ht="17.4" spans="1:52">
+    <row r="285" ht="18.75" spans="1:52">
       <c r="A285" s="12"/>
       <c r="B285" s="110"/>
       <c r="C285" s="82"/>
@@ -22258,7 +22275,7 @@
       <c r="AV285" s="82"/>
       <c r="AZ285" s="44"/>
     </row>
-    <row r="286" ht="17.4" spans="1:52">
+    <row r="286" ht="18.75" spans="1:52">
       <c r="A286" s="12"/>
       <c r="B286" s="110"/>
       <c r="C286" s="82"/>
@@ -22309,7 +22326,7 @@
       <c r="AV286" s="82"/>
       <c r="AZ286" s="18"/>
     </row>
-    <row r="287" ht="17.4" spans="1:52">
+    <row r="287" ht="18.75" spans="1:52">
       <c r="A287" s="12"/>
       <c r="B287" s="110"/>
       <c r="C287" s="82"/>
@@ -22360,7 +22377,7 @@
       <c r="AV287" s="82"/>
       <c r="AZ287" s="44"/>
     </row>
-    <row r="288" ht="17.4" spans="1:52">
+    <row r="288" ht="18.75" spans="1:52">
       <c r="A288" s="12"/>
       <c r="B288" s="110"/>
       <c r="C288" s="82"/>
@@ -22411,7 +22428,7 @@
       <c r="AV288" s="82"/>
       <c r="AZ288" s="44"/>
     </row>
-    <row r="289" ht="17.4" spans="1:52">
+    <row r="289" ht="18.75" spans="1:52">
       <c r="A289" s="12"/>
       <c r="B289" s="110"/>
       <c r="C289" s="82"/>
@@ -22513,7 +22530,7 @@
       <c r="AV290" s="82"/>
       <c r="AZ290" s="45"/>
     </row>
-    <row r="291" ht="17.4" spans="1:52">
+    <row r="291" ht="18.75" spans="1:52">
       <c r="A291" s="12"/>
       <c r="B291" s="110"/>
       <c r="C291" s="82"/>
@@ -22615,7 +22632,7 @@
       <c r="AV292" s="102"/>
       <c r="AZ292" s="44"/>
     </row>
-    <row r="293" ht="17.4" spans="1:52">
+    <row r="293" ht="18.75" spans="1:52">
       <c r="A293" s="12"/>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
@@ -22666,7 +22683,7 @@
       <c r="AV293" s="18"/>
       <c r="AZ293" s="44"/>
     </row>
-    <row r="294" ht="17.4" spans="1:52">
+    <row r="294" ht="18.75" spans="1:52">
       <c r="A294" s="12"/>
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
@@ -22717,7 +22734,7 @@
       <c r="AV294" s="18"/>
       <c r="AZ294" s="44"/>
     </row>
-    <row r="295" ht="17.4" spans="1:52">
+    <row r="295" ht="18.75" spans="1:52">
       <c r="A295" s="12"/>
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
@@ -22768,7 +22785,7 @@
       <c r="AV295" s="82"/>
       <c r="AZ295" s="44"/>
     </row>
-    <row r="296" ht="17.4" spans="1:52">
+    <row r="296" ht="18.75" spans="1:52">
       <c r="A296" s="12"/>
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
@@ -22819,7 +22836,7 @@
       <c r="AV296" s="18"/>
       <c r="AZ296" s="44"/>
     </row>
-    <row r="297" ht="17.4" spans="1:52">
+    <row r="297" ht="18.75" spans="1:52">
       <c r="A297" s="12"/>
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
@@ -22921,7 +22938,7 @@
       <c r="AV298" s="18"/>
       <c r="AZ298" s="44"/>
     </row>
-    <row r="299" ht="17.4" spans="1:52">
+    <row r="299" ht="18.75" spans="1:52">
       <c r="A299" s="12"/>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
@@ -22972,7 +22989,7 @@
       <c r="AV299" s="18"/>
       <c r="AZ299" s="44"/>
     </row>
-    <row r="300" ht="17.4" spans="1:52">
+    <row r="300" ht="18.75" spans="1:52">
       <c r="A300" s="12"/>
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
@@ -23023,7 +23040,7 @@
       <c r="AV300" s="18"/>
       <c r="AZ300" s="44"/>
     </row>
-    <row r="301" ht="17.4" spans="1:52">
+    <row r="301" ht="18.75" spans="1:52">
       <c r="A301" s="12"/>
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
@@ -23074,7 +23091,7 @@
       <c r="AV301" s="18"/>
       <c r="AZ301" s="44"/>
     </row>
-    <row r="302" ht="17.4" spans="1:52">
+    <row r="302" ht="18.75" spans="1:52">
       <c r="A302" s="12"/>
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
@@ -23125,7 +23142,7 @@
       <c r="AV302" s="18"/>
       <c r="AZ302" s="44"/>
     </row>
-    <row r="303" ht="17.4" spans="1:52">
+    <row r="303" ht="18.75" spans="1:52">
       <c r="A303" s="12"/>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
@@ -23176,7 +23193,7 @@
       <c r="AV303" s="18"/>
       <c r="AZ303" s="44"/>
     </row>
-    <row r="304" ht="17.4" spans="1:52">
+    <row r="304" ht="18.75" spans="1:52">
       <c r="A304" s="12"/>
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
@@ -23227,7 +23244,7 @@
       <c r="AV304" s="18"/>
       <c r="AZ304" s="44"/>
     </row>
-    <row r="305" ht="17.4" spans="1:52">
+    <row r="305" ht="18.75" spans="1:52">
       <c r="A305" s="12"/>
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
@@ -23278,7 +23295,7 @@
       <c r="AV305" s="18"/>
       <c r="AZ305" s="44"/>
     </row>
-    <row r="306" ht="18" spans="1:52">
+    <row r="306" ht="18.75" spans="1:52">
       <c r="A306" s="12"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -23329,7 +23346,7 @@
       <c r="AV306" s="18"/>
       <c r="AZ306" s="44"/>
     </row>
-    <row r="307" ht="18" spans="1:52">
+    <row r="307" ht="18.75" spans="1:52">
       <c r="A307" s="12"/>
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
@@ -23380,7 +23397,7 @@
       <c r="AV307" s="18"/>
       <c r="AZ307" s="44"/>
     </row>
-    <row r="308" ht="17.4" spans="1:52">
+    <row r="308" ht="18.75" spans="1:52">
       <c r="A308" s="12"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -23431,7 +23448,7 @@
       <c r="AV308" s="18"/>
       <c r="AZ308" s="44"/>
     </row>
-    <row r="309" ht="17.4" spans="1:52">
+    <row r="309" ht="18.75" spans="1:52">
       <c r="A309" s="12"/>
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
@@ -23482,7 +23499,7 @@
       <c r="AV309" s="18"/>
       <c r="AZ309" s="44"/>
     </row>
-    <row r="310" ht="17.4" spans="1:52">
+    <row r="310" ht="18.75" spans="1:52">
       <c r="A310" s="12"/>
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
@@ -23533,7 +23550,7 @@
       <c r="AV310" s="18"/>
       <c r="AZ310" s="44"/>
     </row>
-    <row r="311" ht="17.4" spans="1:52">
+    <row r="311" ht="18.75" spans="1:52">
       <c r="A311" s="12"/>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
@@ -23584,7 +23601,7 @@
       <c r="AV311" s="18"/>
       <c r="AZ311" s="44"/>
     </row>
-    <row r="312" ht="17.4" spans="1:52">
+    <row r="312" ht="18.75" spans="1:52">
       <c r="A312" s="12"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
@@ -23635,7 +23652,7 @@
       <c r="AV312" s="18"/>
       <c r="AZ312" s="44"/>
     </row>
-    <row r="313" ht="17.4" spans="1:52">
+    <row r="313" ht="18.75" spans="1:52">
       <c r="A313" s="12"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
@@ -23686,7 +23703,7 @@
       <c r="AV313" s="18"/>
       <c r="AZ313" s="44"/>
     </row>
-    <row r="314" ht="17.4" spans="1:52">
+    <row r="314" ht="18.75" spans="1:52">
       <c r="A314" s="12"/>
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
@@ -23737,7 +23754,7 @@
       <c r="AV314" s="18"/>
       <c r="AZ314" s="44"/>
     </row>
-    <row r="315" ht="18" spans="1:52">
+    <row r="315" ht="18.75" spans="1:52">
       <c r="A315" s="12"/>
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
@@ -23788,7 +23805,7 @@
       <c r="AV315" s="18"/>
       <c r="AZ315" s="44"/>
     </row>
-    <row r="316" ht="18" spans="1:52">
+    <row r="316" ht="18.75" spans="1:52">
       <c r="A316" s="12"/>
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
@@ -23839,7 +23856,7 @@
       <c r="AV316" s="18"/>
       <c r="AZ316" s="44"/>
     </row>
-    <row r="317" ht="17.4" spans="1:52">
+    <row r="317" ht="18.75" spans="1:52">
       <c r="A317" s="12"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
@@ -23890,7 +23907,7 @@
       <c r="AV317" s="18"/>
       <c r="AZ317" s="44"/>
     </row>
-    <row r="318" ht="18" spans="1:52">
+    <row r="318" ht="18.75" spans="1:52">
       <c r="A318" s="12"/>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
@@ -23941,7 +23958,7 @@
       <c r="AV318" s="18"/>
       <c r="AZ318" s="66"/>
     </row>
-    <row r="319" ht="17.4" spans="1:52">
+    <row r="319" ht="18.75" spans="1:52">
       <c r="A319" s="107"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
@@ -23992,7 +24009,7 @@
       <c r="AV319" s="18"/>
       <c r="AZ319" s="66"/>
     </row>
-    <row r="320" ht="17.4" spans="1:52">
+    <row r="320" ht="18.75" spans="1:52">
       <c r="A320" s="112"/>
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
@@ -24043,7 +24060,7 @@
       <c r="AV320" s="18"/>
       <c r="AZ320" s="44"/>
     </row>
-    <row r="321" ht="17.4" spans="1:52">
+    <row r="321" ht="18.75" spans="1:52">
       <c r="A321" s="112"/>
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
@@ -24094,7 +24111,7 @@
       <c r="AV321" s="18"/>
       <c r="AZ321" s="44"/>
     </row>
-    <row r="322" ht="17.4" spans="1:52">
+    <row r="322" ht="18.75" spans="1:52">
       <c r="A322" s="112"/>
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
@@ -24145,7 +24162,7 @@
       <c r="AV322" s="18"/>
       <c r="AZ322" s="44"/>
     </row>
-    <row r="323" ht="17.4" spans="1:52">
+    <row r="323" ht="18.75" spans="1:52">
       <c r="A323" s="112"/>
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
@@ -24196,7 +24213,7 @@
       <c r="AV323" s="18"/>
       <c r="AZ323" s="44"/>
     </row>
-    <row r="324" ht="17.4" spans="1:52">
+    <row r="324" ht="18.75" spans="1:52">
       <c r="A324" s="112"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
@@ -24247,7 +24264,7 @@
       <c r="AV324" s="18"/>
       <c r="AZ324" s="44"/>
     </row>
-    <row r="325" ht="17.4" spans="1:52">
+    <row r="325" ht="18.75" spans="1:52">
       <c r="A325" s="112"/>
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
@@ -24298,7 +24315,7 @@
       <c r="AV325" s="18"/>
       <c r="AZ325" s="44"/>
     </row>
-    <row r="326" ht="17.4" spans="1:52">
+    <row r="326" ht="18.75" spans="1:52">
       <c r="A326" s="112"/>
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
@@ -24349,7 +24366,7 @@
       <c r="AV326" s="18"/>
       <c r="AZ326" s="44"/>
     </row>
-    <row r="327" ht="17.4" spans="1:52">
+    <row r="327" ht="18.75" spans="1:52">
       <c r="A327" s="112"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -24400,7 +24417,7 @@
       <c r="AV327" s="18"/>
       <c r="AZ327" s="44"/>
     </row>
-    <row r="328" ht="17.4" spans="1:52">
+    <row r="328" ht="18.75" spans="1:52">
       <c r="A328" s="112"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -24451,7 +24468,7 @@
       <c r="AV328" s="18"/>
       <c r="AZ328" s="44"/>
     </row>
-    <row r="329" ht="17.4" spans="1:52">
+    <row r="329" ht="18.75" spans="1:52">
       <c r="A329" s="112"/>
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
@@ -24502,7 +24519,7 @@
       <c r="AV329" s="18"/>
       <c r="AZ329" s="44"/>
     </row>
-    <row r="330" ht="17.4" spans="1:52">
+    <row r="330" ht="18.75" spans="1:52">
       <c r="A330" s="112"/>
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
@@ -24553,7 +24570,7 @@
       <c r="AV330" s="18"/>
       <c r="AZ330" s="44"/>
     </row>
-    <row r="331" ht="17.4" spans="1:52">
+    <row r="331" ht="18.75" spans="1:52">
       <c r="A331" s="112"/>
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
@@ -24604,7 +24621,7 @@
       <c r="AV331" s="18"/>
       <c r="AZ331" s="44"/>
     </row>
-    <row r="332" ht="17.4" spans="1:52">
+    <row r="332" ht="18.75" spans="1:52">
       <c r="A332" s="112"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
@@ -24655,7 +24672,7 @@
       <c r="AV332" s="18"/>
       <c r="AZ332" s="44"/>
     </row>
-    <row r="333" ht="17.4" spans="1:52">
+    <row r="333" ht="18.75" spans="1:52">
       <c r="A333" s="112"/>
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
@@ -24757,7 +24774,7 @@
       <c r="AV334" s="18"/>
       <c r="AZ334" s="18"/>
     </row>
-    <row r="335" ht="17.4" spans="1:52">
+    <row r="335" ht="18.75" spans="1:52">
       <c r="A335" s="112"/>
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
@@ -24808,7 +24825,7 @@
       <c r="AV335" s="18"/>
       <c r="AZ335" s="44"/>
     </row>
-    <row r="336" ht="17.4" spans="1:52">
+    <row r="336" ht="18.75" spans="1:52">
       <c r="A336" s="112"/>
       <c r="B336" s="137"/>
       <c r="C336" s="18"/>
@@ -24859,7 +24876,7 @@
       <c r="AV336" s="18"/>
       <c r="AZ336" s="44"/>
     </row>
-    <row r="337" ht="17.4" spans="1:52">
+    <row r="337" ht="18.75" spans="1:52">
       <c r="A337" s="112"/>
       <c r="B337" s="137"/>
       <c r="C337" s="18"/>
@@ -24910,7 +24927,7 @@
       <c r="AV337" s="18"/>
       <c r="AZ337" s="44"/>
     </row>
-    <row r="338" ht="17.4" spans="1:52">
+    <row r="338" ht="18.75" spans="1:52">
       <c r="A338" s="112"/>
       <c r="B338" s="137"/>
       <c r="C338" s="18"/>
@@ -24961,7 +24978,7 @@
       <c r="AV338" s="18"/>
       <c r="AZ338" s="44"/>
     </row>
-    <row r="339" s="2" customFormat="1" ht="17.4" spans="1:52">
+    <row r="339" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A339" s="138"/>
       <c r="B339" s="137"/>
       <c r="C339" s="18"/>
@@ -25011,7 +25028,7 @@
       <c r="AV339" s="18"/>
       <c r="AZ339" s="44"/>
     </row>
-    <row r="340" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="340" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A340" s="138"/>
       <c r="B340" s="137"/>
       <c r="C340" s="18"/>
@@ -25061,7 +25078,7 @@
       <c r="AV340" s="18"/>
       <c r="AZ340" s="44"/>
     </row>
-    <row r="341" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="341" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A341" s="138"/>
       <c r="B341" s="137"/>
       <c r="C341" s="18"/>
@@ -25111,7 +25128,7 @@
       <c r="AV341" s="18"/>
       <c r="AZ341" s="44"/>
     </row>
-    <row r="342" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="342" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A342" s="138"/>
       <c r="B342" s="137"/>
       <c r="C342" s="18"/>
@@ -25161,7 +25178,7 @@
       <c r="AV342" s="18"/>
       <c r="AZ342" s="44"/>
     </row>
-    <row r="343" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="343" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A343" s="138"/>
       <c r="B343" s="137"/>
       <c r="C343" s="18"/>
@@ -25211,7 +25228,7 @@
       <c r="AV343" s="18"/>
       <c r="AZ343" s="44"/>
     </row>
-    <row r="344" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="344" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A344" s="138"/>
       <c r="B344" s="137"/>
       <c r="C344" s="18"/>
@@ -25261,7 +25278,7 @@
       <c r="AV344" s="18"/>
       <c r="AZ344" s="44"/>
     </row>
-    <row r="345" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="345" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A345" s="138"/>
       <c r="B345" s="137"/>
       <c r="C345" s="18"/>
@@ -25311,7 +25328,7 @@
       <c r="AV345" s="18"/>
       <c r="AZ345" s="44"/>
     </row>
-    <row r="346" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="346" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A346" s="138"/>
       <c r="B346" s="137"/>
       <c r="C346" s="18"/>
@@ -25361,7 +25378,7 @@
       <c r="AV346" s="18"/>
       <c r="AZ346" s="44"/>
     </row>
-    <row r="347" s="2" customFormat="1" ht="17.4" spans="1:52">
+    <row r="347" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A347" s="138"/>
       <c r="B347" s="137"/>
       <c r="C347" s="18"/>
@@ -25411,7 +25428,7 @@
       <c r="AV347" s="18"/>
       <c r="AZ347" s="44"/>
     </row>
-    <row r="348" s="2" customFormat="1" ht="17.4" spans="1:52">
+    <row r="348" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A348" s="138"/>
       <c r="B348" s="137"/>
       <c r="C348" s="18"/>
@@ -25461,7 +25478,7 @@
       <c r="AV348" s="18"/>
       <c r="AZ348" s="18"/>
     </row>
-    <row r="349" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="349" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A349" s="138"/>
       <c r="B349" s="137"/>
       <c r="C349" s="18"/>
@@ -25511,7 +25528,7 @@
       <c r="AV349" s="18"/>
       <c r="AZ349" s="18"/>
     </row>
-    <row r="350" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="350" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A350" s="138"/>
       <c r="B350" s="137"/>
       <c r="C350" s="18"/>
@@ -25561,7 +25578,7 @@
       <c r="AV350" s="18"/>
       <c r="AZ350" s="44"/>
     </row>
-    <row r="351" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="351" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A351" s="138"/>
       <c r="B351" s="137"/>
       <c r="C351" s="18"/>
@@ -25611,7 +25628,7 @@
       <c r="AV351" s="18"/>
       <c r="AZ351" s="44"/>
     </row>
-    <row r="352" s="2" customFormat="1" ht="18" spans="1:52">
+    <row r="352" s="2" customFormat="1" ht="18.75" spans="1:52">
       <c r="A352" s="138"/>
       <c r="B352" s="137"/>
       <c r="C352" s="18"/>
@@ -25661,7 +25678,7 @@
       <c r="AV352" s="18"/>
       <c r="AZ352" s="44"/>
     </row>
-    <row r="353" s="3" customFormat="1" ht="18" spans="1:52">
+    <row r="353" s="3" customFormat="1" ht="18.75" spans="1:52">
       <c r="A353" s="138"/>
       <c r="B353" s="137"/>
       <c r="C353" s="18"/>
@@ -25712,7 +25729,7 @@
       <c r="AV353" s="18"/>
       <c r="AZ353" s="44"/>
     </row>
-    <row r="354" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="354" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A354" s="138"/>
       <c r="B354" s="137"/>
       <c r="C354" s="18"/>
@@ -25763,7 +25780,7 @@
       <c r="AV354" s="18"/>
       <c r="AZ354" s="66"/>
     </row>
-    <row r="355" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="355" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A355" s="138"/>
       <c r="B355" s="137"/>
       <c r="C355" s="18"/>
@@ -25814,7 +25831,7 @@
       <c r="AV355" s="18"/>
       <c r="AZ355" s="44"/>
     </row>
-    <row r="356" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="356" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A356" s="138"/>
       <c r="B356" s="137"/>
       <c r="C356" s="18"/>
@@ -25865,7 +25882,7 @@
       <c r="AV356" s="18"/>
       <c r="AZ356" s="44"/>
     </row>
-    <row r="357" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="357" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A357" s="138"/>
       <c r="B357" s="137"/>
       <c r="C357" s="18"/>
@@ -25916,7 +25933,7 @@
       <c r="AV357" s="18"/>
       <c r="AZ357" s="44"/>
     </row>
-    <row r="358" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="358" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A358" s="138"/>
       <c r="B358" s="137"/>
       <c r="C358" s="18"/>
@@ -25967,7 +25984,7 @@
       <c r="AV358" s="18"/>
       <c r="AZ358" s="44"/>
     </row>
-    <row r="359" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="359" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A359" s="138"/>
       <c r="B359" s="137"/>
       <c r="C359" s="18"/>
@@ -26018,7 +26035,7 @@
       <c r="AV359" s="18"/>
       <c r="AZ359" s="66"/>
     </row>
-    <row r="360" s="4" customFormat="1" ht="17.4" spans="1:52">
+    <row r="360" s="4" customFormat="1" ht="18.75" spans="1:52">
       <c r="A360" s="138"/>
       <c r="B360" s="137"/>
       <c r="C360" s="18"/>
@@ -26069,7 +26086,7 @@
       <c r="AV360" s="18"/>
       <c r="AZ360" s="44"/>
     </row>
-    <row r="361" ht="17.4" spans="1:52">
+    <row r="361" ht="18.75" spans="1:52">
       <c r="A361" s="138"/>
       <c r="B361" s="137"/>
       <c r="C361" s="18"/>
@@ -26119,7 +26136,7 @@
       <c r="AV361" s="18"/>
       <c r="AZ361" s="44"/>
     </row>
-    <row r="362" ht="17.4" spans="1:52">
+    <row r="362" ht="18.75" spans="1:52">
       <c r="A362" s="138"/>
       <c r="B362" s="137"/>
       <c r="C362" s="18"/>
@@ -26169,7 +26186,7 @@
       <c r="AV362" s="18"/>
       <c r="AZ362" s="44"/>
     </row>
-    <row r="363" ht="17.4" spans="1:52">
+    <row r="363" ht="18.75" spans="1:52">
       <c r="A363" s="138"/>
       <c r="B363" s="137"/>
       <c r="C363" s="18"/>
@@ -26219,7 +26236,7 @@
       <c r="AV363" s="18"/>
       <c r="AZ363" s="44"/>
     </row>
-    <row r="364" ht="17.4" spans="1:52">
+    <row r="364" ht="18.75" spans="1:52">
       <c r="A364" s="138"/>
       <c r="B364" s="137"/>
       <c r="C364" s="18"/>
@@ -26269,7 +26286,7 @@
       <c r="AV364" s="18"/>
       <c r="AZ364" s="44"/>
     </row>
-    <row r="365" ht="17.4" spans="1:52">
+    <row r="365" ht="18.75" spans="1:52">
       <c r="A365" s="138"/>
       <c r="B365" s="137"/>
       <c r="C365" s="18"/>
@@ -26319,7 +26336,7 @@
       <c r="AV365" s="18"/>
       <c r="AZ365" s="44"/>
     </row>
-    <row r="366" ht="17.4" spans="1:52">
+    <row r="366" ht="18.75" spans="1:52">
       <c r="A366" s="138"/>
       <c r="B366" s="137"/>
       <c r="C366" s="18"/>
@@ -26369,7 +26386,7 @@
       <c r="AV366" s="18"/>
       <c r="AZ366" s="44"/>
     </row>
-    <row r="367" ht="17.4" spans="1:52">
+    <row r="367" ht="18.75" spans="1:52">
       <c r="A367" s="138"/>
       <c r="B367" s="137"/>
       <c r="C367" s="18"/>
@@ -26419,7 +26436,7 @@
       <c r="AV367" s="18"/>
       <c r="AZ367" s="44"/>
     </row>
-    <row r="368" ht="17.4" spans="1:52">
+    <row r="368" ht="18.75" spans="1:52">
       <c r="A368" s="138"/>
       <c r="B368" s="137"/>
       <c r="C368" s="18"/>
@@ -26469,7 +26486,7 @@
       <c r="AV368" s="18"/>
       <c r="AZ368" s="66"/>
     </row>
-    <row r="369" ht="17.4" spans="1:52">
+    <row r="369" ht="18.75" spans="1:52">
       <c r="A369" s="138"/>
       <c r="B369" s="137"/>
       <c r="C369" s="18"/>
@@ -26519,7 +26536,7 @@
       <c r="AV369" s="18"/>
       <c r="AZ369" s="66"/>
     </row>
-    <row r="370" ht="17.4" spans="1:52">
+    <row r="370" ht="18.75" spans="1:52">
       <c r="A370" s="138"/>
       <c r="B370" s="137"/>
       <c r="C370" s="18"/>
@@ -26569,7 +26586,7 @@
       <c r="AV370" s="18"/>
       <c r="AZ370" s="44"/>
     </row>
-    <row r="371" ht="17.4" spans="1:52">
+    <row r="371" ht="18.75" spans="1:52">
       <c r="A371" s="138"/>
       <c r="B371" s="137"/>
       <c r="C371" s="18"/>
@@ -26619,7 +26636,7 @@
       <c r="AV371" s="18"/>
       <c r="AZ371" s="44"/>
     </row>
-    <row r="372" ht="17.4" spans="1:52">
+    <row r="372" ht="18.75" spans="1:52">
       <c r="A372" s="138"/>
       <c r="B372" s="137"/>
       <c r="C372" s="18"/>
@@ -26669,7 +26686,7 @@
       <c r="AV372" s="18"/>
       <c r="AZ372" s="44"/>
     </row>
-    <row r="373" ht="17.4" spans="1:52">
+    <row r="373" ht="18.75" spans="1:52">
       <c r="A373" s="138"/>
       <c r="B373" s="137"/>
       <c r="C373" s="18"/>
@@ -26719,7 +26736,7 @@
       <c r="AV373" s="18"/>
       <c r="AZ373" s="44"/>
     </row>
-    <row r="374" ht="17.4" spans="1:52">
+    <row r="374" ht="18.75" spans="1:52">
       <c r="A374" s="138"/>
       <c r="B374" s="137"/>
       <c r="C374" s="18"/>
@@ -26769,7 +26786,7 @@
       <c r="AV374" s="18"/>
       <c r="AZ374" s="44"/>
     </row>
-    <row r="375" ht="17.4" spans="1:52">
+    <row r="375" ht="18.75" spans="1:52">
       <c r="A375" s="138"/>
       <c r="B375" s="137"/>
       <c r="C375" s="18"/>
@@ -26819,7 +26836,7 @@
       <c r="AV375" s="18"/>
       <c r="AZ375" s="44"/>
     </row>
-    <row r="376" ht="17.4" spans="1:52">
+    <row r="376" ht="18.75" spans="1:52">
       <c r="A376" s="138"/>
       <c r="B376" s="137"/>
       <c r="C376" s="18"/>
@@ -26869,7 +26886,7 @@
       <c r="AV376" s="18"/>
       <c r="AZ376" s="44"/>
     </row>
-    <row r="377" ht="17.4" spans="1:52">
+    <row r="377" ht="18.75" spans="1:52">
       <c r="A377" s="138"/>
       <c r="B377" s="137"/>
       <c r="C377" s="18"/>
@@ -26919,7 +26936,7 @@
       <c r="AV377" s="18"/>
       <c r="AZ377" s="44"/>
     </row>
-    <row r="378" ht="17.4" spans="1:52">
+    <row r="378" ht="18.75" spans="1:52">
       <c r="A378" s="138"/>
       <c r="B378" s="137"/>
       <c r="C378" s="18"/>
@@ -26969,7 +26986,7 @@
       <c r="AV378" s="18"/>
       <c r="AZ378" s="44"/>
     </row>
-    <row r="379" ht="17.4" spans="1:52">
+    <row r="379" ht="18.75" spans="1:52">
       <c r="A379" s="138"/>
       <c r="B379" s="137"/>
       <c r="C379" s="18"/>
@@ -27019,7 +27036,7 @@
       <c r="AV379" s="18"/>
       <c r="AZ379" s="44"/>
     </row>
-    <row r="380" ht="17.4" spans="1:52">
+    <row r="380" ht="18.75" spans="1:52">
       <c r="A380" s="138"/>
       <c r="B380" s="137"/>
       <c r="C380" s="18"/>
@@ -27069,7 +27086,7 @@
       <c r="AV380" s="18"/>
       <c r="AZ380" s="18"/>
     </row>
-    <row r="381" ht="17.4" spans="1:52">
+    <row r="381" ht="18.75" spans="1:52">
       <c r="A381" s="138"/>
       <c r="B381" s="137"/>
       <c r="C381" s="18"/>
@@ -27119,7 +27136,7 @@
       <c r="AV381" s="18"/>
       <c r="AZ381" s="44"/>
     </row>
-    <row r="382" ht="17.4" spans="1:52">
+    <row r="382" ht="18.75" spans="1:52">
       <c r="A382" s="138"/>
       <c r="B382" s="137"/>
       <c r="C382" s="18"/>
@@ -27169,7 +27186,7 @@
       <c r="AV382" s="18"/>
       <c r="AZ382" s="44"/>
     </row>
-    <row r="383" ht="17.4" spans="1:52">
+    <row r="383" ht="18.75" spans="1:52">
       <c r="A383" s="138"/>
       <c r="B383" s="137"/>
       <c r="C383" s="18"/>
@@ -27219,7 +27236,7 @@
       <c r="AV383" s="18"/>
       <c r="AZ383" s="44"/>
     </row>
-    <row r="384" ht="17.4" spans="1:52">
+    <row r="384" ht="18.75" spans="1:52">
       <c r="A384" s="138"/>
       <c r="B384" s="137"/>
       <c r="C384" s="18"/>
@@ -27269,7 +27286,7 @@
       <c r="AV384" s="18"/>
       <c r="AZ384" s="44"/>
     </row>
-    <row r="385" ht="17.4" spans="1:52">
+    <row r="385" ht="18.75" spans="1:52">
       <c r="A385" s="138"/>
       <c r="B385" s="137"/>
       <c r="C385" s="18"/>
@@ -27319,7 +27336,7 @@
       <c r="AV385" s="18"/>
       <c r="AZ385" s="44"/>
     </row>
-    <row r="386" ht="17.4" spans="1:52">
+    <row r="386" ht="18.75" spans="1:52">
       <c r="A386" s="138"/>
       <c r="B386" s="137"/>
       <c r="C386" s="18"/>
@@ -27369,7 +27386,7 @@
       <c r="AV386" s="18"/>
       <c r="AZ386" s="45"/>
     </row>
-    <row r="387" ht="17.4" spans="1:52">
+    <row r="387" ht="18.75" spans="1:52">
       <c r="A387" s="138"/>
       <c r="B387" s="137"/>
       <c r="C387" s="18"/>
@@ -27469,7 +27486,7 @@
       <c r="AV388" s="18"/>
       <c r="AZ388" s="44"/>
     </row>
-    <row r="389" ht="17.4" spans="1:52">
+    <row r="389" ht="18.75" spans="1:52">
       <c r="A389" s="138"/>
       <c r="B389" s="137"/>
       <c r="C389" s="18"/>
@@ -27519,7 +27536,7 @@
       <c r="AV389" s="18"/>
       <c r="AZ389" s="44"/>
     </row>
-    <row r="390" ht="17.4" spans="1:52">
+    <row r="390" ht="18.75" spans="1:52">
       <c r="A390" s="138"/>
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
@@ -27569,7 +27586,7 @@
       <c r="AV390" s="18"/>
       <c r="AZ390" s="44"/>
     </row>
-    <row r="391" ht="17.4" spans="1:52">
+    <row r="391" ht="18.75" spans="1:52">
       <c r="A391" s="138"/>
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
@@ -27669,7 +27686,7 @@
       <c r="AV392" s="18"/>
       <c r="AZ392" s="44"/>
     </row>
-    <row r="393" ht="17.4" spans="1:52">
+    <row r="393" ht="18.75" spans="1:52">
       <c r="A393" s="138"/>
       <c r="B393" s="18"/>
       <c r="C393" s="18"/>
@@ -27719,7 +27736,7 @@
       <c r="AV393" s="18"/>
       <c r="AZ393" s="44"/>
     </row>
-    <row r="394" ht="17.4" spans="1:52">
+    <row r="394" ht="18.75" spans="1:52">
       <c r="A394" s="138"/>
       <c r="B394" s="89"/>
       <c r="C394" s="18"/>
@@ -27769,7 +27786,7 @@
       <c r="AV394" s="18"/>
       <c r="AZ394" s="44"/>
     </row>
-    <row r="395" ht="17.4" spans="1:52">
+    <row r="395" ht="18.75" spans="1:52">
       <c r="A395" s="138"/>
       <c r="B395" s="89"/>
       <c r="C395" s="18"/>
@@ -27819,7 +27836,7 @@
       <c r="AV395" s="18"/>
       <c r="AZ395" s="44"/>
     </row>
-    <row r="396" ht="17.4" spans="1:52">
+    <row r="396" ht="18.75" spans="1:52">
       <c r="A396" s="138"/>
       <c r="B396" s="89"/>
       <c r="C396" s="18"/>
@@ -27869,7 +27886,7 @@
       <c r="AV396" s="18"/>
       <c r="AZ396" s="44"/>
     </row>
-    <row r="397" ht="17.4" spans="1:52">
+    <row r="397" ht="18.75" spans="1:52">
       <c r="A397" s="138"/>
       <c r="B397" s="89"/>
       <c r="C397" s="18"/>
@@ -27919,7 +27936,7 @@
       <c r="AV397" s="18"/>
       <c r="AZ397" s="44"/>
     </row>
-    <row r="398" ht="17.4" spans="1:52">
+    <row r="398" ht="18.75" spans="1:52">
       <c r="A398" s="138"/>
       <c r="B398" s="89"/>
       <c r="C398" s="18"/>
@@ -27969,7 +27986,7 @@
       <c r="AV398" s="82"/>
       <c r="AZ398" s="44"/>
     </row>
-    <row r="399" ht="17.4" spans="1:52">
+    <row r="399" ht="18.75" spans="1:52">
       <c r="A399" s="138"/>
       <c r="B399" s="89"/>
       <c r="C399" s="18"/>
@@ -28019,7 +28036,7 @@
       <c r="AV399" s="18"/>
       <c r="AZ399" s="44"/>
     </row>
-    <row r="400" ht="17.4" spans="1:52">
+    <row r="400" ht="18.75" spans="1:52">
       <c r="A400" s="138"/>
       <c r="B400" s="89"/>
       <c r="C400" s="18"/>
@@ -28069,7 +28086,7 @@
       <c r="AV400" s="18"/>
       <c r="AZ400" s="44"/>
     </row>
-    <row r="401" ht="17.4" spans="1:52">
+    <row r="401" ht="18.75" spans="1:52">
       <c r="A401" s="138"/>
       <c r="B401" s="89"/>
       <c r="C401" s="18"/>
@@ -28119,7 +28136,7 @@
       <c r="AV401" s="18"/>
       <c r="AZ401" s="44"/>
     </row>
-    <row r="402" ht="17.4" spans="1:52">
+    <row r="402" ht="18.75" spans="1:52">
       <c r="A402" s="138"/>
       <c r="B402" s="89"/>
       <c r="C402" s="18"/>
@@ -28169,7 +28186,7 @@
       <c r="AV402" s="18"/>
       <c r="AZ402" s="44"/>
     </row>
-    <row r="403" ht="17.4" spans="1:52">
+    <row r="403" ht="18.75" spans="1:52">
       <c r="A403" s="138"/>
       <c r="B403" s="89"/>
       <c r="C403" s="18"/>
@@ -28219,7 +28236,7 @@
       <c r="AV403" s="18"/>
       <c r="AZ403" s="44"/>
     </row>
-    <row r="404" ht="17.4" spans="1:52">
+    <row r="404" ht="18.75" spans="1:52">
       <c r="A404" s="138"/>
       <c r="B404" s="89"/>
       <c r="C404" s="18"/>
@@ -28269,7 +28286,7 @@
       <c r="AV404" s="82"/>
       <c r="AZ404" s="44"/>
     </row>
-    <row r="405" ht="17.4" spans="1:52">
+    <row r="405" ht="18.75" spans="1:52">
       <c r="A405" s="138"/>
       <c r="B405" s="89"/>
       <c r="C405" s="18"/>
@@ -28319,7 +28336,7 @@
       <c r="AV405" s="18"/>
       <c r="AZ405" s="66"/>
     </row>
-    <row r="406" ht="17.4" spans="1:52">
+    <row r="406" ht="18.75" spans="1:52">
       <c r="A406" s="138"/>
       <c r="B406" s="89"/>
       <c r="C406" s="18"/>
@@ -28369,7 +28386,7 @@
       <c r="AV406" s="18"/>
       <c r="AZ406" s="44"/>
     </row>
-    <row r="407" ht="17.4" spans="1:52">
+    <row r="407" ht="18.75" spans="1:52">
       <c r="A407" s="138"/>
       <c r="B407" s="89"/>
       <c r="C407" s="18"/>
@@ -28419,7 +28436,7 @@
       <c r="AV407" s="18"/>
       <c r="AZ407" s="44"/>
     </row>
-    <row r="408" ht="17.4" spans="1:52">
+    <row r="408" ht="18.75" spans="1:52">
       <c r="A408" s="138"/>
       <c r="B408" s="89"/>
       <c r="C408" s="18"/>
@@ -28469,7 +28486,7 @@
       <c r="AV408" s="18"/>
       <c r="AZ408" s="44"/>
     </row>
-    <row r="409" ht="17.4" spans="1:52">
+    <row r="409" ht="18.75" spans="1:52">
       <c r="A409" s="138"/>
       <c r="B409" s="89"/>
       <c r="C409" s="18"/>
@@ -28519,7 +28536,7 @@
       <c r="AV409" s="18"/>
       <c r="AZ409" s="44"/>
     </row>
-    <row r="410" ht="17.4" spans="1:52">
+    <row r="410" ht="18.75" spans="1:52">
       <c r="A410" s="138"/>
       <c r="B410" s="89"/>
       <c r="C410" s="18"/>
@@ -28569,7 +28586,7 @@
       <c r="AV410" s="18"/>
       <c r="AZ410" s="44"/>
     </row>
-    <row r="411" ht="17.4" spans="1:52">
+    <row r="411" ht="18.75" spans="1:52">
       <c r="A411" s="138"/>
       <c r="B411" s="89"/>
       <c r="C411" s="18"/>
@@ -28619,7 +28636,7 @@
       <c r="AV411" s="18"/>
       <c r="AZ411" s="44"/>
     </row>
-    <row r="412" ht="17.4" spans="1:52">
+    <row r="412" ht="18.75" spans="1:52">
       <c r="A412" s="138"/>
       <c r="B412" s="89"/>
       <c r="C412" s="18"/>
@@ -28669,7 +28686,7 @@
       <c r="AV412" s="18"/>
       <c r="AZ412" s="44"/>
     </row>
-    <row r="413" ht="17.4" spans="1:52">
+    <row r="413" ht="18.75" spans="1:52">
       <c r="A413" s="138"/>
       <c r="B413" s="89"/>
       <c r="C413" s="18"/>
@@ -28719,7 +28736,7 @@
       <c r="AV413" s="18"/>
       <c r="AZ413" s="18"/>
     </row>
-    <row r="414" ht="17.4" spans="1:52">
+    <row r="414" ht="18.75" spans="1:52">
       <c r="A414" s="138"/>
       <c r="B414" s="89"/>
       <c r="C414" s="18"/>
@@ -28769,7 +28786,7 @@
       <c r="AV414" s="18"/>
       <c r="AZ414" s="18"/>
     </row>
-    <row r="415" ht="17.4" spans="1:52">
+    <row r="415" ht="18.75" spans="1:52">
       <c r="A415" s="138"/>
       <c r="B415" s="89"/>
       <c r="C415" s="18"/>
@@ -28819,7 +28836,7 @@
       <c r="AV415" s="18"/>
       <c r="AZ415" s="44"/>
     </row>
-    <row r="416" ht="17.4" spans="1:52">
+    <row r="416" ht="18.75" spans="1:52">
       <c r="A416" s="138"/>
       <c r="B416" s="89"/>
       <c r="C416" s="18"/>
@@ -28869,7 +28886,7 @@
       <c r="AV416" s="18"/>
       <c r="AZ416" s="44"/>
     </row>
-    <row r="417" ht="17.4" spans="1:52">
+    <row r="417" ht="18.75" spans="1:52">
       <c r="A417" s="138"/>
       <c r="B417" s="89"/>
       <c r="C417" s="18"/>
@@ -28919,7 +28936,7 @@
       <c r="AV417" s="18"/>
       <c r="AZ417" s="44"/>
     </row>
-    <row r="418" ht="17.4" spans="1:52">
+    <row r="418" ht="18.75" spans="1:52">
       <c r="A418" s="138"/>
       <c r="B418" s="89"/>
       <c r="C418" s="18"/>
@@ -28969,7 +28986,7 @@
       <c r="AV418" s="18"/>
       <c r="AZ418" s="18"/>
     </row>
-    <row r="419" ht="17.4" spans="1:52">
+    <row r="419" ht="18.75" spans="1:52">
       <c r="A419" s="138"/>
       <c r="B419" s="89"/>
       <c r="C419" s="18"/>
@@ -29019,7 +29036,7 @@
       <c r="AV419" s="18"/>
       <c r="AZ419" s="18"/>
     </row>
-    <row r="420" ht="17.4" spans="1:52">
+    <row r="420" ht="18.75" spans="1:52">
       <c r="A420" s="138"/>
       <c r="B420" s="89"/>
       <c r="C420" s="18"/>
@@ -29069,7 +29086,7 @@
       <c r="AV420" s="18"/>
       <c r="AZ420" s="18"/>
     </row>
-    <row r="421" ht="17.4" spans="1:52">
+    <row r="421" ht="18.75" spans="1:52">
       <c r="A421" s="138"/>
       <c r="B421" s="89"/>
       <c r="C421" s="18"/>
@@ -29119,7 +29136,7 @@
       <c r="AV421" s="18"/>
       <c r="AZ421" s="18"/>
     </row>
-    <row r="422" ht="17.4" spans="1:52">
+    <row r="422" ht="18.75" spans="1:52">
       <c r="A422" s="138"/>
       <c r="B422" s="89"/>
       <c r="C422" s="18"/>
@@ -29169,7 +29186,7 @@
       <c r="AV422" s="18"/>
       <c r="AZ422" s="18"/>
     </row>
-    <row r="423" ht="17.4" spans="1:52">
+    <row r="423" ht="18.75" spans="1:52">
       <c r="A423" s="138"/>
       <c r="B423" s="89"/>
       <c r="C423" s="18"/>
@@ -29219,7 +29236,7 @@
       <c r="AV423" s="18"/>
       <c r="AZ423" s="18"/>
     </row>
-    <row r="424" ht="17.4" spans="1:52">
+    <row r="424" ht="18.75" spans="1:52">
       <c r="A424" s="138"/>
       <c r="B424" s="89"/>
       <c r="C424" s="18"/>
@@ -29269,7 +29286,7 @@
       <c r="AV424" s="18"/>
       <c r="AZ424" s="44"/>
     </row>
-    <row r="425" ht="17.4" spans="1:52">
+    <row r="425" ht="18.75" spans="1:52">
       <c r="A425" s="138"/>
       <c r="B425" s="89"/>
       <c r="C425" s="18"/>
@@ -29319,7 +29336,7 @@
       <c r="AV425" s="18"/>
       <c r="AZ425" s="44"/>
     </row>
-    <row r="426" ht="17.4" spans="1:52">
+    <row r="426" ht="18.75" spans="1:52">
       <c r="A426" s="138"/>
       <c r="B426" s="89"/>
       <c r="C426" s="18"/>
@@ -29369,7 +29386,7 @@
       <c r="AV426" s="18"/>
       <c r="AZ426" s="44"/>
     </row>
-    <row r="427" ht="17.4" spans="1:52">
+    <row r="427" ht="18.75" spans="1:52">
       <c r="A427" s="138"/>
       <c r="B427" s="89"/>
       <c r="C427" s="18"/>
@@ -29419,7 +29436,7 @@
       <c r="AV427" s="18"/>
       <c r="AZ427" s="44"/>
     </row>
-    <row r="428" ht="17.4" spans="1:52">
+    <row r="428" ht="18.75" spans="1:52">
       <c r="A428" s="138"/>
       <c r="B428" s="89"/>
       <c r="C428" s="18"/>
@@ -29469,7 +29486,7 @@
       <c r="AV428" s="18"/>
       <c r="AZ428" s="44"/>
     </row>
-    <row r="429" ht="17.4" spans="1:52">
+    <row r="429" ht="18.75" spans="1:52">
       <c r="A429" s="138"/>
       <c r="B429" s="89"/>
       <c r="C429" s="18"/>
@@ -29519,7 +29536,7 @@
       <c r="AV429" s="18"/>
       <c r="AZ429" s="44"/>
     </row>
-    <row r="430" ht="17.4" spans="1:52">
+    <row r="430" ht="18.75" spans="1:52">
       <c r="A430" s="138"/>
       <c r="B430" s="89"/>
       <c r="C430" s="18"/>
@@ -29569,7 +29586,7 @@
       <c r="AV430" s="18"/>
       <c r="AZ430" s="44"/>
     </row>
-    <row r="431" ht="17.4" spans="1:52">
+    <row r="431" ht="18.75" spans="1:52">
       <c r="A431" s="138"/>
       <c r="B431" s="89"/>
       <c r="C431" s="18"/>
@@ -29619,7 +29636,7 @@
       <c r="AV431" s="18"/>
       <c r="AZ431" s="44"/>
     </row>
-    <row r="432" ht="17.4" spans="1:52">
+    <row r="432" ht="18.75" spans="1:52">
       <c r="A432" s="138"/>
       <c r="B432" s="89"/>
       <c r="C432" s="18"/>
@@ -29669,7 +29686,7 @@
       <c r="AV432" s="18"/>
       <c r="AZ432" s="44"/>
     </row>
-    <row r="433" ht="17.4" spans="1:52">
+    <row r="433" ht="18.75" spans="1:52">
       <c r="A433" s="138"/>
       <c r="B433" s="89"/>
       <c r="C433" s="18"/>
@@ -29719,7 +29736,7 @@
       <c r="AV433" s="18"/>
       <c r="AZ433" s="44"/>
     </row>
-    <row r="434" ht="17.4" spans="1:52">
+    <row r="434" ht="18.75" spans="1:52">
       <c r="A434" s="138"/>
       <c r="B434" s="89"/>
       <c r="C434" s="18"/>
@@ -29769,7 +29786,7 @@
       <c r="AV434" s="18"/>
       <c r="AZ434" s="44"/>
     </row>
-    <row r="435" ht="17.4" spans="1:52">
+    <row r="435" ht="18.75" spans="1:52">
       <c r="A435" s="138"/>
       <c r="B435" s="89"/>
       <c r="C435" s="18"/>
@@ -29819,7 +29836,7 @@
       <c r="AV435" s="18"/>
       <c r="AZ435" s="44"/>
     </row>
-    <row r="436" ht="17.4" spans="1:52">
+    <row r="436" ht="18.75" spans="1:52">
       <c r="A436" s="138"/>
       <c r="B436" s="89"/>
       <c r="C436" s="18"/>
@@ -29869,7 +29886,7 @@
       <c r="AV436" s="18"/>
       <c r="AZ436" s="44"/>
     </row>
-    <row r="437" ht="17.4" spans="1:52">
+    <row r="437" ht="18.75" spans="1:52">
       <c r="A437" s="138"/>
       <c r="B437" s="89"/>
       <c r="C437" s="18"/>
@@ -29919,7 +29936,7 @@
       <c r="AV437" s="18"/>
       <c r="AZ437" s="44"/>
     </row>
-    <row r="438" ht="17.4" spans="1:52">
+    <row r="438" ht="18.75" spans="1:52">
       <c r="A438" s="138"/>
       <c r="B438" s="89"/>
       <c r="C438" s="18"/>
@@ -29969,7 +29986,7 @@
       <c r="AV438" s="18"/>
       <c r="AZ438" s="44"/>
     </row>
-    <row r="439" ht="17.4" spans="1:52">
+    <row r="439" ht="18.75" spans="1:52">
       <c r="A439" s="138"/>
       <c r="B439" s="89"/>
       <c r="C439" s="18"/>
@@ -30019,7 +30036,7 @@
       <c r="AV439" s="18"/>
       <c r="AZ439" s="44"/>
     </row>
-    <row r="440" ht="17.4" spans="1:52">
+    <row r="440" ht="18.75" spans="1:52">
       <c r="A440" s="138"/>
       <c r="B440" s="89"/>
       <c r="C440" s="18"/>
@@ -30069,7 +30086,7 @@
       <c r="AV440" s="18"/>
       <c r="AZ440" s="44"/>
     </row>
-    <row r="441" ht="17.4" spans="1:52">
+    <row r="441" ht="18.75" spans="1:52">
       <c r="A441" s="138"/>
       <c r="B441" s="89"/>
       <c r="C441" s="18"/>
@@ -30119,7 +30136,7 @@
       <c r="AV441" s="18"/>
       <c r="AZ441" s="44"/>
     </row>
-    <row r="442" ht="17.4" spans="1:52">
+    <row r="442" ht="18.75" spans="1:52">
       <c r="A442" s="138"/>
       <c r="B442" s="89"/>
       <c r="C442" s="18"/>
@@ -30169,7 +30186,7 @@
       <c r="AV442" s="18"/>
       <c r="AZ442" s="44"/>
     </row>
-    <row r="443" ht="17.4" spans="1:52">
+    <row r="443" ht="18.75" spans="1:52">
       <c r="A443" s="138"/>
       <c r="B443" s="89"/>
       <c r="C443" s="18"/>
@@ -30219,7 +30236,7 @@
       <c r="AV443" s="18"/>
       <c r="AZ443" s="18"/>
     </row>
-    <row r="444" ht="17.4" spans="1:52">
+    <row r="444" ht="18.75" spans="1:52">
       <c r="A444" s="138"/>
       <c r="B444" s="89"/>
       <c r="C444" s="18"/>
@@ -30269,7 +30286,7 @@
       <c r="AV444" s="18"/>
       <c r="AZ444" s="18"/>
     </row>
-    <row r="445" ht="17.4" spans="1:52">
+    <row r="445" ht="18.75" spans="1:52">
       <c r="A445" s="138"/>
       <c r="B445" s="89"/>
       <c r="C445" s="18"/>
@@ -30319,7 +30336,7 @@
       <c r="AV445" s="18"/>
       <c r="AZ445" s="44"/>
     </row>
-    <row r="446" ht="17.4" spans="1:52">
+    <row r="446" ht="18.75" spans="1:52">
       <c r="A446" s="138"/>
       <c r="B446" s="89"/>
       <c r="C446" s="18"/>
@@ -30369,7 +30386,7 @@
       <c r="AV446" s="18"/>
       <c r="AZ446" s="44"/>
     </row>
-    <row r="447" ht="17.4" spans="1:52">
+    <row r="447" ht="18.75" spans="1:52">
       <c r="A447" s="138"/>
       <c r="B447" s="89"/>
       <c r="C447" s="18"/>
@@ -30419,7 +30436,7 @@
       <c r="AV447" s="18"/>
       <c r="AZ447" s="44"/>
     </row>
-    <row r="448" ht="17.4" spans="1:52">
+    <row r="448" ht="18.75" spans="1:52">
       <c r="A448" s="138"/>
       <c r="B448" s="89"/>
       <c r="C448" s="18"/>
@@ -30469,7 +30486,7 @@
       <c r="AV448" s="18"/>
       <c r="AZ448" s="44"/>
     </row>
-    <row r="449" ht="17.4" spans="1:52">
+    <row r="449" ht="18.75" spans="1:52">
       <c r="A449" s="138"/>
       <c r="B449" s="89"/>
       <c r="C449" s="18"/>
@@ -30519,7 +30536,7 @@
       <c r="AV449" s="18"/>
       <c r="AZ449" s="44"/>
     </row>
-    <row r="450" ht="17.4" spans="1:52">
+    <row r="450" ht="18.75" spans="1:52">
       <c r="A450" s="138"/>
       <c r="B450" s="89"/>
       <c r="C450" s="18"/>
@@ -30569,7 +30586,7 @@
       <c r="AV450" s="18"/>
       <c r="AZ450" s="44"/>
     </row>
-    <row r="451" ht="17.4" spans="1:52">
+    <row r="451" ht="18.75" spans="1:52">
       <c r="A451" s="138"/>
       <c r="B451" s="89"/>
       <c r="C451" s="18"/>
@@ -30619,7 +30636,7 @@
       <c r="AV451" s="18"/>
       <c r="AZ451" s="44"/>
     </row>
-    <row r="452" ht="17.4" spans="1:52">
+    <row r="452" ht="18.75" spans="1:52">
       <c r="A452" s="138"/>
       <c r="B452" s="89"/>
       <c r="C452" s="18"/>
@@ -30669,7 +30686,7 @@
       <c r="AV452" s="18"/>
       <c r="AZ452" s="44"/>
     </row>
-    <row r="453" ht="17.4" spans="1:52">
+    <row r="453" ht="18.75" spans="1:52">
       <c r="A453" s="138"/>
       <c r="B453" s="89"/>
       <c r="C453" s="18"/>
@@ -30719,7 +30736,7 @@
       <c r="AV453" s="18"/>
       <c r="AZ453" s="44"/>
     </row>
-    <row r="454" ht="17.4" spans="1:52">
+    <row r="454" ht="18.75" spans="1:52">
       <c r="A454" s="138"/>
       <c r="B454" s="89"/>
       <c r="C454" s="18"/>
@@ -30769,7 +30786,7 @@
       <c r="AV454" s="18"/>
       <c r="AZ454" s="44"/>
     </row>
-    <row r="455" ht="17.4" spans="1:52">
+    <row r="455" ht="18.75" spans="1:52">
       <c r="A455" s="138"/>
       <c r="B455" s="89"/>
       <c r="C455" s="18"/>
@@ -30819,7 +30836,7 @@
       <c r="AV455" s="18"/>
       <c r="AZ455" s="44"/>
     </row>
-    <row r="456" ht="17.4" spans="1:52">
+    <row r="456" ht="18.75" spans="1:52">
       <c r="A456" s="138"/>
       <c r="B456" s="89"/>
       <c r="C456" s="18"/>
@@ -30869,7 +30886,7 @@
       <c r="AV456" s="82"/>
       <c r="AZ456" s="44"/>
     </row>
-    <row r="457" ht="17.4" spans="1:52">
+    <row r="457" ht="18.75" spans="1:52">
       <c r="A457" s="138"/>
       <c r="B457" s="89"/>
       <c r="C457" s="18"/>
@@ -30919,7 +30936,7 @@
       <c r="AV457" s="18"/>
       <c r="AZ457" s="44"/>
     </row>
-    <row r="458" ht="17.4" spans="1:52">
+    <row r="458" ht="18.75" spans="1:52">
       <c r="A458" s="138"/>
       <c r="B458" s="89"/>
       <c r="C458" s="18"/>
@@ -30969,7 +30986,7 @@
       <c r="AV458" s="18"/>
       <c r="AZ458" s="44"/>
     </row>
-    <row r="459" ht="17.4" spans="1:52">
+    <row r="459" ht="18.75" spans="1:52">
       <c r="A459" s="138"/>
       <c r="B459" s="89"/>
       <c r="C459" s="18"/>
@@ -31019,7 +31036,7 @@
       <c r="AV459" s="18"/>
       <c r="AZ459" s="44"/>
     </row>
-    <row r="460" ht="17.4" spans="1:52">
+    <row r="460" ht="18.75" spans="1:52">
       <c r="A460" s="138"/>
       <c r="B460" s="89"/>
       <c r="C460" s="18"/>
@@ -31069,7 +31086,7 @@
       <c r="AV460" s="18"/>
       <c r="AZ460" s="44"/>
     </row>
-    <row r="461" ht="17.4" spans="1:52">
+    <row r="461" ht="18.75" spans="1:52">
       <c r="A461" s="138"/>
       <c r="B461" s="89"/>
       <c r="C461" s="18"/>
@@ -31119,7 +31136,7 @@
       <c r="AV461" s="18"/>
       <c r="AZ461" s="44"/>
     </row>
-    <row r="462" ht="17.4" spans="1:52">
+    <row r="462" ht="18.75" spans="1:52">
       <c r="A462" s="138"/>
       <c r="B462" s="89"/>
       <c r="C462" s="18"/>
@@ -31169,7 +31186,7 @@
       <c r="AV462" s="18"/>
       <c r="AZ462" s="44"/>
     </row>
-    <row r="463" ht="17.4" spans="1:52">
+    <row r="463" ht="18.75" spans="1:52">
       <c r="A463" s="138"/>
       <c r="B463" s="89"/>
       <c r="C463" s="18"/>
@@ -31219,7 +31236,7 @@
       <c r="AV463" s="18"/>
       <c r="AZ463" s="44"/>
     </row>
-    <row r="464" ht="17.4" spans="1:52">
+    <row r="464" ht="18.75" spans="1:52">
       <c r="A464" s="138"/>
       <c r="B464" s="89"/>
       <c r="C464" s="18"/>
@@ -31269,7 +31286,7 @@
       <c r="AV464" s="18"/>
       <c r="AZ464" s="44"/>
     </row>
-    <row r="465" ht="17.4" spans="1:52">
+    <row r="465" ht="18.75" spans="1:52">
       <c r="A465" s="138"/>
       <c r="B465" s="89"/>
       <c r="C465" s="18"/>
@@ -31319,7 +31336,7 @@
       <c r="AV465" s="18"/>
       <c r="AZ465" s="44"/>
     </row>
-    <row r="466" ht="17.4" spans="1:52">
+    <row r="466" ht="18.75" spans="1:52">
       <c r="A466" s="138"/>
       <c r="B466" s="89"/>
       <c r="C466" s="18"/>
@@ -31369,7 +31386,7 @@
       <c r="AV466" s="18"/>
       <c r="AZ466" s="18"/>
     </row>
-    <row r="467" ht="17.4" spans="1:52">
+    <row r="467" ht="18.75" spans="1:52">
       <c r="A467" s="138"/>
       <c r="B467" s="89"/>
       <c r="C467" s="18"/>
@@ -31419,7 +31436,7 @@
       <c r="AV467" s="18"/>
       <c r="AZ467" s="44"/>
     </row>
-    <row r="468" ht="17.4" spans="1:52">
+    <row r="468" ht="18.75" spans="1:52">
       <c r="A468" s="138"/>
       <c r="B468" s="89"/>
       <c r="C468" s="18"/>
@@ -31469,7 +31486,7 @@
       <c r="AV468" s="18"/>
       <c r="AZ468" s="18"/>
     </row>
-    <row r="469" ht="17.4" spans="1:52">
+    <row r="469" ht="18.75" spans="1:52">
       <c r="A469" s="138"/>
       <c r="B469" s="89"/>
       <c r="C469" s="18"/>
@@ -31519,7 +31536,7 @@
       <c r="AV469" s="18"/>
       <c r="AZ469" s="44"/>
     </row>
-    <row r="470" ht="17.4" spans="1:52">
+    <row r="470" ht="18.75" spans="1:52">
       <c r="A470" s="138"/>
       <c r="B470" s="89"/>
       <c r="C470" s="18"/>
@@ -31569,7 +31586,7 @@
       <c r="AV470" s="18"/>
       <c r="AZ470" s="44"/>
     </row>
-    <row r="471" ht="17.4" spans="1:52">
+    <row r="471" ht="18.75" spans="1:52">
       <c r="A471" s="138"/>
       <c r="B471" s="89"/>
       <c r="C471" s="157"/>
@@ -31619,7 +31636,7 @@
       <c r="AV471" s="166"/>
       <c r="AZ471" s="66"/>
     </row>
-    <row r="472" ht="17.4" spans="1:52">
+    <row r="472" ht="18.75" spans="1:52">
       <c r="A472" s="138"/>
       <c r="B472" s="89"/>
       <c r="C472" s="38"/>
@@ -31669,7 +31686,7 @@
       <c r="AV472" s="18"/>
       <c r="AZ472" s="44"/>
     </row>
-    <row r="473" ht="17.4" spans="1:52">
+    <row r="473" ht="18.75" spans="1:52">
       <c r="A473" s="138"/>
       <c r="B473" s="89"/>
       <c r="C473" s="38"/>
@@ -31719,7 +31736,7 @@
       <c r="AV473" s="18"/>
       <c r="AZ473" s="44"/>
     </row>
-    <row r="474" ht="17.4" spans="1:52">
+    <row r="474" ht="18.75" spans="1:52">
       <c r="A474" s="138"/>
       <c r="B474" s="89"/>
       <c r="C474" s="38"/>
@@ -31769,7 +31786,7 @@
       <c r="AV474" s="18"/>
       <c r="AZ474" s="44"/>
     </row>
-    <row r="475" ht="17.4" spans="1:52">
+    <row r="475" ht="18.75" spans="1:52">
       <c r="A475" s="138"/>
       <c r="B475" s="89"/>
       <c r="C475" s="38"/>
@@ -31819,7 +31836,7 @@
       <c r="AV475" s="18"/>
       <c r="AZ475" s="44"/>
     </row>
-    <row r="476" ht="17.4" spans="1:52">
+    <row r="476" ht="18.75" spans="1:52">
       <c r="A476" s="138"/>
       <c r="B476" s="89"/>
       <c r="C476" s="38"/>
@@ -31869,7 +31886,7 @@
       <c r="AV476" s="18"/>
       <c r="AZ476" s="44"/>
     </row>
-    <row r="477" ht="17.4" spans="1:52">
+    <row r="477" ht="18.75" spans="1:52">
       <c r="A477" s="138"/>
       <c r="B477" s="89"/>
       <c r="C477" s="38"/>
@@ -31919,7 +31936,7 @@
       <c r="AV477" s="18"/>
       <c r="AZ477" s="44"/>
     </row>
-    <row r="478" ht="17.4" spans="1:52">
+    <row r="478" ht="18.75" spans="1:52">
       <c r="A478" s="138"/>
       <c r="B478" s="89"/>
       <c r="C478" s="38"/>
@@ -31969,7 +31986,7 @@
       <c r="AV478" s="18"/>
       <c r="AZ478" s="44"/>
     </row>
-    <row r="479" ht="17.4" spans="1:52">
+    <row r="479" ht="18.75" spans="1:52">
       <c r="A479" s="138"/>
       <c r="B479" s="89"/>
       <c r="C479" s="38"/>
@@ -32019,7 +32036,7 @@
       <c r="AV479" s="18"/>
       <c r="AZ479" s="44"/>
     </row>
-    <row r="480" ht="17.4" spans="1:52">
+    <row r="480" ht="18.75" spans="1:52">
       <c r="A480" s="138"/>
       <c r="B480" s="89"/>
       <c r="C480" s="38"/>
@@ -32069,7 +32086,7 @@
       <c r="AV480" s="18"/>
       <c r="AZ480" s="44"/>
     </row>
-    <row r="481" ht="17.4" spans="1:52">
+    <row r="481" ht="18.75" spans="1:52">
       <c r="A481" s="138"/>
       <c r="B481" s="89"/>
       <c r="C481" s="38"/>
@@ -32119,7 +32136,7 @@
       <c r="AV481" s="18"/>
       <c r="AZ481" s="44"/>
     </row>
-    <row r="482" ht="17.4" spans="1:52">
+    <row r="482" ht="18.75" spans="1:52">
       <c r="A482" s="138"/>
       <c r="B482" s="89"/>
       <c r="C482" s="38"/>
@@ -32169,7 +32186,7 @@
       <c r="AV482" s="18"/>
       <c r="AZ482" s="44"/>
     </row>
-    <row r="483" ht="17.4" spans="1:52">
+    <row r="483" ht="18.75" spans="1:52">
       <c r="A483" s="138"/>
       <c r="B483" s="89"/>
       <c r="C483" s="38"/>
@@ -32219,7 +32236,7 @@
       <c r="AV483" s="18"/>
       <c r="AZ483" s="44"/>
     </row>
-    <row r="484" ht="17.4" spans="1:52">
+    <row r="484" ht="18.75" spans="1:52">
       <c r="A484" s="138"/>
       <c r="B484" s="89"/>
       <c r="C484" s="38"/>
@@ -32269,7 +32286,7 @@
       <c r="AV484" s="18"/>
       <c r="AZ484" s="44"/>
     </row>
-    <row r="485" ht="17.4" spans="1:52">
+    <row r="485" ht="18.75" spans="1:52">
       <c r="A485" s="138"/>
       <c r="B485" s="89"/>
       <c r="C485" s="38"/>
@@ -32319,7 +32336,7 @@
       <c r="AV485" s="18"/>
       <c r="AZ485" s="44"/>
     </row>
-    <row r="486" ht="17.4" spans="1:52">
+    <row r="486" ht="18.75" spans="1:52">
       <c r="A486" s="138"/>
       <c r="B486" s="89"/>
       <c r="C486" s="38"/>
@@ -32354,7 +32371,7 @@
       <c r="AV486" s="82"/>
       <c r="AZ486" s="44"/>
     </row>
-    <row r="487" ht="17.4" spans="1:52">
+    <row r="487" ht="18.75" spans="1:52">
       <c r="A487" s="138"/>
       <c r="B487" s="89"/>
       <c r="C487" s="38"/>
@@ -32389,7 +32406,7 @@
       <c r="AV487" s="18"/>
       <c r="AZ487" s="44"/>
     </row>
-    <row r="488" ht="17.4" spans="1:52">
+    <row r="488" ht="18.75" spans="1:52">
       <c r="A488" s="138"/>
       <c r="B488" s="89"/>
       <c r="C488" s="38"/>
@@ -32424,7 +32441,7 @@
       <c r="AV488" s="18"/>
       <c r="AZ488" s="44"/>
     </row>
-    <row r="489" ht="17.4" spans="1:52">
+    <row r="489" ht="18.75" spans="1:52">
       <c r="A489" s="138"/>
       <c r="B489" s="89"/>
       <c r="C489" s="38"/>
@@ -32459,7 +32476,7 @@
       <c r="AV489" s="18"/>
       <c r="AZ489" s="44"/>
     </row>
-    <row r="490" ht="17.4" spans="1:52">
+    <row r="490" ht="18.75" spans="1:52">
       <c r="A490" s="138"/>
       <c r="B490" s="89"/>
       <c r="C490" s="38"/>
@@ -32494,7 +32511,7 @@
       <c r="AV490" s="18"/>
       <c r="AZ490" s="44"/>
     </row>
-    <row r="491" ht="17.4" spans="1:52">
+    <row r="491" ht="18.75" spans="1:52">
       <c r="A491" s="138"/>
       <c r="B491" s="89"/>
       <c r="C491" s="38"/>
@@ -32529,7 +32546,7 @@
       <c r="AV491" s="18"/>
       <c r="AZ491" s="44"/>
     </row>
-    <row r="492" ht="17.4" spans="1:52">
+    <row r="492" ht="18.75" spans="1:52">
       <c r="A492" s="138"/>
       <c r="B492" s="89"/>
       <c r="C492" s="38"/>
@@ -32564,7 +32581,7 @@
       <c r="AV492" s="18"/>
       <c r="AZ492" s="44"/>
     </row>
-    <row r="493" ht="17.4" spans="1:52">
+    <row r="493" ht="18.75" spans="1:52">
       <c r="A493" s="138"/>
       <c r="B493" s="89"/>
       <c r="C493" s="38"/>
@@ -32599,7 +32616,7 @@
       <c r="AV493" s="18"/>
       <c r="AZ493" s="44"/>
     </row>
-    <row r="494" ht="17.4" spans="1:52">
+    <row r="494" ht="18.75" spans="1:52">
       <c r="A494" s="138"/>
       <c r="B494" s="89"/>
       <c r="C494" s="38"/>
@@ -32634,7 +32651,7 @@
       <c r="AV494" s="18"/>
       <c r="AZ494" s="44"/>
     </row>
-    <row r="495" ht="17.4" spans="1:52">
+    <row r="495" ht="18.75" spans="1:52">
       <c r="A495" s="138"/>
       <c r="B495" s="89"/>
       <c r="C495" s="38"/>
@@ -32669,7 +32686,7 @@
       <c r="AV495" s="82"/>
       <c r="AZ495" s="44"/>
     </row>
-    <row r="496" ht="17.4" spans="1:52">
+    <row r="496" ht="18.75" spans="1:52">
       <c r="A496" s="138"/>
       <c r="B496" s="89"/>
       <c r="C496" s="38"/>
@@ -32704,7 +32721,7 @@
       <c r="AV496" s="18"/>
       <c r="AZ496" s="44"/>
     </row>
-    <row r="497" ht="17.4" spans="1:52">
+    <row r="497" ht="18.75" spans="1:52">
       <c r="A497" s="138"/>
       <c r="B497" s="89"/>
       <c r="C497" s="38"/>
@@ -32739,7 +32756,7 @@
       <c r="AV497" s="18"/>
       <c r="AZ497" s="44"/>
     </row>
-    <row r="498" ht="17.4" spans="1:52">
+    <row r="498" ht="18.75" spans="1:52">
       <c r="A498" s="138"/>
       <c r="B498" s="89"/>
       <c r="C498" s="38"/>
@@ -32774,7 +32791,7 @@
       <c r="AV498" s="18"/>
       <c r="AZ498" s="44"/>
     </row>
-    <row r="499" ht="17.4" spans="1:52">
+    <row r="499" ht="18.75" spans="1:52">
       <c r="A499" s="138"/>
       <c r="B499" s="89"/>
       <c r="C499" s="38"/>
@@ -32809,7 +32826,7 @@
       <c r="AV499" s="18"/>
       <c r="AZ499" s="44"/>
     </row>
-    <row r="500" ht="17.4" spans="1:52">
+    <row r="500" ht="18.75" spans="1:52">
       <c r="A500" s="138"/>
       <c r="B500" s="89"/>
       <c r="C500" s="38"/>
@@ -32844,7 +32861,7 @@
       <c r="AV500" s="82"/>
       <c r="AZ500" s="44"/>
     </row>
-    <row r="501" ht="17.4" spans="1:52">
+    <row r="501" ht="18.75" spans="1:52">
       <c r="A501" s="138"/>
       <c r="B501" s="89"/>
       <c r="C501" s="38"/>
@@ -32879,7 +32896,7 @@
       <c r="AV501" s="18"/>
       <c r="AZ501" s="44"/>
     </row>
-    <row r="502" ht="17.4" spans="1:52">
+    <row r="502" ht="18.75" spans="1:52">
       <c r="A502" s="138"/>
       <c r="B502" s="89"/>
       <c r="C502" s="38"/>
@@ -32914,7 +32931,7 @@
       <c r="AV502" s="18"/>
       <c r="AZ502" s="18"/>
     </row>
-    <row r="503" ht="17.4" spans="1:52">
+    <row r="503" ht="18.75" spans="1:52">
       <c r="A503" s="138"/>
       <c r="B503" s="89"/>
       <c r="C503" s="38"/>
@@ -32949,7 +32966,7 @@
       <c r="AV503" s="18"/>
       <c r="AZ503" s="44"/>
     </row>
-    <row r="504" ht="17.4" spans="1:52">
+    <row r="504" ht="18.75" spans="1:52">
       <c r="A504" s="138"/>
       <c r="B504" s="89"/>
       <c r="C504" s="38"/>
@@ -32984,7 +33001,7 @@
       <c r="AV504" s="18"/>
       <c r="AZ504" s="44"/>
     </row>
-    <row r="505" ht="17.4" spans="1:52">
+    <row r="505" ht="18.75" spans="1:52">
       <c r="A505" s="138"/>
       <c r="B505" s="89"/>
       <c r="C505" s="38"/>
@@ -33019,7 +33036,7 @@
       <c r="AV505" s="18"/>
       <c r="AZ505" s="18"/>
     </row>
-    <row r="506" ht="17.4" spans="1:52">
+    <row r="506" ht="18.75" spans="1:52">
       <c r="A506" s="138"/>
       <c r="B506" s="89"/>
       <c r="C506" s="38"/>
@@ -33054,7 +33071,7 @@
       <c r="AV506" s="18"/>
       <c r="AZ506" s="44"/>
     </row>
-    <row r="507" ht="17.4" spans="1:52">
+    <row r="507" ht="18.75" spans="1:52">
       <c r="A507" s="138"/>
       <c r="B507" s="89"/>
       <c r="C507" s="38"/>
@@ -33089,7 +33106,7 @@
       <c r="AV507" s="18"/>
       <c r="AZ507" s="44"/>
     </row>
-    <row r="508" ht="17.4" spans="1:52">
+    <row r="508" ht="18.75" spans="1:52">
       <c r="A508" s="138"/>
       <c r="B508" s="89"/>
       <c r="C508" s="38"/>
@@ -33124,7 +33141,7 @@
       <c r="AV508" s="18"/>
       <c r="AZ508" s="44"/>
     </row>
-    <row r="509" ht="17.4" spans="1:52">
+    <row r="509" ht="18.75" spans="1:52">
       <c r="A509" s="138"/>
       <c r="B509" s="89"/>
       <c r="C509" s="38"/>
@@ -33159,7 +33176,7 @@
       <c r="AV509" s="18"/>
       <c r="AZ509" s="44"/>
     </row>
-    <row r="510" ht="17.4" spans="1:52">
+    <row r="510" ht="18.75" spans="1:52">
       <c r="A510" s="138"/>
       <c r="B510" s="89"/>
       <c r="C510" s="38"/>
@@ -33194,7 +33211,7 @@
       <c r="AV510" s="18"/>
       <c r="AZ510" s="44"/>
     </row>
-    <row r="511" ht="17.4" spans="1:52">
+    <row r="511" ht="18.75" spans="1:52">
       <c r="A511" s="138"/>
       <c r="B511" s="89"/>
       <c r="C511" s="38"/>
@@ -33229,7 +33246,7 @@
       <c r="AV511" s="18"/>
       <c r="AZ511" s="18"/>
     </row>
-    <row r="512" ht="17.4" spans="1:52">
+    <row r="512" ht="18.75" spans="1:52">
       <c r="A512" s="138"/>
       <c r="B512" s="89"/>
       <c r="C512" s="38"/>
@@ -33264,7 +33281,7 @@
       <c r="AV512" s="18"/>
       <c r="AZ512" s="44"/>
     </row>
-    <row r="513" ht="17.4" spans="1:52">
+    <row r="513" ht="18.75" spans="1:52">
       <c r="A513" s="138"/>
       <c r="B513" s="89"/>
       <c r="C513" s="38"/>
@@ -33299,7 +33316,7 @@
       <c r="AV513" s="18"/>
       <c r="AZ513" s="18"/>
     </row>
-    <row r="514" ht="17.4" spans="1:52">
+    <row r="514" ht="18.75" spans="1:52">
       <c r="A514" s="138"/>
       <c r="B514" s="89"/>
       <c r="C514" s="38"/>
@@ -33334,7 +33351,7 @@
       <c r="AV514" s="82"/>
       <c r="AZ514" s="44"/>
     </row>
-    <row r="515" ht="17.4" spans="1:52">
+    <row r="515" ht="18.75" spans="1:52">
       <c r="A515" s="138"/>
       <c r="B515" s="89"/>
       <c r="C515" s="38"/>
@@ -33369,7 +33386,7 @@
       <c r="AV515" s="18"/>
       <c r="AZ515" s="44"/>
     </row>
-    <row r="516" ht="17.4" spans="1:52">
+    <row r="516" ht="18.75" spans="1:52">
       <c r="A516" s="138"/>
       <c r="B516" s="89"/>
       <c r="C516" s="38"/>
@@ -33404,7 +33421,7 @@
       <c r="AV516" s="18"/>
       <c r="AZ516" s="44"/>
     </row>
-    <row r="517" ht="17.4" spans="1:52">
+    <row r="517" ht="18.75" spans="1:52">
       <c r="A517" s="138"/>
       <c r="B517" s="89"/>
       <c r="C517" s="38"/>
@@ -33439,7 +33456,7 @@
       <c r="AV517" s="82"/>
       <c r="AZ517" s="44"/>
     </row>
-    <row r="518" ht="17.4" spans="1:52">
+    <row r="518" ht="18.75" spans="1:52">
       <c r="A518" s="138"/>
       <c r="B518" s="89"/>
       <c r="C518" s="38"/>
@@ -33474,7 +33491,7 @@
       <c r="AV518" s="18"/>
       <c r="AZ518" s="44"/>
     </row>
-    <row r="519" ht="17.4" spans="1:52">
+    <row r="519" ht="18.75" spans="1:52">
       <c r="A519" s="138"/>
       <c r="B519" s="89"/>
       <c r="C519" s="38"/>
@@ -33509,7 +33526,7 @@
       <c r="AV519" s="18"/>
       <c r="AZ519" s="44"/>
     </row>
-    <row r="520" ht="17.4" spans="1:52">
+    <row r="520" ht="18.75" spans="1:52">
       <c r="A520" s="138"/>
       <c r="B520" s="89"/>
       <c r="C520" s="38"/>
@@ -33544,7 +33561,7 @@
       <c r="AV520" s="82"/>
       <c r="AZ520" s="44"/>
     </row>
-    <row r="521" ht="17.4" spans="1:52">
+    <row r="521" ht="18.75" spans="1:52">
       <c r="A521" s="138"/>
       <c r="B521" s="89"/>
       <c r="C521" s="38"/>
@@ -33579,7 +33596,7 @@
       <c r="AV521" s="18"/>
       <c r="AZ521" s="18"/>
     </row>
-    <row r="522" ht="17.4" spans="1:52">
+    <row r="522" ht="18.75" spans="1:52">
       <c r="A522" s="138"/>
       <c r="B522" s="89"/>
       <c r="C522" s="38"/>
@@ -33614,7 +33631,7 @@
       <c r="AV522" s="18"/>
       <c r="AZ522" s="44"/>
     </row>
-    <row r="523" ht="17.4" spans="1:52">
+    <row r="523" ht="18.75" spans="1:52">
       <c r="A523" s="138"/>
       <c r="B523" s="89"/>
       <c r="C523" s="38"/>
@@ -33649,7 +33666,7 @@
       <c r="AV523" s="18"/>
       <c r="AZ523" s="18"/>
     </row>
-    <row r="524" ht="17.4" spans="1:52">
+    <row r="524" ht="18.75" spans="1:52">
       <c r="A524" s="138"/>
       <c r="B524" s="89"/>
       <c r="C524" s="38"/>
@@ -33684,7 +33701,7 @@
       <c r="AV524" s="18"/>
       <c r="AZ524" s="44"/>
     </row>
-    <row r="525" ht="17.4" spans="1:52">
+    <row r="525" ht="18.75" spans="1:52">
       <c r="A525" s="138"/>
       <c r="B525" s="89"/>
       <c r="C525" s="38"/>
@@ -33719,7 +33736,7 @@
       <c r="AV525" s="18"/>
       <c r="AZ525" s="44"/>
     </row>
-    <row r="526" ht="17.4" spans="1:52">
+    <row r="526" ht="18.75" spans="1:52">
       <c r="A526" s="138"/>
       <c r="B526" s="89"/>
       <c r="C526" s="38"/>
@@ -33754,7 +33771,7 @@
       <c r="AV526" s="18"/>
       <c r="AZ526" s="44"/>
     </row>
-    <row r="527" ht="17.4" spans="1:52">
+    <row r="527" ht="18.75" spans="1:52">
       <c r="A527" s="138"/>
       <c r="B527" s="89"/>
       <c r="C527" s="38"/>
@@ -33789,7 +33806,7 @@
       <c r="AV527" s="18"/>
       <c r="AZ527" s="44"/>
     </row>
-    <row r="528" ht="17.4" spans="1:52">
+    <row r="528" ht="18.75" spans="1:52">
       <c r="A528" s="138"/>
       <c r="B528" s="89"/>
       <c r="C528" s="38"/>
@@ -33824,7 +33841,7 @@
       <c r="AV528" s="18"/>
       <c r="AZ528" s="44"/>
     </row>
-    <row r="529" ht="17.4" spans="1:52">
+    <row r="529" ht="18.75" spans="1:52">
       <c r="A529" s="138"/>
       <c r="B529" s="89"/>
       <c r="C529" s="38"/>
@@ -33859,7 +33876,7 @@
       <c r="AV529" s="18"/>
       <c r="AZ529" s="44"/>
     </row>
-    <row r="530" ht="17.4" spans="1:52">
+    <row r="530" ht="18.75" spans="1:52">
       <c r="A530" s="138"/>
       <c r="B530" s="89"/>
       <c r="C530" s="38"/>
@@ -33894,7 +33911,7 @@
       <c r="AV530" s="18"/>
       <c r="AZ530" s="18"/>
     </row>
-    <row r="531" ht="17.4" spans="1:52">
+    <row r="531" ht="18.75" spans="1:52">
       <c r="A531" s="138"/>
       <c r="B531" s="89"/>
       <c r="C531" s="38"/>
@@ -33929,7 +33946,7 @@
       <c r="AV531" s="18"/>
       <c r="AZ531" s="44"/>
     </row>
-    <row r="532" ht="17.4" spans="1:52">
+    <row r="532" ht="18.75" spans="1:52">
       <c r="A532" s="138"/>
       <c r="B532" s="89"/>
       <c r="C532" s="38"/>
@@ -33964,7 +33981,7 @@
       <c r="AV532" s="82"/>
       <c r="AZ532" s="44"/>
     </row>
-    <row r="533" ht="17.4" spans="1:52">
+    <row r="533" ht="18.75" spans="1:52">
       <c r="A533" s="138"/>
       <c r="B533" s="89"/>
       <c r="C533" s="38"/>
@@ -33999,7 +34016,7 @@
       <c r="AV533" s="18"/>
       <c r="AZ533" s="44"/>
     </row>
-    <row r="534" ht="17.4" spans="1:52">
+    <row r="534" ht="18.75" spans="1:52">
       <c r="A534" s="138"/>
       <c r="B534" s="89"/>
       <c r="C534" s="38"/>
@@ -34034,7 +34051,7 @@
       <c r="AV534" s="18"/>
       <c r="AZ534" s="44"/>
     </row>
-    <row r="535" ht="17.4" spans="1:52">
+    <row r="535" ht="18.75" spans="1:52">
       <c r="A535" s="138"/>
       <c r="B535" s="89"/>
       <c r="C535" s="38"/>
@@ -34069,7 +34086,7 @@
       <c r="AV535" s="18"/>
       <c r="AZ535" s="44"/>
     </row>
-    <row r="536" ht="17.4" spans="1:52">
+    <row r="536" ht="18.75" spans="1:52">
       <c r="A536" s="138"/>
       <c r="B536" s="89"/>
       <c r="C536" s="38"/>
@@ -34104,7 +34121,7 @@
       <c r="AV536" s="18"/>
       <c r="AZ536" s="18"/>
     </row>
-    <row r="537" ht="17.4" spans="1:52">
+    <row r="537" ht="18.75" spans="1:52">
       <c r="A537" s="138"/>
       <c r="B537" s="89"/>
       <c r="C537" s="38"/>
@@ -34139,7 +34156,7 @@
       <c r="AV537" s="18"/>
       <c r="AZ537" s="18"/>
     </row>
-    <row r="538" ht="17.4" spans="1:52">
+    <row r="538" ht="18.75" spans="1:52">
       <c r="A538" s="138"/>
       <c r="B538" s="89"/>
       <c r="C538" s="38"/>
@@ -34174,7 +34191,7 @@
       <c r="AV538" s="18"/>
       <c r="AZ538" s="18"/>
     </row>
-    <row r="539" ht="17.4" spans="1:52">
+    <row r="539" ht="18.75" spans="1:52">
       <c r="A539" s="138"/>
       <c r="B539" s="89"/>
       <c r="C539" s="38"/>
@@ -34209,7 +34226,7 @@
       <c r="AV539" s="18"/>
       <c r="AZ539" s="18"/>
     </row>
-    <row r="540" ht="17.4" spans="1:52">
+    <row r="540" ht="18.75" spans="1:52">
       <c r="A540" s="138"/>
       <c r="B540" s="89"/>
       <c r="C540" s="38"/>
@@ -34244,7 +34261,7 @@
       <c r="AV540" s="18"/>
       <c r="AZ540" s="44"/>
     </row>
-    <row r="541" ht="17.4" spans="1:52">
+    <row r="541" ht="18.75" spans="1:52">
       <c r="A541" s="138"/>
       <c r="B541" s="89"/>
       <c r="C541" s="38"/>
@@ -34279,7 +34296,7 @@
       <c r="AV541" s="18"/>
       <c r="AZ541" s="18"/>
     </row>
-    <row r="542" ht="17.4" spans="1:52">
+    <row r="542" ht="18.75" spans="1:52">
       <c r="A542" s="138"/>
       <c r="B542" s="89"/>
       <c r="C542" s="38"/>
@@ -34314,7 +34331,7 @@
       <c r="AV542" s="18"/>
       <c r="AZ542" s="18"/>
     </row>
-    <row r="543" ht="17.4" spans="1:52">
+    <row r="543" ht="18.75" spans="1:52">
       <c r="A543" s="138"/>
       <c r="B543" s="89"/>
       <c r="C543" s="38"/>
@@ -34349,7 +34366,7 @@
       <c r="AV543" s="18"/>
       <c r="AZ543" s="44"/>
     </row>
-    <row r="544" ht="17.4" spans="1:52">
+    <row r="544" ht="18.75" spans="1:52">
       <c r="A544" s="138"/>
       <c r="B544" s="89"/>
       <c r="C544" s="38"/>
@@ -34384,7 +34401,7 @@
       <c r="AV544" s="18"/>
       <c r="AZ544" s="44"/>
     </row>
-    <row r="545" ht="17.4" spans="1:52">
+    <row r="545" ht="18.75" spans="1:52">
       <c r="A545" s="138"/>
       <c r="B545" s="89"/>
       <c r="C545" s="38"/>
@@ -34419,7 +34436,7 @@
       <c r="AV545" s="18"/>
       <c r="AZ545" s="44"/>
     </row>
-    <row r="546" ht="17.4" spans="1:52">
+    <row r="546" ht="18.75" spans="1:52">
       <c r="A546" s="138"/>
       <c r="B546" s="89"/>
       <c r="C546" s="38"/>
@@ -34454,7 +34471,7 @@
       <c r="AV546" s="18"/>
       <c r="AZ546" s="44"/>
     </row>
-    <row r="547" ht="17.4" spans="1:52">
+    <row r="547" ht="18.75" spans="1:52">
       <c r="A547" s="138"/>
       <c r="B547" s="89"/>
       <c r="C547" s="38"/>
@@ -34489,7 +34506,7 @@
       <c r="AV547" s="18"/>
       <c r="AZ547" s="44"/>
     </row>
-    <row r="548" ht="17.4" spans="1:52">
+    <row r="548" ht="18.75" spans="1:52">
       <c r="A548" s="138"/>
       <c r="B548" s="89"/>
       <c r="C548" s="38"/>
@@ -34524,7 +34541,7 @@
       <c r="AV548" s="18"/>
       <c r="AZ548" s="44"/>
     </row>
-    <row r="549" ht="17.4" spans="1:52">
+    <row r="549" ht="18.75" spans="1:52">
       <c r="A549" s="138"/>
       <c r="B549" s="89"/>
       <c r="C549" s="38"/>
@@ -34559,7 +34576,7 @@
       <c r="AV549" s="18"/>
       <c r="AZ549" s="44"/>
     </row>
-    <row r="550" ht="17.4" spans="1:52">
+    <row r="550" ht="18.75" spans="1:52">
       <c r="A550" s="138"/>
       <c r="B550" s="89"/>
       <c r="C550" s="38"/>
@@ -34593,7 +34610,7 @@
       <c r="AV550" s="18"/>
       <c r="AZ550" s="44"/>
     </row>
-    <row r="551" ht="17.4" spans="1:52">
+    <row r="551" ht="18.75" spans="1:52">
       <c r="A551" s="138"/>
       <c r="B551" s="89"/>
       <c r="C551" s="38"/>
@@ -34627,7 +34644,7 @@
       <c r="AV551" s="18"/>
       <c r="AZ551" s="44"/>
     </row>
-    <row r="552" ht="17.4" spans="1:52">
+    <row r="552" ht="18.75" spans="1:52">
       <c r="A552" s="138"/>
       <c r="B552" s="89"/>
       <c r="C552" s="38"/>
@@ -34661,7 +34678,7 @@
       <c r="AV552" s="18"/>
       <c r="AZ552" s="44"/>
     </row>
-    <row r="553" ht="17.4" spans="1:52">
+    <row r="553" ht="18.75" spans="1:52">
       <c r="A553" s="138"/>
       <c r="B553" s="89"/>
       <c r="C553" s="38"/>
@@ -34695,7 +34712,7 @@
       <c r="AV553" s="82"/>
       <c r="AZ553" s="44"/>
     </row>
-    <row r="554" ht="17.4" spans="1:52">
+    <row r="554" ht="18.75" spans="1:52">
       <c r="A554" s="138"/>
       <c r="B554" s="89"/>
       <c r="C554" s="38"/>
@@ -34729,7 +34746,7 @@
       <c r="AV554" s="18"/>
       <c r="AZ554" s="44"/>
     </row>
-    <row r="555" ht="17.4" spans="1:52">
+    <row r="555" ht="18.75" spans="1:52">
       <c r="A555" s="138"/>
       <c r="B555" s="89"/>
       <c r="C555" s="38"/>
@@ -34763,7 +34780,7 @@
       <c r="AV555" s="18"/>
       <c r="AZ555" s="44"/>
     </row>
-    <row r="556" ht="17.4" spans="1:52">
+    <row r="556" ht="18.75" spans="1:52">
       <c r="A556" s="138"/>
       <c r="B556" s="89"/>
       <c r="C556" s="38"/>
@@ -34797,7 +34814,7 @@
       <c r="AV556" s="18"/>
       <c r="AZ556" s="44"/>
     </row>
-    <row r="557" ht="17.4" spans="1:52">
+    <row r="557" ht="18.75" spans="1:52">
       <c r="A557" s="138"/>
       <c r="B557" s="89"/>
       <c r="C557" s="38"/>
@@ -34831,7 +34848,7 @@
       <c r="AV557" s="18"/>
       <c r="AZ557" s="44"/>
     </row>
-    <row r="558" ht="17.4" spans="1:52">
+    <row r="558" ht="18.75" spans="1:52">
       <c r="A558" s="138"/>
       <c r="B558" s="89"/>
       <c r="C558" s="38"/>
@@ -34865,7 +34882,7 @@
       <c r="AV558" s="18"/>
       <c r="AZ558" s="44"/>
     </row>
-    <row r="559" ht="17.4" spans="1:52">
+    <row r="559" ht="18.75" spans="1:52">
       <c r="A559" s="138"/>
       <c r="B559" s="89"/>
       <c r="C559" s="38"/>
@@ -34899,7 +34916,7 @@
       <c r="AV559" s="18"/>
       <c r="AZ559" s="44"/>
     </row>
-    <row r="560" ht="17.4" spans="1:52">
+    <row r="560" ht="18.75" spans="1:52">
       <c r="A560" s="138"/>
       <c r="B560" s="89"/>
       <c r="C560" s="38"/>
@@ -34933,7 +34950,7 @@
       <c r="AV560" s="18"/>
       <c r="AZ560" s="18"/>
     </row>
-    <row r="561" ht="17.4" spans="1:52">
+    <row r="561" ht="18.75" spans="1:52">
       <c r="A561" s="138"/>
       <c r="B561" s="89"/>
       <c r="C561" s="38"/>
@@ -34967,7 +34984,7 @@
       <c r="AV561" s="18"/>
       <c r="AZ561" s="18"/>
     </row>
-    <row r="562" ht="17.4" spans="1:52">
+    <row r="562" ht="18.75" spans="1:52">
       <c r="A562" s="138"/>
       <c r="B562" s="89"/>
       <c r="C562" s="38"/>
@@ -35001,7 +35018,7 @@
       <c r="AV562" s="18"/>
       <c r="AZ562" s="44"/>
     </row>
-    <row r="563" ht="17.4" spans="1:52">
+    <row r="563" ht="18.75" spans="1:52">
       <c r="A563" s="138"/>
       <c r="B563" s="89"/>
       <c r="C563" s="38"/>
@@ -35035,7 +35052,7 @@
       <c r="AV563" s="18"/>
       <c r="AZ563" s="44"/>
     </row>
-    <row r="564" ht="17.4" spans="1:52">
+    <row r="564" ht="18.75" spans="1:52">
       <c r="A564" s="138"/>
       <c r="B564" s="89"/>
       <c r="C564" s="38"/>
@@ -35069,7 +35086,7 @@
       <c r="AV564" s="18"/>
       <c r="AZ564" s="44"/>
     </row>
-    <row r="565" ht="17.4" spans="1:52">
+    <row r="565" ht="18.75" spans="1:52">
       <c r="A565" s="138"/>
       <c r="B565" s="89"/>
       <c r="C565" s="38"/>
@@ -35103,7 +35120,7 @@
       <c r="AV565" s="18"/>
       <c r="AZ565" s="18"/>
     </row>
-    <row r="566" ht="17.4" spans="1:52">
+    <row r="566" ht="18.75" spans="1:52">
       <c r="A566" s="138"/>
       <c r="B566" s="89"/>
       <c r="C566" s="38"/>
@@ -35137,7 +35154,7 @@
       <c r="AV566" s="18"/>
       <c r="AZ566" s="18"/>
     </row>
-    <row r="567" ht="17.4" spans="1:52">
+    <row r="567" ht="18.75" spans="1:52">
       <c r="A567" s="138"/>
       <c r="B567" s="89"/>
       <c r="C567" s="38"/>
@@ -35171,7 +35188,7 @@
       <c r="AV567" s="18"/>
       <c r="AZ567" s="44"/>
     </row>
-    <row r="568" ht="17.4" spans="1:52">
+    <row r="568" ht="18.75" spans="1:52">
       <c r="A568" s="138"/>
       <c r="B568" s="89"/>
       <c r="C568" s="38"/>
@@ -35205,7 +35222,7 @@
       <c r="AV568" s="18"/>
       <c r="AZ568" s="44"/>
     </row>
-    <row r="569" ht="17.4" spans="1:52">
+    <row r="569" ht="18.75" spans="1:52">
       <c r="A569" s="138"/>
       <c r="B569" s="89"/>
       <c r="C569" s="38"/>
@@ -35239,7 +35256,7 @@
       <c r="AV569" s="18"/>
       <c r="AZ569" s="44"/>
     </row>
-    <row r="570" ht="17.4" spans="1:52">
+    <row r="570" ht="18.75" spans="1:52">
       <c r="A570" s="138"/>
       <c r="B570" s="89"/>
       <c r="C570" s="38"/>
@@ -35273,7 +35290,7 @@
       <c r="AV570" s="18"/>
       <c r="AZ570" s="44"/>
     </row>
-    <row r="571" ht="17.4" spans="1:52">
+    <row r="571" ht="18.75" spans="1:52">
       <c r="A571" s="138"/>
       <c r="B571" s="89"/>
       <c r="C571" s="38"/>
@@ -35307,7 +35324,7 @@
       <c r="AV571" s="18"/>
       <c r="AZ571" s="44"/>
     </row>
-    <row r="572" ht="17.4" spans="1:52">
+    <row r="572" ht="18.75" spans="1:52">
       <c r="A572" s="138"/>
       <c r="B572" s="89"/>
       <c r="C572" s="38"/>
@@ -35341,7 +35358,7 @@
       <c r="AV572" s="18"/>
       <c r="AZ572" s="18"/>
     </row>
-    <row r="573" ht="17.4" spans="1:52">
+    <row r="573" ht="18.75" spans="1:52">
       <c r="A573" s="138"/>
       <c r="B573" s="89"/>
       <c r="C573" s="135"/>
@@ -35409,7 +35426,7 @@
       <c r="AV574" s="102"/>
       <c r="AZ574" s="44"/>
     </row>
-    <row r="575" ht="17.4" spans="1:52">
+    <row r="575" ht="18.75" spans="1:52">
       <c r="A575" s="138"/>
       <c r="B575" s="50"/>
       <c r="C575" s="18"/>
@@ -35443,7 +35460,7 @@
       <c r="AV575" s="18"/>
       <c r="AZ575" s="44"/>
     </row>
-    <row r="576" ht="17.4" spans="1:52">
+    <row r="576" ht="18.75" spans="1:52">
       <c r="A576" s="138"/>
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
@@ -35477,7 +35494,7 @@
       <c r="AV576" s="18"/>
       <c r="AZ576" s="44"/>
     </row>
-    <row r="577" ht="17.4" spans="1:52">
+    <row r="577" ht="18.75" spans="1:52">
       <c r="A577" s="138"/>
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
@@ -35511,7 +35528,7 @@
       <c r="AV577" s="18"/>
       <c r="AZ577" s="44"/>
     </row>
-    <row r="578" ht="17.4" spans="1:52">
+    <row r="578" ht="18.75" spans="1:52">
       <c r="A578" s="138"/>
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
@@ -35545,7 +35562,7 @@
       <c r="AV578" s="18"/>
       <c r="AZ578" s="44"/>
     </row>
-    <row r="579" ht="17.4" spans="1:52">
+    <row r="579" ht="18.75" spans="1:52">
       <c r="A579" s="138"/>
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
@@ -35579,7 +35596,7 @@
       <c r="AV579" s="18"/>
       <c r="AZ579" s="44"/>
     </row>
-    <row r="580" ht="17.4" spans="1:52">
+    <row r="580" ht="18.75" spans="1:52">
       <c r="A580" s="138"/>
       <c r="B580" s="18"/>
       <c r="C580" s="89"/>
@@ -35613,7 +35630,7 @@
       <c r="AV580" s="89"/>
       <c r="AZ580" s="44"/>
     </row>
-    <row r="581" ht="17.4" spans="1:52">
+    <row r="581" ht="18.75" spans="1:52">
       <c r="A581" s="138"/>
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
@@ -35647,7 +35664,7 @@
       <c r="AV581" s="18"/>
       <c r="AZ581" s="44"/>
     </row>
-    <row r="582" ht="17.4" spans="1:52">
+    <row r="582" ht="18.75" spans="1:52">
       <c r="A582" s="138"/>
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
@@ -35681,7 +35698,7 @@
       <c r="AV582" s="18"/>
       <c r="AZ582" s="44"/>
     </row>
-    <row r="583" ht="17.4" spans="1:52">
+    <row r="583" ht="18.75" spans="1:52">
       <c r="A583" s="138"/>
       <c r="B583" s="137"/>
       <c r="C583" s="137"/>
@@ -35715,7 +35732,7 @@
       <c r="AV583" s="91"/>
       <c r="AZ583" s="137"/>
     </row>
-    <row r="584" ht="17.4" spans="1:52">
+    <row r="584" ht="18.75" spans="1:52">
       <c r="A584" s="138"/>
       <c r="B584" s="137"/>
       <c r="C584" s="137"/>
@@ -35749,7 +35766,7 @@
       <c r="AV584" s="91"/>
       <c r="AZ584" s="44"/>
     </row>
-    <row r="585" ht="17.4" spans="1:52">
+    <row r="585" ht="18.75" spans="1:52">
       <c r="A585" s="138"/>
       <c r="B585" s="137"/>
       <c r="C585" s="137"/>
@@ -35783,7 +35800,7 @@
       <c r="AV585" s="91"/>
       <c r="AZ585" s="44"/>
     </row>
-    <row r="586" ht="17.4" spans="1:52">
+    <row r="586" ht="18.75" spans="1:52">
       <c r="A586" s="138"/>
       <c r="B586" s="137"/>
       <c r="C586" s="137"/>
@@ -35817,7 +35834,7 @@
       <c r="AV586" s="91"/>
       <c r="AZ586" s="44"/>
     </row>
-    <row r="587" ht="17.4" spans="1:52">
+    <row r="587" ht="18.75" spans="1:52">
       <c r="A587" s="138"/>
       <c r="B587" s="173"/>
       <c r="C587" s="18"/>
@@ -35851,7 +35868,7 @@
       <c r="AV587" s="18"/>
       <c r="AZ587" s="18"/>
     </row>
-    <row r="588" ht="17.4" spans="1:52">
+    <row r="588" ht="18.75" spans="1:52">
       <c r="A588" s="138"/>
       <c r="B588" s="173"/>
       <c r="C588" s="18"/>
@@ -35885,7 +35902,7 @@
       <c r="AV588" s="18"/>
       <c r="AZ588" s="18"/>
     </row>
-    <row r="589" ht="17.4" spans="1:52">
+    <row r="589" ht="18.75" spans="1:52">
       <c r="A589" s="138"/>
       <c r="B589" s="173"/>
       <c r="C589" s="18"/>
@@ -35919,7 +35936,7 @@
       <c r="AV589" s="18"/>
       <c r="AZ589" s="18"/>
     </row>
-    <row r="590" ht="17.4" spans="1:52">
+    <row r="590" ht="18.75" spans="1:52">
       <c r="A590" s="138"/>
       <c r="B590" s="173"/>
       <c r="C590" s="18"/>
@@ -35953,7 +35970,7 @@
       <c r="AV590" s="18"/>
       <c r="AZ590" s="18"/>
     </row>
-    <row r="591" ht="17.4" spans="1:52">
+    <row r="591" ht="18.75" spans="1:52">
       <c r="A591" s="138"/>
       <c r="B591" s="173"/>
       <c r="C591" s="89"/>
@@ -35987,7 +36004,7 @@
       <c r="AV591" s="89"/>
       <c r="AZ591" s="18"/>
     </row>
-    <row r="592" ht="17.4" spans="1:52">
+    <row r="592" ht="18.75" spans="1:52">
       <c r="A592" s="138"/>
       <c r="B592" s="173"/>
       <c r="C592" s="18"/>
@@ -36021,7 +36038,7 @@
       <c r="AV592" s="18"/>
       <c r="AZ592" s="18"/>
     </row>
-    <row r="593" ht="17.4" spans="1:52">
+    <row r="593" ht="18.75" spans="1:52">
       <c r="A593" s="138"/>
       <c r="B593" s="173"/>
       <c r="C593" s="18"/>
@@ -36055,7 +36072,7 @@
       <c r="AV593" s="18"/>
       <c r="AZ593" s="18"/>
     </row>
-    <row r="594" ht="17.4" spans="1:52">
+    <row r="594" ht="18.75" spans="1:52">
       <c r="A594" s="138"/>
       <c r="B594" s="175"/>
       <c r="C594" s="176"/>
@@ -36089,7 +36106,7 @@
       <c r="AV594" s="174"/>
       <c r="AZ594" s="44"/>
     </row>
-    <row r="595" ht="17.4" spans="1:52">
+    <row r="595" ht="18.75" spans="1:52">
       <c r="A595" s="138"/>
       <c r="B595" s="173"/>
       <c r="C595" s="137"/>
@@ -36123,7 +36140,7 @@
       <c r="AV595" s="18"/>
       <c r="AZ595" s="44"/>
     </row>
-    <row r="596" ht="17.4" spans="1:52">
+    <row r="596" ht="18.75" spans="1:52">
       <c r="A596" s="138"/>
       <c r="B596" s="173"/>
       <c r="C596" s="176"/>
@@ -36157,7 +36174,7 @@
       <c r="AV596" s="174"/>
       <c r="AZ596" s="44"/>
     </row>
-    <row r="597" ht="17.4" spans="1:52">
+    <row r="597" ht="18.75" spans="1:52">
       <c r="A597" s="138"/>
       <c r="C597" s="18"/>
       <c r="E597" s="18"/>
@@ -36190,7 +36207,7 @@
       <c r="AV597" s="18"/>
       <c r="AZ597" s="44"/>
     </row>
-    <row r="598" ht="17.4" spans="1:52">
+    <row r="598" ht="18.75" spans="1:52">
       <c r="A598" s="138"/>
       <c r="B598" s="5"/>
       <c r="C598" s="102"/>
@@ -36224,7 +36241,7 @@
       <c r="AV598" s="102"/>
       <c r="AZ598" s="44"/>
     </row>
-    <row r="599" ht="17.4" spans="1:52">
+    <row r="599" ht="18.75" spans="1:52">
       <c r="A599" s="138"/>
       <c r="C599" s="18"/>
       <c r="E599" s="102"/>
@@ -36257,7 +36274,7 @@
       <c r="AV599" s="102"/>
       <c r="AZ599" s="44"/>
     </row>
-    <row r="600" ht="17.4" spans="1:52">
+    <row r="600" ht="18.75" spans="1:52">
       <c r="A600" s="138"/>
       <c r="C600" s="18"/>
       <c r="E600" s="102"/>
@@ -36290,7 +36307,7 @@
       <c r="AV600" s="102"/>
       <c r="AZ600" s="44"/>
     </row>
-    <row r="601" ht="17.4" spans="1:52">
+    <row r="601" ht="18.75" spans="1:52">
       <c r="A601" s="138"/>
       <c r="C601" s="18"/>
       <c r="E601" s="102"/>
@@ -36323,7 +36340,7 @@
       <c r="AV601" s="102"/>
       <c r="AZ601" s="44"/>
     </row>
-    <row r="602" ht="17.4" spans="1:52">
+    <row r="602" ht="18.75" spans="1:52">
       <c r="A602" s="138"/>
       <c r="C602" s="18"/>
       <c r="E602" s="178"/>
@@ -36356,7 +36373,7 @@
       <c r="AV602" s="178"/>
       <c r="AZ602" s="44"/>
     </row>
-    <row r="603" ht="17.4" spans="1:52">
+    <row r="603" ht="18.75" spans="1:52">
       <c r="A603" s="138"/>
       <c r="C603" s="18"/>
       <c r="E603" s="38"/>
@@ -36389,7 +36406,7 @@
       <c r="AV603" s="38"/>
       <c r="AZ603" s="44"/>
     </row>
-    <row r="604" ht="17.4" spans="1:52">
+    <row r="604" ht="18.75" spans="1:52">
       <c r="A604" s="138"/>
       <c r="C604" s="18"/>
       <c r="E604" s="136"/>
@@ -36422,7 +36439,7 @@
       <c r="AV604" s="136"/>
       <c r="AZ604" s="44"/>
     </row>
-    <row r="605" ht="17.4" spans="1:52">
+    <row r="605" ht="18.75" spans="1:52">
       <c r="A605" s="138"/>
       <c r="C605" s="18"/>
       <c r="E605" s="136"/>
@@ -36455,7 +36472,7 @@
       <c r="AV605" s="136"/>
       <c r="AZ605" s="44"/>
     </row>
-    <row r="606" ht="17.4" spans="1:52">
+    <row r="606" ht="18.75" spans="1:52">
       <c r="A606" s="138"/>
       <c r="C606" s="18"/>
       <c r="E606" s="136"/>
@@ -36488,7 +36505,7 @@
       <c r="AV606" s="136"/>
       <c r="AZ606" s="44"/>
     </row>
-    <row r="607" ht="17.4" spans="1:52">
+    <row r="607" ht="18.75" spans="1:52">
       <c r="A607" s="138"/>
       <c r="C607" s="18"/>
       <c r="E607" s="136"/>
@@ -36521,7 +36538,7 @@
       <c r="AV607" s="136"/>
       <c r="AZ607" s="44"/>
     </row>
-    <row r="608" ht="17.4" spans="1:52">
+    <row r="608" ht="18.75" spans="1:52">
       <c r="A608" s="138"/>
       <c r="C608" s="18"/>
       <c r="E608" s="136"/>
@@ -36554,7 +36571,7 @@
       <c r="AV608" s="136"/>
       <c r="AZ608" s="44"/>
     </row>
-    <row r="609" ht="17.4" spans="1:52">
+    <row r="609" ht="18.75" spans="1:52">
       <c r="A609" s="138"/>
       <c r="C609" s="18"/>
       <c r="E609" s="136"/>
@@ -36587,7 +36604,7 @@
       <c r="AV609" s="136"/>
       <c r="AZ609" s="44"/>
     </row>
-    <row r="610" ht="17.4" spans="1:52">
+    <row r="610" ht="18.75" spans="1:52">
       <c r="A610" s="138"/>
       <c r="C610" s="18"/>
       <c r="E610" s="136"/>
@@ -36620,7 +36637,7 @@
       <c r="AV610" s="136"/>
       <c r="AZ610" s="44"/>
     </row>
-    <row r="611" ht="17.4" spans="1:52">
+    <row r="611" ht="18.75" spans="1:52">
       <c r="A611" s="138"/>
       <c r="C611" s="18"/>
       <c r="E611" s="136"/>
@@ -36653,7 +36670,7 @@
       <c r="AV611" s="136"/>
       <c r="AZ611" s="44"/>
     </row>
-    <row r="612" ht="17.4" spans="1:52">
+    <row r="612" ht="18.75" spans="1:52">
       <c r="A612" s="138"/>
       <c r="C612" s="18"/>
       <c r="E612" s="136"/>
@@ -36686,7 +36703,7 @@
       <c r="AV612" s="136"/>
       <c r="AZ612" s="44"/>
     </row>
-    <row r="613" ht="17.4" spans="1:52">
+    <row r="613" ht="18.75" spans="1:52">
       <c r="A613" s="138"/>
       <c r="C613" s="18"/>
       <c r="E613" s="136"/>
@@ -36719,7 +36736,7 @@
       <c r="AV613" s="136"/>
       <c r="AZ613" s="44"/>
     </row>
-    <row r="614" ht="17.4" spans="1:52">
+    <row r="614" ht="18.75" spans="1:52">
       <c r="A614" s="138"/>
       <c r="C614" s="18"/>
       <c r="E614" s="136"/>
@@ -36752,7 +36769,7 @@
       <c r="AV614" s="136"/>
       <c r="AZ614" s="44"/>
     </row>
-    <row r="615" ht="17.4" spans="1:52">
+    <row r="615" ht="18.75" spans="1:52">
       <c r="A615" s="138"/>
       <c r="C615" s="18"/>
       <c r="E615" s="136"/>
@@ -36785,7 +36802,7 @@
       <c r="AV615" s="136"/>
       <c r="AZ615" s="136"/>
     </row>
-    <row r="616" ht="17.4" spans="1:52">
+    <row r="616" ht="18.75" spans="1:52">
       <c r="A616" s="138"/>
       <c r="C616" s="18"/>
       <c r="E616" s="136"/>
@@ -36818,7 +36835,7 @@
       <c r="AV616" s="136"/>
       <c r="AZ616" s="44"/>
     </row>
-    <row r="617" ht="17.4" spans="1:52">
+    <row r="617" ht="18.75" spans="1:52">
       <c r="A617" s="138"/>
       <c r="C617" s="18"/>
       <c r="E617" s="136"/>
@@ -36851,7 +36868,7 @@
       <c r="AV617" s="136"/>
       <c r="AZ617" s="44"/>
     </row>
-    <row r="618" ht="17.4" spans="1:52">
+    <row r="618" ht="18.75" spans="1:52">
       <c r="A618" s="138"/>
       <c r="C618" s="18"/>
       <c r="E618" s="136"/>
@@ -36884,7 +36901,7 @@
       <c r="AV618" s="136"/>
       <c r="AZ618" s="156"/>
     </row>
-    <row r="619" ht="17.4" spans="1:52">
+    <row r="619" ht="18.75" spans="1:52">
       <c r="A619" s="138"/>
       <c r="C619" s="18"/>
       <c r="E619" s="136"/>
@@ -36917,7 +36934,7 @@
       <c r="AV619" s="136"/>
       <c r="AZ619" s="44"/>
     </row>
-    <row r="620" ht="17.4" spans="1:52">
+    <row r="620" ht="18.75" spans="1:52">
       <c r="A620" s="138"/>
       <c r="C620" s="18"/>
       <c r="E620" s="136"/>
@@ -36950,7 +36967,7 @@
       <c r="AV620" s="136"/>
       <c r="AZ620" s="44"/>
     </row>
-    <row r="621" ht="17.4" spans="1:52">
+    <row r="621" ht="18.75" spans="1:52">
       <c r="A621" s="138"/>
       <c r="C621" s="18"/>
       <c r="E621" s="182"/>
@@ -36983,7 +37000,7 @@
       <c r="AV621" s="182"/>
       <c r="AZ621" s="44"/>
     </row>
-    <row r="622" ht="17.4" spans="1:52">
+    <row r="622" ht="18.75" spans="1:52">
       <c r="A622" s="138"/>
       <c r="C622" s="18"/>
       <c r="E622" s="18"/>
@@ -37016,7 +37033,7 @@
       <c r="AV622" s="18"/>
       <c r="AZ622" s="44"/>
     </row>
-    <row r="623" ht="17.4" spans="1:52">
+    <row r="623" ht="18.75" spans="1:52">
       <c r="A623" s="138"/>
       <c r="C623" s="18"/>
       <c r="E623" s="102"/>
@@ -37049,7 +37066,7 @@
       <c r="AV623" s="102"/>
       <c r="AZ623" s="44"/>
     </row>
-    <row r="624" ht="17.4" spans="1:52">
+    <row r="624" ht="18.75" spans="1:52">
       <c r="A624" s="138"/>
       <c r="C624" s="18"/>
       <c r="E624" s="102"/>
@@ -37082,7 +37099,7 @@
       <c r="AV624" s="102"/>
       <c r="AZ624" s="44"/>
     </row>
-    <row r="625" ht="17.4" spans="1:52">
+    <row r="625" ht="18.75" spans="1:52">
       <c r="A625" s="138"/>
       <c r="C625" s="89"/>
       <c r="E625" s="184"/>
@@ -37115,7 +37132,7 @@
       <c r="AV625" s="184"/>
       <c r="AZ625" s="44"/>
     </row>
-    <row r="626" ht="17.4" spans="1:52">
+    <row r="626" ht="18.75" spans="1:52">
       <c r="A626" s="138"/>
       <c r="B626" s="5"/>
       <c r="C626" s="18"/>
@@ -37149,7 +37166,7 @@
       <c r="AV626" s="18"/>
       <c r="AZ626" s="44"/>
     </row>
-    <row r="627" ht="17.4" spans="1:52">
+    <row r="627" ht="18.75" spans="1:52">
       <c r="A627" s="138"/>
       <c r="C627" s="18"/>
       <c r="E627" s="18"/>
@@ -37182,7 +37199,7 @@
       <c r="AV627" s="18"/>
       <c r="AZ627" s="44"/>
     </row>
-    <row r="628" ht="17.4" spans="1:52">
+    <row r="628" ht="18.75" spans="1:52">
       <c r="A628" s="138"/>
       <c r="C628" s="18"/>
       <c r="E628" s="18"/>
@@ -37215,7 +37232,7 @@
       <c r="AV628" s="18"/>
       <c r="AZ628" s="44"/>
     </row>
-    <row r="629" ht="17.4" spans="1:52">
+    <row r="629" ht="18.75" spans="1:52">
       <c r="A629" s="138"/>
       <c r="C629" s="18"/>
       <c r="E629" s="18"/>
@@ -37248,7 +37265,7 @@
       <c r="AV629" s="18"/>
       <c r="AZ629" s="44"/>
     </row>
-    <row r="630" ht="17.4" spans="1:52">
+    <row r="630" ht="18.75" spans="1:52">
       <c r="A630" s="138"/>
       <c r="C630" s="186"/>
       <c r="E630" s="137"/>
@@ -37281,7 +37298,7 @@
       <c r="AV630" s="137"/>
       <c r="AZ630" s="44"/>
     </row>
-    <row r="631" ht="17.4" spans="1:52">
+    <row r="631" ht="18.75" spans="1:52">
       <c r="A631" s="138"/>
       <c r="C631" s="186"/>
       <c r="E631" s="137"/>
@@ -37314,7 +37331,7 @@
       <c r="AV631" s="137"/>
       <c r="AZ631" s="44"/>
     </row>
-    <row r="632" ht="17.4" spans="1:52">
+    <row r="632" ht="18.75" spans="1:52">
       <c r="A632" s="138"/>
       <c r="C632" s="186"/>
       <c r="E632" s="137"/>
@@ -37347,7 +37364,7 @@
       <c r="AV632" s="137"/>
       <c r="AZ632" s="44"/>
     </row>
-    <row r="633" ht="17.4" spans="1:52">
+    <row r="633" ht="18.75" spans="1:52">
       <c r="A633" s="138"/>
       <c r="C633" s="186"/>
       <c r="E633" s="137"/>
@@ -37380,7 +37397,7 @@
       <c r="AV633" s="137"/>
       <c r="AZ633" s="44"/>
     </row>
-    <row r="634" ht="17.4" spans="1:52">
+    <row r="634" ht="18.75" spans="1:52">
       <c r="A634" s="138"/>
       <c r="B634" s="5"/>
       <c r="C634" s="187"/>
@@ -37414,7 +37431,7 @@
       <c r="AV634" s="205"/>
       <c r="AZ634" s="44"/>
     </row>
-    <row r="635" ht="17.4" spans="1:52">
+    <row r="635" ht="18.75" spans="1:52">
       <c r="A635" s="138"/>
       <c r="B635" s="5"/>
       <c r="C635" s="189"/>
@@ -37448,7 +37465,7 @@
       <c r="AV635" s="137"/>
       <c r="AZ635" s="44"/>
     </row>
-    <row r="636" ht="17.4" spans="1:52">
+    <row r="636" ht="18.75" spans="1:52">
       <c r="A636" s="138"/>
       <c r="C636" s="189"/>
       <c r="E636" s="189"/>
@@ -37481,7 +37498,7 @@
       <c r="AV636" s="137"/>
       <c r="AZ636" s="44"/>
     </row>
-    <row r="637" ht="17.4" spans="1:52">
+    <row r="637" ht="18.75" spans="1:52">
       <c r="A637" s="138"/>
       <c r="C637" s="189"/>
       <c r="E637" s="189"/>
@@ -37514,7 +37531,7 @@
       <c r="AV637" s="137"/>
       <c r="AZ637" s="44"/>
     </row>
-    <row r="638" ht="17.4" spans="1:52">
+    <row r="638" ht="18.75" spans="1:52">
       <c r="A638" s="138"/>
       <c r="C638" s="187"/>
       <c r="E638" s="89"/>
@@ -37547,7 +37564,7 @@
       <c r="AV638" s="176"/>
       <c r="AZ638" s="44"/>
     </row>
-    <row r="639" ht="17.4" spans="1:52">
+    <row r="639" ht="18.75" spans="1:52">
       <c r="A639" s="138"/>
       <c r="C639" s="174"/>
       <c r="E639" s="192"/>
@@ -37580,7 +37597,7 @@
       <c r="AV639" s="193"/>
       <c r="AZ639" s="44"/>
     </row>
-    <row r="640" ht="17.4" spans="1:52">
+    <row r="640" ht="18.75" spans="1:52">
       <c r="A640" s="138"/>
       <c r="C640" s="174"/>
       <c r="E640" s="192"/>
@@ -37613,7 +37630,7 @@
       <c r="AV640" s="193"/>
       <c r="AZ640" s="192"/>
     </row>
-    <row r="641" ht="17.4" spans="1:52">
+    <row r="641" ht="18.75" spans="1:52">
       <c r="A641" s="138"/>
       <c r="C641" s="91"/>
       <c r="E641" s="192"/>
@@ -37646,7 +37663,7 @@
       <c r="AV641" s="193"/>
       <c r="AZ641" s="44"/>
     </row>
-    <row r="642" ht="17.4" spans="1:52">
+    <row r="642" ht="18.75" spans="1:52">
       <c r="A642" s="138"/>
       <c r="C642" s="174"/>
       <c r="E642" s="192"/>
@@ -37679,7 +37696,7 @@
       <c r="AV642" s="193"/>
       <c r="AZ642" s="44"/>
     </row>
-    <row r="643" ht="17.4" spans="1:52">
+    <row r="643" ht="18.75" spans="1:52">
       <c r="A643" s="138"/>
       <c r="C643" s="89"/>
       <c r="E643" s="89"/>
@@ -37712,7 +37729,7 @@
       <c r="AV643" s="89"/>
       <c r="AZ643" s="44"/>
     </row>
-    <row r="644" ht="17.4" spans="1:52">
+    <row r="644" ht="18.75" spans="1:52">
       <c r="A644" s="138"/>
       <c r="C644" s="89"/>
       <c r="E644" s="192"/>
@@ -37745,7 +37762,7 @@
       <c r="AV644" s="193"/>
       <c r="AZ644" s="44"/>
     </row>
-    <row r="645" ht="17.4" spans="1:52">
+    <row r="645" ht="18.75" spans="1:52">
       <c r="A645" s="138"/>
       <c r="C645" s="206"/>
       <c r="E645" s="192"/>
@@ -37778,7 +37795,7 @@
       <c r="AV645" s="193"/>
       <c r="AZ645" s="192"/>
     </row>
-    <row r="646" ht="17.4" spans="1:52">
+    <row r="646" ht="18.75" spans="1:52">
       <c r="A646" s="138"/>
       <c r="C646" s="207"/>
       <c r="E646" s="89"/>
@@ -37811,7 +37828,7 @@
       <c r="AV646" s="89"/>
       <c r="AZ646" s="89"/>
     </row>
-    <row r="647" ht="17.4" spans="1:52">
+    <row r="647" ht="18.75" spans="1:52">
       <c r="A647" s="138"/>
       <c r="C647" s="97"/>
       <c r="E647" s="97"/>
@@ -37844,7 +37861,7 @@
       <c r="AV647" s="97"/>
       <c r="AZ647" s="44"/>
     </row>
-    <row r="648" ht="17.4" spans="1:52">
+    <row r="648" ht="18.75" spans="1:52">
       <c r="A648" s="138"/>
       <c r="C648" s="97"/>
       <c r="E648" s="97"/>
@@ -37877,7 +37894,7 @@
       <c r="AV648" s="97"/>
       <c r="AZ648" s="44"/>
     </row>
-    <row r="649" ht="17.4" spans="1:52">
+    <row r="649" ht="18.75" spans="1:52">
       <c r="A649" s="138"/>
       <c r="C649" s="208"/>
       <c r="E649" s="209"/>
@@ -37910,7 +37927,7 @@
       <c r="AV649" s="209"/>
       <c r="AZ649" s="44"/>
     </row>
-    <row r="650" ht="17.4" spans="1:52">
+    <row r="650" ht="18.75" spans="1:52">
       <c r="A650" s="138"/>
       <c r="C650" s="208"/>
       <c r="E650" s="209"/>
@@ -37943,7 +37960,7 @@
       <c r="AV650" s="209"/>
       <c r="AZ650" s="45"/>
     </row>
-    <row r="651" ht="17.4" spans="1:52">
+    <row r="651" ht="18.75" spans="1:52">
       <c r="A651" s="138"/>
       <c r="C651" s="208"/>
       <c r="E651" s="209"/>
@@ -37976,7 +37993,7 @@
       <c r="AV651" s="209"/>
       <c r="AZ651" s="45"/>
     </row>
-    <row r="652" ht="17.4" spans="1:52">
+    <row r="652" ht="18.75" spans="1:52">
       <c r="A652" s="138"/>
       <c r="C652" s="208"/>
       <c r="E652" s="209"/>
@@ -38009,7 +38026,7 @@
       <c r="AV652" s="209"/>
       <c r="AZ652" s="44"/>
     </row>
-    <row r="653" ht="17.4" spans="1:52">
+    <row r="653" ht="18.75" spans="1:52">
       <c r="A653" s="138"/>
       <c r="C653" s="208"/>
       <c r="E653" s="209"/>
@@ -38042,7 +38059,7 @@
       <c r="AV653" s="209"/>
       <c r="AZ653" s="44"/>
     </row>
-    <row r="654" ht="17.4" spans="1:52">
+    <row r="654" ht="18.75" spans="1:52">
       <c r="A654" s="138"/>
       <c r="C654" s="208"/>
       <c r="E654" s="209"/>
@@ -38075,7 +38092,7 @@
       <c r="AV654" s="209"/>
       <c r="AZ654" s="44"/>
     </row>
-    <row r="655" ht="17.4" spans="1:52">
+    <row r="655" ht="18.75" spans="1:52">
       <c r="A655" s="138"/>
       <c r="C655" s="208"/>
       <c r="E655" s="209"/>
@@ -38108,7 +38125,7 @@
       <c r="AV655" s="209"/>
       <c r="AZ655" s="44"/>
     </row>
-    <row r="656" ht="17.4" spans="1:52">
+    <row r="656" ht="18.75" spans="1:52">
       <c r="A656" s="138"/>
       <c r="C656" s="208"/>
       <c r="E656" s="209"/>
@@ -38141,7 +38158,7 @@
       <c r="AV656" s="209"/>
       <c r="AZ656" s="44"/>
     </row>
-    <row r="657" ht="17.4" spans="1:52">
+    <row r="657" ht="18.75" spans="1:52">
       <c r="A657" s="138"/>
       <c r="C657" s="208"/>
       <c r="E657" s="209"/>
@@ -38174,7 +38191,7 @@
       <c r="AV657" s="209"/>
       <c r="AZ657" s="44"/>
     </row>
-    <row r="658" ht="17.4" spans="1:52">
+    <row r="658" ht="18.75" spans="1:52">
       <c r="A658" s="138"/>
       <c r="C658" s="208"/>
       <c r="E658" s="209"/>
@@ -38207,7 +38224,7 @@
       <c r="AV658" s="209"/>
       <c r="AZ658" s="44"/>
     </row>
-    <row r="659" ht="17.4" spans="1:52">
+    <row r="659" ht="18.75" spans="1:52">
       <c r="A659" s="138"/>
       <c r="C659" s="208"/>
       <c r="E659" s="209"/>
@@ -38240,7 +38257,7 @@
       <c r="AV659" s="209"/>
       <c r="AZ659" s="44"/>
     </row>
-    <row r="660" ht="17.4" spans="1:52">
+    <row r="660" ht="18.75" spans="1:52">
       <c r="A660" s="138"/>
       <c r="C660" s="210"/>
       <c r="E660" s="205"/>
@@ -38273,7 +38290,7 @@
       <c r="AV660" s="205"/>
       <c r="AZ660" s="44"/>
     </row>
-    <row r="661" ht="17.4" spans="1:52">
+    <row r="661" ht="18.75" spans="1:52">
       <c r="A661" s="138"/>
       <c r="C661" s="18"/>
       <c r="E661" s="18"/>
@@ -38306,7 +38323,7 @@
       <c r="AV661" s="18"/>
       <c r="AZ661" s="44"/>
     </row>
-    <row r="662" ht="17.4" spans="1:52">
+    <row r="662" ht="18.75" spans="1:52">
       <c r="A662" s="138"/>
       <c r="C662" s="89"/>
       <c r="E662" s="187"/>
@@ -38339,7 +38356,7 @@
       <c r="AV662" s="174"/>
       <c r="AZ662" s="18"/>
     </row>
-    <row r="663" ht="17.4" spans="1:52">
+    <row r="663" ht="18.75" spans="1:52">
       <c r="A663" s="138"/>
       <c r="C663" s="18"/>
       <c r="E663" s="18"/>
@@ -38372,7 +38389,7 @@
       <c r="AV663" s="18"/>
       <c r="AZ663" s="44"/>
     </row>
-    <row r="664" ht="17.4" spans="1:52">
+    <row r="664" ht="18.75" spans="1:52">
       <c r="A664" s="138"/>
       <c r="C664" s="186"/>
       <c r="E664" s="137"/>
@@ -38405,7 +38422,7 @@
       <c r="AV664" s="137"/>
       <c r="AZ664" s="137"/>
     </row>
-    <row r="665" ht="17.4" spans="1:52">
+    <row r="665" ht="18.75" spans="1:52">
       <c r="A665" s="138"/>
       <c r="C665" s="186"/>
       <c r="E665" s="137"/>
@@ -38438,7 +38455,7 @@
       <c r="AV665" s="137"/>
       <c r="AZ665" s="137"/>
     </row>
-    <row r="666" ht="17.4" spans="1:52">
+    <row r="666" ht="18.75" spans="1:52">
       <c r="A666" s="138"/>
       <c r="C666" s="186"/>
       <c r="E666" s="137"/>
@@ -38471,7 +38488,7 @@
       <c r="AV666" s="137"/>
       <c r="AZ666" s="44"/>
     </row>
-    <row r="667" ht="17.4" spans="1:52">
+    <row r="667" ht="18.75" spans="1:52">
       <c r="A667" s="138"/>
       <c r="C667" s="186"/>
       <c r="E667" s="137"/>
@@ -38504,7 +38521,7 @@
       <c r="AV667" s="137"/>
       <c r="AZ667" s="44"/>
     </row>
-    <row r="668" ht="17.4" spans="1:52">
+    <row r="668" ht="18.75" spans="1:52">
       <c r="A668" s="138"/>
       <c r="C668" s="186"/>
       <c r="E668" s="137"/>
@@ -38537,7 +38554,7 @@
       <c r="AV668" s="137"/>
       <c r="AZ668" s="137"/>
     </row>
-    <row r="669" ht="17.4" spans="1:52">
+    <row r="669" ht="18.75" spans="1:52">
       <c r="A669" s="138"/>
       <c r="C669" s="186"/>
       <c r="E669" s="137"/>
@@ -38570,7 +38587,7 @@
       <c r="AV669" s="137"/>
       <c r="AZ669" s="44"/>
     </row>
-    <row r="670" ht="17.4" spans="1:52">
+    <row r="670" ht="18.75" spans="1:52">
       <c r="A670" s="138"/>
       <c r="C670" s="186"/>
       <c r="E670" s="74"/>
@@ -38603,7 +38620,7 @@
       <c r="AV670" s="74"/>
       <c r="AZ670" s="74"/>
     </row>
-    <row r="671" ht="17.4" spans="1:52">
+    <row r="671" ht="18.75" spans="1:52">
       <c r="A671" s="138"/>
       <c r="C671" s="186"/>
       <c r="E671" s="74"/>
@@ -38636,7 +38653,7 @@
       <c r="AV671" s="74"/>
       <c r="AZ671" s="74"/>
     </row>
-    <row r="672" ht="17.4" spans="1:52">
+    <row r="672" ht="18.75" spans="1:52">
       <c r="A672" s="138"/>
       <c r="C672" s="186"/>
       <c r="E672" s="137"/>
@@ -38669,7 +38686,7 @@
       <c r="AV672" s="137"/>
       <c r="AZ672" s="44"/>
     </row>
-    <row r="673" ht="17.4" spans="1:52">
+    <row r="673" ht="18.75" spans="1:52">
       <c r="A673" s="138"/>
       <c r="C673" s="186"/>
       <c r="E673" s="137"/>
@@ -38702,7 +38719,7 @@
       <c r="AV673" s="137"/>
       <c r="AZ673" s="137"/>
     </row>
-    <row r="674" ht="17.4" spans="1:52">
+    <row r="674" ht="18.75" spans="1:52">
       <c r="A674" s="138"/>
       <c r="C674" s="186"/>
       <c r="E674" s="171"/>
@@ -38735,7 +38752,7 @@
       <c r="AV674" s="171"/>
       <c r="AZ674" s="171"/>
     </row>
-    <row r="675" ht="17.4" spans="1:52">
+    <row r="675" ht="18.75" spans="1:52">
       <c r="A675" s="138"/>
       <c r="C675" s="186"/>
       <c r="E675" s="137"/>
@@ -38768,7 +38785,7 @@
       <c r="AV675" s="137"/>
       <c r="AZ675" s="44"/>
     </row>
-    <row r="676" ht="17.4" spans="1:52">
+    <row r="676" ht="18.75" spans="1:52">
       <c r="A676" s="138"/>
       <c r="C676" s="186"/>
       <c r="E676" s="137"/>
@@ -38801,7 +38818,7 @@
       <c r="AV676" s="137"/>
       <c r="AZ676" s="137"/>
     </row>
-    <row r="677" ht="17.4" spans="1:52">
+    <row r="677" ht="18.75" spans="1:52">
       <c r="A677" s="138"/>
       <c r="C677" s="186"/>
       <c r="E677" s="137"/>
@@ -38834,7 +38851,7 @@
       <c r="AV677" s="137"/>
       <c r="AZ677" s="44"/>
     </row>
-    <row r="678" ht="17.4" spans="1:52">
+    <row r="678" ht="18.75" spans="1:52">
       <c r="A678" s="138"/>
       <c r="C678" s="186"/>
       <c r="E678" s="137"/>
@@ -38867,7 +38884,7 @@
       <c r="AV678" s="137"/>
       <c r="AZ678" s="44"/>
     </row>
-    <row r="679" ht="17.4" spans="1:52">
+    <row r="679" ht="18.75" spans="1:52">
       <c r="A679" s="138"/>
       <c r="C679" s="186"/>
       <c r="E679" s="74"/>
@@ -38900,7 +38917,7 @@
       <c r="AV679" s="74"/>
       <c r="AZ679" s="44"/>
     </row>
-    <row r="680" ht="17.4" spans="1:52">
+    <row r="680" ht="18.75" spans="1:52">
       <c r="A680" s="138"/>
       <c r="C680" s="187"/>
       <c r="E680" s="176"/>
@@ -38933,7 +38950,7 @@
       <c r="AV680" s="176"/>
       <c r="AZ680" s="44"/>
     </row>
-    <row r="681" ht="17.4" spans="1:52">
+    <row r="681" ht="18.75" spans="1:52">
       <c r="A681" s="138"/>
       <c r="C681" s="186"/>
       <c r="E681" s="186"/>
@@ -38966,7 +38983,7 @@
       <c r="AV681" s="211"/>
       <c r="AZ681" s="186"/>
     </row>
-    <row r="682" ht="17.4" spans="1:52">
+    <row r="682" ht="18.75" spans="1:52">
       <c r="A682" s="138"/>
       <c r="C682" s="187"/>
       <c r="E682" s="212"/>
@@ -38999,7 +39016,7 @@
       <c r="AV682" s="213"/>
       <c r="AZ682" s="44"/>
     </row>
-    <row r="683" ht="17.4" spans="1:52">
+    <row r="683" ht="18.75" spans="1:52">
       <c r="A683" s="138"/>
       <c r="C683" s="187"/>
       <c r="E683" s="212"/>
@@ -39032,7 +39049,7 @@
       <c r="AV683" s="212"/>
       <c r="AZ683" s="212"/>
     </row>
-    <row r="684" ht="18" spans="1:52">
+    <row r="684" ht="18.75" spans="1:52">
       <c r="A684" s="138"/>
       <c r="C684" s="214"/>
       <c r="E684" s="215"/>
@@ -39065,7 +39082,7 @@
       <c r="AV684" s="215"/>
       <c r="AZ684" s="44"/>
     </row>
-    <row r="685" ht="18" spans="1:52">
+    <row r="685" ht="18.75" spans="1:52">
       <c r="A685" s="138"/>
       <c r="C685" s="214"/>
       <c r="E685" s="215"/>
@@ -39102,7 +39119,7 @@
       <c r="P686" s="220"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA270" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA271" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="10668" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$278</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="875">
   <si>
     <t>界面编号</t>
   </si>
@@ -3153,6 +3153,51 @@
   <si>
     <t>Blood oxygen saturation</t>
   </si>
+  <si>
+    <t>宫格</t>
+  </si>
+  <si>
+    <t>STR_GONG_GE</t>
+  </si>
+  <si>
+    <t>Gong Ge</t>
+  </si>
+  <si>
+    <t>球体</t>
+  </si>
+  <si>
+    <t>STR_SPHERE</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>棋盘</t>
+  </si>
+  <si>
+    <t>STR_CHECKERBOARD</t>
+  </si>
+  <si>
+    <t>checkerboard</t>
+  </si>
+  <si>
+    <t>光环</t>
+  </si>
+  <si>
+    <t>STR_HALO</t>
+  </si>
+  <si>
+    <t>halo</t>
+  </si>
+  <si>
+    <t>六宫格</t>
+  </si>
+  <si>
+    <t>STR_SIX_PALACE_GRID</t>
+  </si>
+  <si>
+    <t>Six Palace Grid</t>
+  </si>
 </sst>
 </file>
 
@@ -3164,7 +3209,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="70">
+  <fonts count="71">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -3374,6 +3419,12 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4331,31 +4382,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="50" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4364,115 +4412,118 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="67" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4798,8 +4849,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4822,7 +4873,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4838,7 +4889,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4853,7 +4904,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4862,22 +4913,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4898,7 +4949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4931,16 +4982,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4972,13 +5023,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5071,13 +5122,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5116,7 +5167,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5467,15 +5518,15 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F270" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F276" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B279" sqref="B279"/>
+      <selection pane="bottomRight" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
     <col min="2" max="2" width="18" style="5" customWidth="1"/>
@@ -5512,15 +5563,15 @@
     <col min="36" max="36" width="10" style="5"/>
     <col min="37" max="37" width="25.6666666666667" style="5" customWidth="1"/>
     <col min="38" max="38" width="10" style="5"/>
-    <col min="39" max="39" width="16.4416666666667" style="5" customWidth="1"/>
+    <col min="39" max="39" width="16.4444444444444" style="5" customWidth="1"/>
     <col min="40" max="43" width="10" style="5"/>
-    <col min="44" max="44" width="25.4416666666667" style="5" customWidth="1"/>
+    <col min="44" max="44" width="25.4444444444444" style="5" customWidth="1"/>
     <col min="45" max="47" width="10" style="5"/>
     <col min="48" max="48" width="49" style="5" customWidth="1"/>
     <col min="49" max="49" width="45.6666666666667" style="5" customWidth="1"/>
-    <col min="50" max="50" width="62.5583333333333" style="5" customWidth="1"/>
+    <col min="50" max="50" width="62.5555555555556" style="5" customWidth="1"/>
     <col min="51" max="51" width="10" style="5"/>
-    <col min="52" max="52" width="35.775" style="5" customWidth="1"/>
+    <col min="52" max="52" width="35.7777777777778" style="5" customWidth="1"/>
     <col min="53" max="16384" width="10" style="5"/>
   </cols>
   <sheetData>
@@ -7264,7 +7315,7 @@
       <c r="AV28" s="18"/>
       <c r="AZ28" s="45"/>
     </row>
-    <row r="29" ht="18.75" spans="1:52">
+    <row r="29" ht="18" spans="1:52">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -7323,7 +7374,7 @@
       <c r="AV29" s="18"/>
       <c r="AZ29" s="45"/>
     </row>
-    <row r="30" ht="18.75" spans="1:52">
+    <row r="30" ht="18" spans="1:52">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -7382,7 +7433,7 @@
       <c r="AV30" s="18"/>
       <c r="AZ30" s="44"/>
     </row>
-    <row r="31" ht="18.75" spans="1:52">
+    <row r="31" ht="18" spans="1:52">
       <c r="A31" s="12">
         <v>29</v>
       </c>
@@ -7500,7 +7551,7 @@
       <c r="AV32" s="18"/>
       <c r="AZ32" s="44"/>
     </row>
-    <row r="33" ht="18.75" spans="1:52">
+    <row r="33" ht="18" spans="1:52">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -7559,7 +7610,7 @@
       <c r="AV33" s="18"/>
       <c r="AZ33" s="45"/>
     </row>
-    <row r="34" ht="18.75" spans="1:52">
+    <row r="34" ht="18" spans="1:52">
       <c r="A34" s="12">
         <v>32</v>
       </c>
@@ -7618,7 +7669,7 @@
       <c r="AV34" s="18"/>
       <c r="AZ34" s="45"/>
     </row>
-    <row r="35" ht="18.75" spans="1:52">
+    <row r="35" ht="18" spans="1:52">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -7677,7 +7728,7 @@
       <c r="AV35" s="18"/>
       <c r="AZ35" s="18"/>
     </row>
-    <row r="36" ht="18.75" spans="1:52">
+    <row r="36" ht="18" spans="1:52">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -10509,7 +10560,7 @@
       <c r="AV83" s="18"/>
       <c r="AZ83" s="44"/>
     </row>
-    <row r="84" ht="18.75" spans="1:52">
+    <row r="84" ht="18" spans="1:52">
       <c r="A84" s="12">
         <v>82</v>
       </c>
@@ -10568,7 +10619,7 @@
       <c r="AV84" s="18"/>
       <c r="AZ84" s="44"/>
     </row>
-    <row r="85" ht="18.75" spans="1:52">
+    <row r="85" ht="18" spans="1:52">
       <c r="A85" s="12">
         <v>83</v>
       </c>
@@ -12220,7 +12271,7 @@
       <c r="AV112" s="64"/>
       <c r="AZ112" s="45"/>
     </row>
-    <row r="113" ht="18.75" spans="1:52">
+    <row r="113" ht="18" spans="1:52">
       <c r="A113" s="12">
         <v>111</v>
       </c>
@@ -12279,7 +12330,7 @@
       <c r="AV113" s="64"/>
       <c r="AZ113" s="45"/>
     </row>
-    <row r="114" ht="18.75" spans="1:52">
+    <row r="114" ht="18" spans="1:52">
       <c r="A114" s="12">
         <v>112</v>
       </c>
@@ -22020,12 +22071,20 @@
       <c r="AV278" s="18"/>
       <c r="AZ278" s="44"/>
     </row>
-    <row r="279" ht="105" customHeight="1" spans="1:52">
-      <c r="A279" s="12"/>
+    <row r="279" ht="32" customHeight="1" spans="1:52">
+      <c r="A279" s="12">
+        <v>277</v>
+      </c>
       <c r="B279" s="50"/>
-      <c r="C279" s="89"/>
-      <c r="D279" s="107"/>
-      <c r="E279" s="89"/>
+      <c r="C279" s="89" t="s">
+        <v>860</v>
+      </c>
+      <c r="D279" s="107" t="s">
+        <v>861</v>
+      </c>
+      <c r="E279" s="89" t="s">
+        <v>862</v>
+      </c>
       <c r="F279" s="88"/>
       <c r="G279" s="89"/>
       <c r="H279" s="89"/>
@@ -22071,12 +22130,20 @@
       <c r="AV279" s="89"/>
       <c r="AZ279" s="44"/>
     </row>
-    <row r="280" ht="69.75" customHeight="1" spans="1:52">
-      <c r="A280" s="12"/>
+    <row r="280" ht="27" customHeight="1" spans="1:52">
+      <c r="A280" s="12">
+        <v>278</v>
+      </c>
       <c r="B280" s="108"/>
-      <c r="C280" s="82"/>
-      <c r="D280" s="106"/>
-      <c r="E280" s="82"/>
+      <c r="C280" s="82" t="s">
+        <v>863</v>
+      </c>
+      <c r="D280" s="107" t="s">
+        <v>864</v>
+      </c>
+      <c r="E280" s="82" t="s">
+        <v>865</v>
+      </c>
       <c r="F280" s="83"/>
       <c r="G280" s="82"/>
       <c r="H280" s="82"/>
@@ -22122,12 +22189,20 @@
       <c r="AV280" s="82"/>
       <c r="AZ280" s="44"/>
     </row>
-    <row r="281" ht="87.75" customHeight="1" spans="1:52">
-      <c r="A281" s="12"/>
+    <row r="281" ht="22" customHeight="1" spans="1:52">
+      <c r="A281" s="12">
+        <v>279</v>
+      </c>
       <c r="B281" s="108"/>
-      <c r="C281" s="82"/>
-      <c r="D281" s="106"/>
-      <c r="E281" s="82"/>
+      <c r="C281" s="82" t="s">
+        <v>866</v>
+      </c>
+      <c r="D281" s="107" t="s">
+        <v>867</v>
+      </c>
+      <c r="E281" s="82" t="s">
+        <v>868</v>
+      </c>
       <c r="F281" s="83"/>
       <c r="G281" s="82"/>
       <c r="H281" s="82"/>
@@ -22173,12 +22248,20 @@
       <c r="AV281" s="82"/>
       <c r="AZ281" s="44"/>
     </row>
-    <row r="282" ht="18.75" spans="1:52">
-      <c r="A282" s="12"/>
+    <row r="282" ht="29" customHeight="1" spans="1:52">
+      <c r="A282" s="12">
+        <v>280</v>
+      </c>
       <c r="B282" s="108"/>
-      <c r="C282" s="82"/>
-      <c r="D282" s="106"/>
-      <c r="E282" s="82"/>
+      <c r="C282" s="82" t="s">
+        <v>869</v>
+      </c>
+      <c r="D282" s="107" t="s">
+        <v>870</v>
+      </c>
+      <c r="E282" s="82" t="s">
+        <v>871</v>
+      </c>
       <c r="F282" s="83"/>
       <c r="G282" s="82"/>
       <c r="H282" s="82"/>
@@ -22224,12 +22307,20 @@
       <c r="AV282" s="82"/>
       <c r="AZ282" s="44"/>
     </row>
-    <row r="283" ht="18.75" spans="1:52">
-      <c r="A283" s="12"/>
+    <row r="283" ht="33" customHeight="1" spans="1:52">
+      <c r="A283" s="12">
+        <v>281</v>
+      </c>
       <c r="B283" s="108"/>
-      <c r="C283" s="82"/>
-      <c r="D283" s="106"/>
-      <c r="E283" s="82"/>
+      <c r="C283" s="82" t="s">
+        <v>872</v>
+      </c>
+      <c r="D283" s="107" t="s">
+        <v>873</v>
+      </c>
+      <c r="E283" s="82" t="s">
+        <v>874</v>
+      </c>
       <c r="F283" s="83"/>
       <c r="G283" s="82"/>
       <c r="H283" s="82"/>
@@ -22275,11 +22366,11 @@
       <c r="AV283" s="82"/>
       <c r="AZ283" s="44"/>
     </row>
-    <row r="284" ht="18.75" spans="1:52">
+    <row r="284" ht="17.4" spans="1:52">
       <c r="A284" s="12"/>
       <c r="B284" s="108"/>
       <c r="C284" s="82"/>
-      <c r="D284" s="106"/>
+      <c r="D284" s="105"/>
       <c r="E284" s="82"/>
       <c r="F284" s="83"/>
       <c r="G284" s="82"/>
@@ -22326,11 +22417,10 @@
       <c r="AV284" s="82"/>
       <c r="AZ284" s="44"/>
     </row>
-    <row r="285" ht="18.75" spans="1:52">
+    <row r="285" ht="17.4" spans="1:52">
       <c r="A285" s="12"/>
       <c r="B285" s="108"/>
       <c r="C285" s="82"/>
-      <c r="D285" s="106"/>
       <c r="E285" s="82"/>
       <c r="F285" s="83"/>
       <c r="G285" s="82"/>
@@ -22377,11 +22467,11 @@
       <c r="AV285" s="82"/>
       <c r="AZ285" s="44"/>
     </row>
-    <row r="286" ht="18.75" spans="1:52">
+    <row r="286" ht="17.4" spans="1:52">
       <c r="A286" s="12"/>
       <c r="B286" s="108"/>
       <c r="C286" s="82"/>
-      <c r="D286" s="106"/>
+      <c r="D286" s="105"/>
       <c r="E286" s="82"/>
       <c r="F286" s="83"/>
       <c r="G286" s="82"/>
@@ -22428,11 +22518,10 @@
       <c r="AV286" s="82"/>
       <c r="AZ286" s="18"/>
     </row>
-    <row r="287" ht="18.75" spans="1:52">
+    <row r="287" ht="17.4" spans="1:52">
       <c r="A287" s="12"/>
       <c r="B287" s="108"/>
       <c r="C287" s="82"/>
-      <c r="D287" s="106"/>
       <c r="E287" s="82"/>
       <c r="F287" s="83"/>
       <c r="G287" s="82"/>
@@ -22479,7 +22568,7 @@
       <c r="AV287" s="82"/>
       <c r="AZ287" s="44"/>
     </row>
-    <row r="288" ht="18.75" spans="1:52">
+    <row r="288" ht="17.4" spans="1:52">
       <c r="A288" s="12"/>
       <c r="B288" s="108"/>
       <c r="C288" s="82"/>
@@ -22530,7 +22619,7 @@
       <c r="AV288" s="82"/>
       <c r="AZ288" s="44"/>
     </row>
-    <row r="289" ht="18.75" spans="1:52">
+    <row r="289" ht="17.4" spans="1:52">
       <c r="A289" s="12"/>
       <c r="B289" s="108"/>
       <c r="C289" s="82"/>
@@ -22632,7 +22721,7 @@
       <c r="AV290" s="82"/>
       <c r="AZ290" s="45"/>
     </row>
-    <row r="291" ht="18.75" spans="1:52">
+    <row r="291" ht="17.4" spans="1:52">
       <c r="A291" s="12"/>
       <c r="B291" s="108"/>
       <c r="C291" s="82"/>
@@ -22734,7 +22823,7 @@
       <c r="AV292" s="102"/>
       <c r="AZ292" s="44"/>
     </row>
-    <row r="293" ht="18.75" spans="1:52">
+    <row r="293" ht="17.4" spans="1:52">
       <c r="A293" s="12"/>
       <c r="B293" s="18"/>
       <c r="C293" s="18"/>
@@ -22785,7 +22874,7 @@
       <c r="AV293" s="18"/>
       <c r="AZ293" s="44"/>
     </row>
-    <row r="294" ht="18.75" spans="1:52">
+    <row r="294" ht="17.4" spans="1:52">
       <c r="A294" s="12"/>
       <c r="B294" s="18"/>
       <c r="C294" s="18"/>
@@ -22836,7 +22925,7 @@
       <c r="AV294" s="18"/>
       <c r="AZ294" s="44"/>
     </row>
-    <row r="295" ht="18.75" spans="1:52">
+    <row r="295" ht="17.4" spans="1:52">
       <c r="A295" s="12"/>
       <c r="B295" s="18"/>
       <c r="C295" s="18"/>
@@ -22887,7 +22976,7 @@
       <c r="AV295" s="82"/>
       <c r="AZ295" s="44"/>
     </row>
-    <row r="296" ht="18.75" spans="1:52">
+    <row r="296" ht="17.4" spans="1:52">
       <c r="A296" s="12"/>
       <c r="B296" s="18"/>
       <c r="C296" s="18"/>
@@ -22938,7 +23027,7 @@
       <c r="AV296" s="18"/>
       <c r="AZ296" s="44"/>
     </row>
-    <row r="297" ht="18.75" spans="1:52">
+    <row r="297" ht="17.4" spans="1:52">
       <c r="A297" s="12"/>
       <c r="B297" s="18"/>
       <c r="C297" s="18"/>
@@ -23040,7 +23129,7 @@
       <c r="AV298" s="18"/>
       <c r="AZ298" s="44"/>
     </row>
-    <row r="299" ht="18.75" spans="1:52">
+    <row r="299" ht="17.4" spans="1:52">
       <c r="A299" s="12"/>
       <c r="B299" s="18"/>
       <c r="C299" s="18"/>
@@ -23091,7 +23180,7 @@
       <c r="AV299" s="18"/>
       <c r="AZ299" s="44"/>
     </row>
-    <row r="300" ht="18.75" spans="1:52">
+    <row r="300" ht="17.4" spans="1:52">
       <c r="A300" s="12"/>
       <c r="B300" s="18"/>
       <c r="C300" s="18"/>
@@ -23142,7 +23231,7 @@
       <c r="AV300" s="18"/>
       <c r="AZ300" s="44"/>
     </row>
-    <row r="301" ht="18.75" spans="1:52">
+    <row r="301" ht="17.4" spans="1:52">
       <c r="A301" s="12"/>
       <c r="B301" s="18"/>
       <c r="C301" s="18"/>
@@ -23193,7 +23282,7 @@
       <c r="AV301" s="18"/>
       <c r="AZ301" s="44"/>
     </row>
-    <row r="302" ht="18.75" spans="1:52">
+    <row r="302" ht="17.4" spans="1:52">
       <c r="A302" s="12"/>
       <c r="B302" s="18"/>
       <c r="C302" s="18"/>
@@ -23244,7 +23333,7 @@
       <c r="AV302" s="18"/>
       <c r="AZ302" s="44"/>
     </row>
-    <row r="303" ht="18.75" spans="1:52">
+    <row r="303" ht="17.4" spans="1:52">
       <c r="A303" s="12"/>
       <c r="B303" s="18"/>
       <c r="C303" s="18"/>
@@ -23295,7 +23384,7 @@
       <c r="AV303" s="18"/>
       <c r="AZ303" s="44"/>
     </row>
-    <row r="304" ht="18.75" spans="1:52">
+    <row r="304" ht="17.4" spans="1:52">
       <c r="A304" s="12"/>
       <c r="B304" s="18"/>
       <c r="C304" s="18"/>
@@ -23346,7 +23435,7 @@
       <c r="AV304" s="18"/>
       <c r="AZ304" s="44"/>
     </row>
-    <row r="305" ht="18.75" spans="1:52">
+    <row r="305" ht="17.4" spans="1:52">
       <c r="A305" s="12"/>
       <c r="B305" s="18"/>
       <c r="C305" s="18"/>
@@ -23397,7 +23486,7 @@
       <c r="AV305" s="18"/>
       <c r="AZ305" s="44"/>
     </row>
-    <row r="306" ht="18.75" spans="1:52">
+    <row r="306" ht="18" spans="1:52">
       <c r="A306" s="12"/>
       <c r="B306" s="18"/>
       <c r="C306" s="18"/>
@@ -23448,7 +23537,7 @@
       <c r="AV306" s="18"/>
       <c r="AZ306" s="44"/>
     </row>
-    <row r="307" ht="18.75" spans="1:52">
+    <row r="307" ht="18" spans="1:52">
       <c r="A307" s="12"/>
       <c r="B307" s="18"/>
       <c r="C307" s="18"/>
@@ -23499,7 +23588,7 @@
       <c r="AV307" s="18"/>
       <c r="AZ307" s="44"/>
     </row>
-    <row r="308" ht="18.75" spans="1:52">
+    <row r="308" ht="17.4" spans="1:52">
       <c r="A308" s="12"/>
       <c r="B308" s="18"/>
       <c r="C308" s="18"/>
@@ -23550,7 +23639,7 @@
       <c r="AV308" s="18"/>
       <c r="AZ308" s="44"/>
     </row>
-    <row r="309" ht="18.75" spans="1:52">
+    <row r="309" ht="17.4" spans="1:52">
       <c r="A309" s="12"/>
       <c r="B309" s="18"/>
       <c r="C309" s="18"/>
@@ -23601,7 +23690,7 @@
       <c r="AV309" s="18"/>
       <c r="AZ309" s="44"/>
     </row>
-    <row r="310" ht="18.75" spans="1:52">
+    <row r="310" ht="17.4" spans="1:52">
       <c r="A310" s="12"/>
       <c r="B310" s="18"/>
       <c r="C310" s="18"/>
@@ -23652,7 +23741,7 @@
       <c r="AV310" s="18"/>
       <c r="AZ310" s="44"/>
     </row>
-    <row r="311" ht="18.75" spans="1:52">
+    <row r="311" ht="17.4" spans="1:52">
       <c r="A311" s="12"/>
       <c r="B311" s="18"/>
       <c r="C311" s="18"/>
@@ -23703,7 +23792,7 @@
       <c r="AV311" s="18"/>
       <c r="AZ311" s="44"/>
     </row>
-    <row r="312" ht="18.75" spans="1:52">
+    <row r="312" ht="17.4" spans="1:52">
       <c r="A312" s="12"/>
       <c r="B312" s="18"/>
       <c r="C312" s="18"/>
@@ -23754,7 +23843,7 @@
       <c r="AV312" s="18"/>
       <c r="AZ312" s="44"/>
     </row>
-    <row r="313" ht="18.75" spans="1:52">
+    <row r="313" ht="17.4" spans="1:52">
       <c r="A313" s="12"/>
       <c r="B313" s="18"/>
       <c r="C313" s="18"/>
@@ -23805,7 +23894,7 @@
       <c r="AV313" s="18"/>
       <c r="AZ313" s="44"/>
     </row>
-    <row r="314" ht="18.75" spans="1:52">
+    <row r="314" ht="17.4" spans="1:52">
       <c r="A314" s="12"/>
       <c r="B314" s="18"/>
       <c r="C314" s="18"/>
@@ -23856,7 +23945,7 @@
       <c r="AV314" s="18"/>
       <c r="AZ314" s="44"/>
     </row>
-    <row r="315" ht="18.75" spans="1:52">
+    <row r="315" ht="18" spans="1:52">
       <c r="A315" s="12"/>
       <c r="B315" s="18"/>
       <c r="C315" s="18"/>
@@ -23907,7 +23996,7 @@
       <c r="AV315" s="18"/>
       <c r="AZ315" s="44"/>
     </row>
-    <row r="316" ht="18.75" spans="1:52">
+    <row r="316" ht="18" spans="1:52">
       <c r="A316" s="12"/>
       <c r="B316" s="18"/>
       <c r="C316" s="18"/>
@@ -23958,7 +24047,7 @@
       <c r="AV316" s="18"/>
       <c r="AZ316" s="44"/>
     </row>
-    <row r="317" ht="18.75" spans="1:52">
+    <row r="317" ht="17.4" spans="1:52">
       <c r="A317" s="12"/>
       <c r="B317" s="18"/>
       <c r="C317" s="18"/>
@@ -24009,7 +24098,7 @@
       <c r="AV317" s="18"/>
       <c r="AZ317" s="44"/>
     </row>
-    <row r="318" ht="18.75" spans="1:52">
+    <row r="318" ht="18" spans="1:52">
       <c r="A318" s="12"/>
       <c r="B318" s="18"/>
       <c r="C318" s="18"/>
@@ -24060,7 +24149,7 @@
       <c r="AV318" s="18"/>
       <c r="AZ318" s="66"/>
     </row>
-    <row r="319" ht="18.75" spans="1:52">
+    <row r="319" ht="17.4" spans="1:52">
       <c r="A319" s="110"/>
       <c r="B319" s="18"/>
       <c r="C319" s="18"/>
@@ -24111,7 +24200,7 @@
       <c r="AV319" s="18"/>
       <c r="AZ319" s="66"/>
     </row>
-    <row r="320" ht="18.75" spans="1:52">
+    <row r="320" ht="17.4" spans="1:52">
       <c r="A320" s="112"/>
       <c r="B320" s="18"/>
       <c r="C320" s="18"/>
@@ -24162,7 +24251,7 @@
       <c r="AV320" s="18"/>
       <c r="AZ320" s="44"/>
     </row>
-    <row r="321" ht="18.75" spans="1:52">
+    <row r="321" ht="17.4" spans="1:52">
       <c r="A321" s="112"/>
       <c r="B321" s="18"/>
       <c r="C321" s="18"/>
@@ -24213,7 +24302,7 @@
       <c r="AV321" s="18"/>
       <c r="AZ321" s="44"/>
     </row>
-    <row r="322" ht="18.75" spans="1:52">
+    <row r="322" ht="17.4" spans="1:52">
       <c r="A322" s="112"/>
       <c r="B322" s="18"/>
       <c r="C322" s="18"/>
@@ -24264,7 +24353,7 @@
       <c r="AV322" s="18"/>
       <c r="AZ322" s="44"/>
     </row>
-    <row r="323" ht="18.75" spans="1:52">
+    <row r="323" ht="17.4" spans="1:52">
       <c r="A323" s="112"/>
       <c r="B323" s="18"/>
       <c r="C323" s="18"/>
@@ -24315,7 +24404,7 @@
       <c r="AV323" s="18"/>
       <c r="AZ323" s="44"/>
     </row>
-    <row r="324" ht="18.75" spans="1:52">
+    <row r="324" ht="17.4" spans="1:52">
       <c r="A324" s="112"/>
       <c r="B324" s="18"/>
       <c r="C324" s="18"/>
@@ -24366,7 +24455,7 @@
       <c r="AV324" s="18"/>
       <c r="AZ324" s="44"/>
     </row>
-    <row r="325" ht="18.75" spans="1:52">
+    <row r="325" ht="17.4" spans="1:52">
       <c r="A325" s="112"/>
       <c r="B325" s="18"/>
       <c r="C325" s="18"/>
@@ -24417,7 +24506,7 @@
       <c r="AV325" s="18"/>
       <c r="AZ325" s="44"/>
     </row>
-    <row r="326" ht="18.75" spans="1:52">
+    <row r="326" ht="17.4" spans="1:52">
       <c r="A326" s="112"/>
       <c r="B326" s="18"/>
       <c r="C326" s="18"/>
@@ -24468,7 +24557,7 @@
       <c r="AV326" s="18"/>
       <c r="AZ326" s="44"/>
     </row>
-    <row r="327" ht="18.75" spans="1:52">
+    <row r="327" ht="17.4" spans="1:52">
       <c r="A327" s="112"/>
       <c r="B327" s="18"/>
       <c r="C327" s="18"/>
@@ -24519,7 +24608,7 @@
       <c r="AV327" s="18"/>
       <c r="AZ327" s="44"/>
     </row>
-    <row r="328" ht="18.75" spans="1:52">
+    <row r="328" ht="17.4" spans="1:52">
       <c r="A328" s="112"/>
       <c r="B328" s="18"/>
       <c r="C328" s="18"/>
@@ -24570,7 +24659,7 @@
       <c r="AV328" s="18"/>
       <c r="AZ328" s="44"/>
     </row>
-    <row r="329" ht="18.75" spans="1:52">
+    <row r="329" ht="17.4" spans="1:52">
       <c r="A329" s="112"/>
       <c r="B329" s="18"/>
       <c r="C329" s="18"/>
@@ -24621,7 +24710,7 @@
       <c r="AV329" s="18"/>
       <c r="AZ329" s="44"/>
     </row>
-    <row r="330" ht="18.75" spans="1:52">
+    <row r="330" ht="17.4" spans="1:52">
       <c r="A330" s="112"/>
       <c r="B330" s="18"/>
       <c r="C330" s="18"/>
@@ -24672,7 +24761,7 @@
       <c r="AV330" s="18"/>
       <c r="AZ330" s="44"/>
     </row>
-    <row r="331" ht="18.75" spans="1:52">
+    <row r="331" ht="17.4" spans="1:52">
       <c r="A331" s="112"/>
       <c r="B331" s="18"/>
       <c r="C331" s="18"/>
@@ -24723,7 +24812,7 @@
       <c r="AV331" s="18"/>
       <c r="AZ331" s="44"/>
     </row>
-    <row r="332" ht="18.75" spans="1:52">
+    <row r="332" ht="17.4" spans="1:52">
       <c r="A332" s="112"/>
       <c r="B332" s="18"/>
       <c r="C332" s="18"/>
@@ -24774,7 +24863,7 @@
       <c r="AV332" s="18"/>
       <c r="AZ332" s="44"/>
     </row>
-    <row r="333" ht="18.75" spans="1:52">
+    <row r="333" ht="17.4" spans="1:52">
       <c r="A333" s="112"/>
       <c r="B333" s="18"/>
       <c r="C333" s="18"/>
@@ -24876,7 +24965,7 @@
       <c r="AV334" s="18"/>
       <c r="AZ334" s="18"/>
     </row>
-    <row r="335" ht="18.75" spans="1:52">
+    <row r="335" ht="17.4" spans="1:52">
       <c r="A335" s="112"/>
       <c r="B335" s="18"/>
       <c r="C335" s="18"/>
@@ -24927,7 +25016,7 @@
       <c r="AV335" s="18"/>
       <c r="AZ335" s="44"/>
     </row>
-    <row r="336" ht="18.75" spans="1:52">
+    <row r="336" ht="17.4" spans="1:52">
       <c r="A336" s="112"/>
       <c r="B336" s="137"/>
       <c r="C336" s="18"/>
@@ -24978,7 +25067,7 @@
       <c r="AV336" s="18"/>
       <c r="AZ336" s="44"/>
     </row>
-    <row r="337" ht="18.75" spans="1:52">
+    <row r="337" ht="17.4" spans="1:52">
       <c r="A337" s="112"/>
       <c r="B337" s="137"/>
       <c r="C337" s="18"/>
@@ -25029,7 +25118,7 @@
       <c r="AV337" s="18"/>
       <c r="AZ337" s="44"/>
     </row>
-    <row r="338" ht="18.75" spans="1:52">
+    <row r="338" ht="17.4" spans="1:52">
       <c r="A338" s="112"/>
       <c r="B338" s="137"/>
       <c r="C338" s="18"/>
@@ -25080,7 +25169,7 @@
       <c r="AV338" s="18"/>
       <c r="AZ338" s="44"/>
     </row>
-    <row r="339" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="339" s="2" customFormat="1" ht="17.4" spans="1:52">
       <c r="A339" s="138"/>
       <c r="B339" s="137"/>
       <c r="C339" s="18"/>
@@ -25130,7 +25219,7 @@
       <c r="AV339" s="18"/>
       <c r="AZ339" s="44"/>
     </row>
-    <row r="340" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="340" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A340" s="138"/>
       <c r="B340" s="137"/>
       <c r="C340" s="18"/>
@@ -25180,7 +25269,7 @@
       <c r="AV340" s="18"/>
       <c r="AZ340" s="44"/>
     </row>
-    <row r="341" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="341" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A341" s="138"/>
       <c r="B341" s="137"/>
       <c r="C341" s="18"/>
@@ -25230,7 +25319,7 @@
       <c r="AV341" s="18"/>
       <c r="AZ341" s="44"/>
     </row>
-    <row r="342" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="342" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A342" s="138"/>
       <c r="B342" s="137"/>
       <c r="C342" s="18"/>
@@ -25280,7 +25369,7 @@
       <c r="AV342" s="18"/>
       <c r="AZ342" s="44"/>
     </row>
-    <row r="343" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="343" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A343" s="138"/>
       <c r="B343" s="137"/>
       <c r="C343" s="18"/>
@@ -25330,7 +25419,7 @@
       <c r="AV343" s="18"/>
       <c r="AZ343" s="44"/>
     </row>
-    <row r="344" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="344" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A344" s="138"/>
       <c r="B344" s="137"/>
       <c r="C344" s="18"/>
@@ -25380,7 +25469,7 @@
       <c r="AV344" s="18"/>
       <c r="AZ344" s="44"/>
     </row>
-    <row r="345" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="345" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A345" s="138"/>
       <c r="B345" s="137"/>
       <c r="C345" s="18"/>
@@ -25430,7 +25519,7 @@
       <c r="AV345" s="18"/>
       <c r="AZ345" s="44"/>
     </row>
-    <row r="346" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="346" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A346" s="138"/>
       <c r="B346" s="137"/>
       <c r="C346" s="18"/>
@@ -25480,7 +25569,7 @@
       <c r="AV346" s="18"/>
       <c r="AZ346" s="44"/>
     </row>
-    <row r="347" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="347" s="2" customFormat="1" ht="17.4" spans="1:52">
       <c r="A347" s="138"/>
       <c r="B347" s="137"/>
       <c r="C347" s="18"/>
@@ -25530,7 +25619,7 @@
       <c r="AV347" s="18"/>
       <c r="AZ347" s="44"/>
     </row>
-    <row r="348" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="348" s="2" customFormat="1" ht="17.4" spans="1:52">
       <c r="A348" s="138"/>
       <c r="B348" s="137"/>
       <c r="C348" s="18"/>
@@ -25580,7 +25669,7 @@
       <c r="AV348" s="18"/>
       <c r="AZ348" s="18"/>
     </row>
-    <row r="349" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="349" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A349" s="138"/>
       <c r="B349" s="137"/>
       <c r="C349" s="18"/>
@@ -25630,7 +25719,7 @@
       <c r="AV349" s="18"/>
       <c r="AZ349" s="18"/>
     </row>
-    <row r="350" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="350" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A350" s="138"/>
       <c r="B350" s="137"/>
       <c r="C350" s="18"/>
@@ -25680,7 +25769,7 @@
       <c r="AV350" s="18"/>
       <c r="AZ350" s="44"/>
     </row>
-    <row r="351" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="351" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A351" s="138"/>
       <c r="B351" s="137"/>
       <c r="C351" s="18"/>
@@ -25730,7 +25819,7 @@
       <c r="AV351" s="18"/>
       <c r="AZ351" s="44"/>
     </row>
-    <row r="352" s="2" customFormat="1" ht="18.75" spans="1:52">
+    <row r="352" s="2" customFormat="1" ht="18" spans="1:52">
       <c r="A352" s="138"/>
       <c r="B352" s="137"/>
       <c r="C352" s="18"/>
@@ -25780,7 +25869,7 @@
       <c r="AV352" s="18"/>
       <c r="AZ352" s="44"/>
     </row>
-    <row r="353" s="3" customFormat="1" ht="18.75" spans="1:52">
+    <row r="353" s="3" customFormat="1" ht="18" spans="1:52">
       <c r="A353" s="138"/>
       <c r="B353" s="137"/>
       <c r="C353" s="18"/>
@@ -25831,7 +25920,7 @@
       <c r="AV353" s="18"/>
       <c r="AZ353" s="44"/>
     </row>
-    <row r="354" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="354" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A354" s="138"/>
       <c r="B354" s="137"/>
       <c r="C354" s="18"/>
@@ -25882,7 +25971,7 @@
       <c r="AV354" s="18"/>
       <c r="AZ354" s="66"/>
     </row>
-    <row r="355" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="355" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A355" s="138"/>
       <c r="B355" s="137"/>
       <c r="C355" s="18"/>
@@ -25933,7 +26022,7 @@
       <c r="AV355" s="18"/>
       <c r="AZ355" s="44"/>
     </row>
-    <row r="356" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="356" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A356" s="138"/>
       <c r="B356" s="137"/>
       <c r="C356" s="18"/>
@@ -25984,7 +26073,7 @@
       <c r="AV356" s="18"/>
       <c r="AZ356" s="44"/>
     </row>
-    <row r="357" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="357" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A357" s="138"/>
       <c r="B357" s="137"/>
       <c r="C357" s="18"/>
@@ -26035,7 +26124,7 @@
       <c r="AV357" s="18"/>
       <c r="AZ357" s="44"/>
     </row>
-    <row r="358" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="358" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A358" s="138"/>
       <c r="B358" s="137"/>
       <c r="C358" s="18"/>
@@ -26086,7 +26175,7 @@
       <c r="AV358" s="18"/>
       <c r="AZ358" s="44"/>
     </row>
-    <row r="359" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="359" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A359" s="138"/>
       <c r="B359" s="137"/>
       <c r="C359" s="18"/>
@@ -26137,7 +26226,7 @@
       <c r="AV359" s="18"/>
       <c r="AZ359" s="66"/>
     </row>
-    <row r="360" s="4" customFormat="1" ht="18.75" spans="1:52">
+    <row r="360" s="4" customFormat="1" ht="17.4" spans="1:52">
       <c r="A360" s="138"/>
       <c r="B360" s="137"/>
       <c r="C360" s="18"/>
@@ -26188,7 +26277,7 @@
       <c r="AV360" s="18"/>
       <c r="AZ360" s="44"/>
     </row>
-    <row r="361" ht="18.75" spans="1:52">
+    <row r="361" ht="17.4" spans="1:52">
       <c r="A361" s="138"/>
       <c r="B361" s="137"/>
       <c r="C361" s="18"/>
@@ -26238,7 +26327,7 @@
       <c r="AV361" s="18"/>
       <c r="AZ361" s="44"/>
     </row>
-    <row r="362" ht="18.75" spans="1:52">
+    <row r="362" ht="17.4" spans="1:52">
       <c r="A362" s="138"/>
       <c r="B362" s="137"/>
       <c r="C362" s="18"/>
@@ -26288,7 +26377,7 @@
       <c r="AV362" s="18"/>
       <c r="AZ362" s="44"/>
     </row>
-    <row r="363" ht="18.75" spans="1:52">
+    <row r="363" ht="17.4" spans="1:52">
       <c r="A363" s="138"/>
       <c r="B363" s="137"/>
       <c r="C363" s="18"/>
@@ -26338,7 +26427,7 @@
       <c r="AV363" s="18"/>
       <c r="AZ363" s="44"/>
     </row>
-    <row r="364" ht="18.75" spans="1:52">
+    <row r="364" ht="17.4" spans="1:52">
       <c r="A364" s="138"/>
       <c r="B364" s="137"/>
       <c r="C364" s="18"/>
@@ -26388,7 +26477,7 @@
       <c r="AV364" s="18"/>
       <c r="AZ364" s="44"/>
     </row>
-    <row r="365" ht="18.75" spans="1:52">
+    <row r="365" ht="17.4" spans="1:52">
       <c r="A365" s="138"/>
       <c r="B365" s="137"/>
       <c r="C365" s="18"/>
@@ -26438,7 +26527,7 @@
       <c r="AV365" s="18"/>
       <c r="AZ365" s="44"/>
     </row>
-    <row r="366" ht="18.75" spans="1:52">
+    <row r="366" ht="17.4" spans="1:52">
       <c r="A366" s="138"/>
       <c r="B366" s="137"/>
       <c r="C366" s="18"/>
@@ -26488,7 +26577,7 @@
       <c r="AV366" s="18"/>
       <c r="AZ366" s="44"/>
     </row>
-    <row r="367" ht="18.75" spans="1:52">
+    <row r="367" ht="17.4" spans="1:52">
       <c r="A367" s="138"/>
       <c r="B367" s="137"/>
       <c r="C367" s="18"/>
@@ -26538,7 +26627,7 @@
       <c r="AV367" s="18"/>
       <c r="AZ367" s="44"/>
     </row>
-    <row r="368" ht="18.75" spans="1:52">
+    <row r="368" ht="17.4" spans="1:52">
       <c r="A368" s="138"/>
       <c r="B368" s="137"/>
       <c r="C368" s="18"/>
@@ -26588,7 +26677,7 @@
       <c r="AV368" s="18"/>
       <c r="AZ368" s="66"/>
     </row>
-    <row r="369" ht="18.75" spans="1:52">
+    <row r="369" ht="17.4" spans="1:52">
       <c r="A369" s="138"/>
       <c r="B369" s="137"/>
       <c r="C369" s="18"/>
@@ -26638,7 +26727,7 @@
       <c r="AV369" s="18"/>
       <c r="AZ369" s="66"/>
     </row>
-    <row r="370" ht="18.75" spans="1:52">
+    <row r="370" ht="17.4" spans="1:52">
       <c r="A370" s="138"/>
       <c r="B370" s="137"/>
       <c r="C370" s="18"/>
@@ -26688,7 +26777,7 @@
       <c r="AV370" s="18"/>
       <c r="AZ370" s="44"/>
     </row>
-    <row r="371" ht="18.75" spans="1:52">
+    <row r="371" ht="17.4" spans="1:52">
       <c r="A371" s="138"/>
       <c r="B371" s="137"/>
       <c r="C371" s="18"/>
@@ -26738,7 +26827,7 @@
       <c r="AV371" s="18"/>
       <c r="AZ371" s="44"/>
     </row>
-    <row r="372" ht="18.75" spans="1:52">
+    <row r="372" ht="17.4" spans="1:52">
       <c r="A372" s="138"/>
       <c r="B372" s="137"/>
       <c r="C372" s="18"/>
@@ -26788,7 +26877,7 @@
       <c r="AV372" s="18"/>
       <c r="AZ372" s="44"/>
     </row>
-    <row r="373" ht="18.75" spans="1:52">
+    <row r="373" ht="17.4" spans="1:52">
       <c r="A373" s="138"/>
       <c r="B373" s="137"/>
       <c r="C373" s="18"/>
@@ -26838,7 +26927,7 @@
       <c r="AV373" s="18"/>
       <c r="AZ373" s="44"/>
     </row>
-    <row r="374" ht="18.75" spans="1:52">
+    <row r="374" ht="17.4" spans="1:52">
       <c r="A374" s="138"/>
       <c r="B374" s="137"/>
       <c r="C374" s="18"/>
@@ -26888,7 +26977,7 @@
       <c r="AV374" s="18"/>
       <c r="AZ374" s="44"/>
     </row>
-    <row r="375" ht="18.75" spans="1:52">
+    <row r="375" ht="17.4" spans="1:52">
       <c r="A375" s="138"/>
       <c r="B375" s="137"/>
       <c r="C375" s="18"/>
@@ -26938,7 +27027,7 @@
       <c r="AV375" s="18"/>
       <c r="AZ375" s="44"/>
     </row>
-    <row r="376" ht="18.75" spans="1:52">
+    <row r="376" ht="17.4" spans="1:52">
       <c r="A376" s="138"/>
       <c r="B376" s="137"/>
       <c r="C376" s="18"/>
@@ -26988,7 +27077,7 @@
       <c r="AV376" s="18"/>
       <c r="AZ376" s="44"/>
     </row>
-    <row r="377" ht="18.75" spans="1:52">
+    <row r="377" ht="17.4" spans="1:52">
       <c r="A377" s="138"/>
       <c r="B377" s="137"/>
       <c r="C377" s="18"/>
@@ -27038,7 +27127,7 @@
       <c r="AV377" s="18"/>
       <c r="AZ377" s="44"/>
     </row>
-    <row r="378" ht="18.75" spans="1:52">
+    <row r="378" ht="17.4" spans="1:52">
       <c r="A378" s="138"/>
       <c r="B378" s="137"/>
       <c r="C378" s="18"/>
@@ -27088,7 +27177,7 @@
       <c r="AV378" s="18"/>
       <c r="AZ378" s="44"/>
     </row>
-    <row r="379" ht="18.75" spans="1:52">
+    <row r="379" ht="17.4" spans="1:52">
       <c r="A379" s="138"/>
       <c r="B379" s="137"/>
       <c r="C379" s="18"/>
@@ -27138,7 +27227,7 @@
       <c r="AV379" s="18"/>
       <c r="AZ379" s="44"/>
     </row>
-    <row r="380" ht="18.75" spans="1:52">
+    <row r="380" ht="17.4" spans="1:52">
       <c r="A380" s="138"/>
       <c r="B380" s="137"/>
       <c r="C380" s="18"/>
@@ -27188,7 +27277,7 @@
       <c r="AV380" s="18"/>
       <c r="AZ380" s="18"/>
     </row>
-    <row r="381" ht="18.75" spans="1:52">
+    <row r="381" ht="17.4" spans="1:52">
       <c r="A381" s="138"/>
       <c r="B381" s="137"/>
       <c r="C381" s="18"/>
@@ -27238,7 +27327,7 @@
       <c r="AV381" s="18"/>
       <c r="AZ381" s="44"/>
     </row>
-    <row r="382" ht="18.75" spans="1:52">
+    <row r="382" ht="17.4" spans="1:52">
       <c r="A382" s="138"/>
       <c r="B382" s="137"/>
       <c r="C382" s="18"/>
@@ -27288,7 +27377,7 @@
       <c r="AV382" s="18"/>
       <c r="AZ382" s="44"/>
     </row>
-    <row r="383" ht="18.75" spans="1:52">
+    <row r="383" ht="17.4" spans="1:52">
       <c r="A383" s="138"/>
       <c r="B383" s="137"/>
       <c r="C383" s="18"/>
@@ -27338,7 +27427,7 @@
       <c r="AV383" s="18"/>
       <c r="AZ383" s="44"/>
     </row>
-    <row r="384" ht="18.75" spans="1:52">
+    <row r="384" ht="17.4" spans="1:52">
       <c r="A384" s="138"/>
       <c r="B384" s="137"/>
       <c r="C384" s="18"/>
@@ -27388,7 +27477,7 @@
       <c r="AV384" s="18"/>
       <c r="AZ384" s="44"/>
     </row>
-    <row r="385" ht="18.75" spans="1:52">
+    <row r="385" ht="17.4" spans="1:52">
       <c r="A385" s="138"/>
       <c r="B385" s="137"/>
       <c r="C385" s="18"/>
@@ -27438,7 +27527,7 @@
       <c r="AV385" s="18"/>
       <c r="AZ385" s="44"/>
     </row>
-    <row r="386" ht="18.75" spans="1:52">
+    <row r="386" ht="17.4" spans="1:52">
       <c r="A386" s="138"/>
       <c r="B386" s="137"/>
       <c r="C386" s="18"/>
@@ -27488,7 +27577,7 @@
       <c r="AV386" s="18"/>
       <c r="AZ386" s="45"/>
     </row>
-    <row r="387" ht="18.75" spans="1:52">
+    <row r="387" ht="17.4" spans="1:52">
       <c r="A387" s="138"/>
       <c r="B387" s="137"/>
       <c r="C387" s="18"/>
@@ -27588,7 +27677,7 @@
       <c r="AV388" s="18"/>
       <c r="AZ388" s="44"/>
     </row>
-    <row r="389" ht="18.75" spans="1:52">
+    <row r="389" ht="17.4" spans="1:52">
       <c r="A389" s="138"/>
       <c r="B389" s="137"/>
       <c r="C389" s="18"/>
@@ -27638,7 +27727,7 @@
       <c r="AV389" s="18"/>
       <c r="AZ389" s="44"/>
     </row>
-    <row r="390" ht="18.75" spans="1:52">
+    <row r="390" ht="17.4" spans="1:52">
       <c r="A390" s="138"/>
       <c r="B390" s="18"/>
       <c r="C390" s="18"/>
@@ -27688,7 +27777,7 @@
       <c r="AV390" s="18"/>
       <c r="AZ390" s="44"/>
     </row>
-    <row r="391" ht="18.75" spans="1:52">
+    <row r="391" ht="17.4" spans="1:52">
       <c r="A391" s="138"/>
       <c r="B391" s="18"/>
       <c r="C391" s="18"/>
@@ -27788,7 +27877,7 @@
       <c r="AV392" s="18"/>
       <c r="AZ392" s="44"/>
     </row>
-    <row r="393" ht="18.75" spans="1:52">
+    <row r="393" ht="17.4" spans="1:52">
       <c r="A393" s="138"/>
       <c r="B393" s="18"/>
       <c r="C393" s="18"/>
@@ -27838,7 +27927,7 @@
       <c r="AV393" s="18"/>
       <c r="AZ393" s="44"/>
     </row>
-    <row r="394" ht="18.75" spans="1:52">
+    <row r="394" ht="17.4" spans="1:52">
       <c r="A394" s="138"/>
       <c r="B394" s="89"/>
       <c r="C394" s="18"/>
@@ -27888,7 +27977,7 @@
       <c r="AV394" s="18"/>
       <c r="AZ394" s="44"/>
     </row>
-    <row r="395" ht="18.75" spans="1:52">
+    <row r="395" ht="17.4" spans="1:52">
       <c r="A395" s="138"/>
       <c r="B395" s="89"/>
       <c r="C395" s="18"/>
@@ -27938,7 +28027,7 @@
       <c r="AV395" s="18"/>
       <c r="AZ395" s="44"/>
     </row>
-    <row r="396" ht="18.75" spans="1:52">
+    <row r="396" ht="17.4" spans="1:52">
       <c r="A396" s="138"/>
       <c r="B396" s="89"/>
       <c r="C396" s="18"/>
@@ -27988,7 +28077,7 @@
       <c r="AV396" s="18"/>
       <c r="AZ396" s="44"/>
     </row>
-    <row r="397" ht="18.75" spans="1:52">
+    <row r="397" ht="17.4" spans="1:52">
       <c r="A397" s="138"/>
       <c r="B397" s="89"/>
       <c r="C397" s="18"/>
@@ -28038,7 +28127,7 @@
       <c r="AV397" s="18"/>
       <c r="AZ397" s="44"/>
     </row>
-    <row r="398" ht="18.75" spans="1:52">
+    <row r="398" ht="17.4" spans="1:52">
       <c r="A398" s="138"/>
       <c r="B398" s="89"/>
       <c r="C398" s="18"/>
@@ -28088,7 +28177,7 @@
       <c r="AV398" s="82"/>
       <c r="AZ398" s="44"/>
     </row>
-    <row r="399" ht="18.75" spans="1:52">
+    <row r="399" ht="17.4" spans="1:52">
       <c r="A399" s="138"/>
       <c r="B399" s="89"/>
       <c r="C399" s="18"/>
@@ -28138,7 +28227,7 @@
       <c r="AV399" s="18"/>
       <c r="AZ399" s="44"/>
     </row>
-    <row r="400" ht="18.75" spans="1:52">
+    <row r="400" ht="17.4" spans="1:52">
       <c r="A400" s="138"/>
       <c r="B400" s="89"/>
       <c r="C400" s="18"/>
@@ -28188,7 +28277,7 @@
       <c r="AV400" s="18"/>
       <c r="AZ400" s="44"/>
     </row>
-    <row r="401" ht="18.75" spans="1:52">
+    <row r="401" ht="17.4" spans="1:52">
       <c r="A401" s="138"/>
       <c r="B401" s="89"/>
       <c r="C401" s="18"/>
@@ -28238,7 +28327,7 @@
       <c r="AV401" s="18"/>
       <c r="AZ401" s="44"/>
     </row>
-    <row r="402" ht="18.75" spans="1:52">
+    <row r="402" ht="17.4" spans="1:52">
       <c r="A402" s="138"/>
       <c r="B402" s="89"/>
       <c r="C402" s="18"/>
@@ -28288,7 +28377,7 @@
       <c r="AV402" s="18"/>
       <c r="AZ402" s="44"/>
     </row>
-    <row r="403" ht="18.75" spans="1:52">
+    <row r="403" ht="17.4" spans="1:52">
       <c r="A403" s="138"/>
       <c r="B403" s="89"/>
       <c r="C403" s="18"/>
@@ -28338,7 +28427,7 @@
       <c r="AV403" s="18"/>
       <c r="AZ403" s="44"/>
     </row>
-    <row r="404" ht="18.75" spans="1:52">
+    <row r="404" ht="17.4" spans="1:52">
       <c r="A404" s="138"/>
       <c r="B404" s="89"/>
       <c r="C404" s="18"/>
@@ -28388,7 +28477,7 @@
       <c r="AV404" s="82"/>
       <c r="AZ404" s="44"/>
     </row>
-    <row r="405" ht="18.75" spans="1:52">
+    <row r="405" ht="17.4" spans="1:52">
       <c r="A405" s="138"/>
       <c r="B405" s="89"/>
       <c r="C405" s="18"/>
@@ -28438,7 +28527,7 @@
       <c r="AV405" s="18"/>
       <c r="AZ405" s="66"/>
     </row>
-    <row r="406" ht="18.75" spans="1:52">
+    <row r="406" ht="17.4" spans="1:52">
       <c r="A406" s="138"/>
       <c r="B406" s="89"/>
       <c r="C406" s="18"/>
@@ -28488,7 +28577,7 @@
       <c r="AV406" s="18"/>
       <c r="AZ406" s="44"/>
     </row>
-    <row r="407" ht="18.75" spans="1:52">
+    <row r="407" ht="17.4" spans="1:52">
       <c r="A407" s="138"/>
       <c r="B407" s="89"/>
       <c r="C407" s="18"/>
@@ -28538,7 +28627,7 @@
       <c r="AV407" s="18"/>
       <c r="AZ407" s="44"/>
     </row>
-    <row r="408" ht="18.75" spans="1:52">
+    <row r="408" ht="17.4" spans="1:52">
       <c r="A408" s="138"/>
       <c r="B408" s="89"/>
       <c r="C408" s="18"/>
@@ -28588,7 +28677,7 @@
       <c r="AV408" s="18"/>
       <c r="AZ408" s="44"/>
     </row>
-    <row r="409" ht="18.75" spans="1:52">
+    <row r="409" ht="17.4" spans="1:52">
       <c r="A409" s="138"/>
       <c r="B409" s="89"/>
       <c r="C409" s="18"/>
@@ -28638,7 +28727,7 @@
       <c r="AV409" s="18"/>
       <c r="AZ409" s="44"/>
     </row>
-    <row r="410" ht="18.75" spans="1:52">
+    <row r="410" ht="17.4" spans="1:52">
       <c r="A410" s="138"/>
       <c r="B410" s="89"/>
       <c r="C410" s="18"/>
@@ -28688,7 +28777,7 @@
       <c r="AV410" s="18"/>
       <c r="AZ410" s="44"/>
     </row>
-    <row r="411" ht="18.75" spans="1:52">
+    <row r="411" ht="17.4" spans="1:52">
       <c r="A411" s="138"/>
       <c r="B411" s="89"/>
       <c r="C411" s="18"/>
@@ -28738,7 +28827,7 @@
       <c r="AV411" s="18"/>
       <c r="AZ411" s="44"/>
     </row>
-    <row r="412" ht="18.75" spans="1:52">
+    <row r="412" ht="17.4" spans="1:52">
       <c r="A412" s="138"/>
       <c r="B412" s="89"/>
       <c r="C412" s="18"/>
@@ -28788,7 +28877,7 @@
       <c r="AV412" s="18"/>
       <c r="AZ412" s="44"/>
     </row>
-    <row r="413" ht="18.75" spans="1:52">
+    <row r="413" ht="17.4" spans="1:52">
       <c r="A413" s="138"/>
       <c r="B413" s="89"/>
       <c r="C413" s="18"/>
@@ -28838,7 +28927,7 @@
       <c r="AV413" s="18"/>
       <c r="AZ413" s="18"/>
     </row>
-    <row r="414" ht="18.75" spans="1:52">
+    <row r="414" ht="17.4" spans="1:52">
       <c r="A414" s="138"/>
       <c r="B414" s="89"/>
       <c r="C414" s="18"/>
@@ -28888,7 +28977,7 @@
       <c r="AV414" s="18"/>
       <c r="AZ414" s="18"/>
     </row>
-    <row r="415" ht="18.75" spans="1:52">
+    <row r="415" ht="17.4" spans="1:52">
       <c r="A415" s="138"/>
       <c r="B415" s="89"/>
       <c r="C415" s="18"/>
@@ -28938,7 +29027,7 @@
       <c r="AV415" s="18"/>
       <c r="AZ415" s="44"/>
     </row>
-    <row r="416" ht="18.75" spans="1:52">
+    <row r="416" ht="17.4" spans="1:52">
       <c r="A416" s="138"/>
       <c r="B416" s="89"/>
       <c r="C416" s="18"/>
@@ -28988,7 +29077,7 @@
       <c r="AV416" s="18"/>
       <c r="AZ416" s="44"/>
     </row>
-    <row r="417" ht="18.75" spans="1:52">
+    <row r="417" ht="17.4" spans="1:52">
       <c r="A417" s="138"/>
       <c r="B417" s="89"/>
       <c r="C417" s="18"/>
@@ -29038,7 +29127,7 @@
       <c r="AV417" s="18"/>
       <c r="AZ417" s="44"/>
     </row>
-    <row r="418" ht="18.75" spans="1:52">
+    <row r="418" ht="17.4" spans="1:52">
       <c r="A418" s="138"/>
       <c r="B418" s="89"/>
       <c r="C418" s="18"/>
@@ -29088,7 +29177,7 @@
       <c r="AV418" s="18"/>
       <c r="AZ418" s="18"/>
     </row>
-    <row r="419" ht="18.75" spans="1:52">
+    <row r="419" ht="17.4" spans="1:52">
       <c r="A419" s="138"/>
       <c r="B419" s="89"/>
       <c r="C419" s="18"/>
@@ -29138,7 +29227,7 @@
       <c r="AV419" s="18"/>
       <c r="AZ419" s="18"/>
     </row>
-    <row r="420" ht="18.75" spans="1:52">
+    <row r="420" ht="17.4" spans="1:52">
       <c r="A420" s="138"/>
       <c r="B420" s="89"/>
       <c r="C420" s="18"/>
@@ -29188,7 +29277,7 @@
       <c r="AV420" s="18"/>
       <c r="AZ420" s="18"/>
     </row>
-    <row r="421" ht="18.75" spans="1:52">
+    <row r="421" ht="17.4" spans="1:52">
       <c r="A421" s="138"/>
       <c r="B421" s="89"/>
       <c r="C421" s="18"/>
@@ -29238,7 +29327,7 @@
       <c r="AV421" s="18"/>
       <c r="AZ421" s="18"/>
     </row>
-    <row r="422" ht="18.75" spans="1:52">
+    <row r="422" ht="17.4" spans="1:52">
       <c r="A422" s="138"/>
       <c r="B422" s="89"/>
       <c r="C422" s="18"/>
@@ -29288,7 +29377,7 @@
       <c r="AV422" s="18"/>
       <c r="AZ422" s="18"/>
     </row>
-    <row r="423" ht="18.75" spans="1:52">
+    <row r="423" ht="17.4" spans="1:52">
       <c r="A423" s="138"/>
       <c r="B423" s="89"/>
       <c r="C423" s="18"/>
@@ -29338,7 +29427,7 @@
       <c r="AV423" s="18"/>
       <c r="AZ423" s="18"/>
     </row>
-    <row r="424" ht="18.75" spans="1:52">
+    <row r="424" ht="17.4" spans="1:52">
       <c r="A424" s="138"/>
       <c r="B424" s="89"/>
       <c r="C424" s="18"/>
@@ -29388,7 +29477,7 @@
       <c r="AV424" s="18"/>
       <c r="AZ424" s="44"/>
     </row>
-    <row r="425" ht="18.75" spans="1:52">
+    <row r="425" ht="17.4" spans="1:52">
       <c r="A425" s="138"/>
       <c r="B425" s="89"/>
       <c r="C425" s="18"/>
@@ -29438,7 +29527,7 @@
       <c r="AV425" s="18"/>
       <c r="AZ425" s="44"/>
     </row>
-    <row r="426" ht="18.75" spans="1:52">
+    <row r="426" ht="17.4" spans="1:52">
       <c r="A426" s="138"/>
       <c r="B426" s="89"/>
       <c r="C426" s="18"/>
@@ -29488,7 +29577,7 @@
       <c r="AV426" s="18"/>
       <c r="AZ426" s="44"/>
     </row>
-    <row r="427" ht="18.75" spans="1:52">
+    <row r="427" ht="17.4" spans="1:52">
       <c r="A427" s="138"/>
       <c r="B427" s="89"/>
       <c r="C427" s="18"/>
@@ -29538,7 +29627,7 @@
       <c r="AV427" s="18"/>
       <c r="AZ427" s="44"/>
     </row>
-    <row r="428" ht="18.75" spans="1:52">
+    <row r="428" ht="17.4" spans="1:52">
       <c r="A428" s="138"/>
       <c r="B428" s="89"/>
       <c r="C428" s="18"/>
@@ -29588,7 +29677,7 @@
       <c r="AV428" s="18"/>
       <c r="AZ428" s="44"/>
     </row>
-    <row r="429" ht="18.75" spans="1:52">
+    <row r="429" ht="17.4" spans="1:52">
       <c r="A429" s="138"/>
       <c r="B429" s="89"/>
       <c r="C429" s="18"/>
@@ -29638,7 +29727,7 @@
       <c r="AV429" s="18"/>
       <c r="AZ429" s="44"/>
     </row>
-    <row r="430" ht="18.75" spans="1:52">
+    <row r="430" ht="17.4" spans="1:52">
       <c r="A430" s="138"/>
       <c r="B430" s="89"/>
       <c r="C430" s="18"/>
@@ -29688,7 +29777,7 @@
       <c r="AV430" s="18"/>
       <c r="AZ430" s="44"/>
     </row>
-    <row r="431" ht="18.75" spans="1:52">
+    <row r="431" ht="17.4" spans="1:52">
       <c r="A431" s="138"/>
       <c r="B431" s="89"/>
       <c r="C431" s="18"/>
@@ -29738,7 +29827,7 @@
       <c r="AV431" s="18"/>
       <c r="AZ431" s="44"/>
     </row>
-    <row r="432" ht="18.75" spans="1:52">
+    <row r="432" ht="17.4" spans="1:52">
       <c r="A432" s="138"/>
       <c r="B432" s="89"/>
       <c r="C432" s="18"/>
@@ -29788,7 +29877,7 @@
       <c r="AV432" s="18"/>
       <c r="AZ432" s="44"/>
     </row>
-    <row r="433" ht="18.75" spans="1:52">
+    <row r="433" ht="17.4" spans="1:52">
       <c r="A433" s="138"/>
       <c r="B433" s="89"/>
       <c r="C433" s="18"/>
@@ -29838,7 +29927,7 @@
       <c r="AV433" s="18"/>
       <c r="AZ433" s="44"/>
     </row>
-    <row r="434" ht="18.75" spans="1:52">
+    <row r="434" ht="17.4" spans="1:52">
       <c r="A434" s="138"/>
       <c r="B434" s="89"/>
       <c r="C434" s="18"/>
@@ -29888,7 +29977,7 @@
       <c r="AV434" s="18"/>
       <c r="AZ434" s="44"/>
     </row>
-    <row r="435" ht="18.75" spans="1:52">
+    <row r="435" ht="17.4" spans="1:52">
       <c r="A435" s="138"/>
       <c r="B435" s="89"/>
       <c r="C435" s="18"/>
@@ -29938,7 +30027,7 @@
       <c r="AV435" s="18"/>
       <c r="AZ435" s="44"/>
     </row>
-    <row r="436" ht="18.75" spans="1:52">
+    <row r="436" ht="17.4" spans="1:52">
       <c r="A436" s="138"/>
       <c r="B436" s="89"/>
       <c r="C436" s="18"/>
@@ -29988,7 +30077,7 @@
       <c r="AV436" s="18"/>
       <c r="AZ436" s="44"/>
     </row>
-    <row r="437" ht="18.75" spans="1:52">
+    <row r="437" ht="17.4" spans="1:52">
       <c r="A437" s="138"/>
       <c r="B437" s="89"/>
       <c r="C437" s="18"/>
@@ -30038,7 +30127,7 @@
       <c r="AV437" s="18"/>
       <c r="AZ437" s="44"/>
     </row>
-    <row r="438" ht="18.75" spans="1:52">
+    <row r="438" ht="17.4" spans="1:52">
       <c r="A438" s="138"/>
       <c r="B438" s="89"/>
       <c r="C438" s="18"/>
@@ -30088,7 +30177,7 @@
       <c r="AV438" s="18"/>
       <c r="AZ438" s="44"/>
     </row>
-    <row r="439" ht="18.75" spans="1:52">
+    <row r="439" ht="17.4" spans="1:52">
       <c r="A439" s="138"/>
       <c r="B439" s="89"/>
       <c r="C439" s="18"/>
@@ -30138,7 +30227,7 @@
       <c r="AV439" s="18"/>
       <c r="AZ439" s="44"/>
     </row>
-    <row r="440" ht="18.75" spans="1:52">
+    <row r="440" ht="17.4" spans="1:52">
       <c r="A440" s="138"/>
       <c r="B440" s="89"/>
       <c r="C440" s="18"/>
@@ -30188,7 +30277,7 @@
       <c r="AV440" s="18"/>
       <c r="AZ440" s="44"/>
     </row>
-    <row r="441" ht="18.75" spans="1:52">
+    <row r="441" ht="17.4" spans="1:52">
       <c r="A441" s="138"/>
       <c r="B441" s="89"/>
       <c r="C441" s="18"/>
@@ -30238,7 +30327,7 @@
       <c r="AV441" s="18"/>
       <c r="AZ441" s="44"/>
     </row>
-    <row r="442" ht="18.75" spans="1:52">
+    <row r="442" ht="17.4" spans="1:52">
       <c r="A442" s="138"/>
       <c r="B442" s="89"/>
       <c r="C442" s="18"/>
@@ -30288,7 +30377,7 @@
       <c r="AV442" s="18"/>
       <c r="AZ442" s="44"/>
     </row>
-    <row r="443" ht="18.75" spans="1:52">
+    <row r="443" ht="17.4" spans="1:52">
       <c r="A443" s="138"/>
       <c r="B443" s="89"/>
       <c r="C443" s="18"/>
@@ -30338,7 +30427,7 @@
       <c r="AV443" s="18"/>
       <c r="AZ443" s="18"/>
     </row>
-    <row r="444" ht="18.75" spans="1:52">
+    <row r="444" ht="17.4" spans="1:52">
       <c r="A444" s="138"/>
       <c r="B444" s="89"/>
       <c r="C444" s="18"/>
@@ -30388,7 +30477,7 @@
       <c r="AV444" s="18"/>
       <c r="AZ444" s="18"/>
     </row>
-    <row r="445" ht="18.75" spans="1:52">
+    <row r="445" ht="17.4" spans="1:52">
       <c r="A445" s="138"/>
       <c r="B445" s="89"/>
       <c r="C445" s="18"/>
@@ -30438,7 +30527,7 @@
       <c r="AV445" s="18"/>
       <c r="AZ445" s="44"/>
     </row>
-    <row r="446" ht="18.75" spans="1:52">
+    <row r="446" ht="17.4" spans="1:52">
       <c r="A446" s="138"/>
       <c r="B446" s="89"/>
       <c r="C446" s="18"/>
@@ -30488,7 +30577,7 @@
       <c r="AV446" s="18"/>
       <c r="AZ446" s="44"/>
     </row>
-    <row r="447" ht="18.75" spans="1:52">
+    <row r="447" ht="17.4" spans="1:52">
       <c r="A447" s="138"/>
       <c r="B447" s="89"/>
       <c r="C447" s="18"/>
@@ -30538,7 +30627,7 @@
       <c r="AV447" s="18"/>
       <c r="AZ447" s="44"/>
     </row>
-    <row r="448" ht="18.75" spans="1:52">
+    <row r="448" ht="17.4" spans="1:52">
       <c r="A448" s="138"/>
       <c r="B448" s="89"/>
       <c r="C448" s="18"/>
@@ -30588,7 +30677,7 @@
       <c r="AV448" s="18"/>
       <c r="AZ448" s="44"/>
     </row>
-    <row r="449" ht="18.75" spans="1:52">
+    <row r="449" ht="17.4" spans="1:52">
       <c r="A449" s="138"/>
       <c r="B449" s="89"/>
       <c r="C449" s="18"/>
@@ -30638,7 +30727,7 @@
       <c r="AV449" s="18"/>
       <c r="AZ449" s="44"/>
     </row>
-    <row r="450" ht="18.75" spans="1:52">
+    <row r="450" ht="17.4" spans="1:52">
       <c r="A450" s="138"/>
       <c r="B450" s="89"/>
       <c r="C450" s="18"/>
@@ -30688,7 +30777,7 @@
       <c r="AV450" s="18"/>
       <c r="AZ450" s="44"/>
     </row>
-    <row r="451" ht="18.75" spans="1:52">
+    <row r="451" ht="17.4" spans="1:52">
       <c r="A451" s="138"/>
       <c r="B451" s="89"/>
       <c r="C451" s="18"/>
@@ -30738,7 +30827,7 @@
       <c r="AV451" s="18"/>
       <c r="AZ451" s="44"/>
     </row>
-    <row r="452" ht="18.75" spans="1:52">
+    <row r="452" ht="17.4" spans="1:52">
       <c r="A452" s="138"/>
       <c r="B452" s="89"/>
       <c r="C452" s="18"/>
@@ -30788,7 +30877,7 @@
       <c r="AV452" s="18"/>
       <c r="AZ452" s="44"/>
     </row>
-    <row r="453" ht="18.75" spans="1:52">
+    <row r="453" ht="17.4" spans="1:52">
       <c r="A453" s="138"/>
       <c r="B453" s="89"/>
       <c r="C453" s="18"/>
@@ -30838,7 +30927,7 @@
       <c r="AV453" s="18"/>
       <c r="AZ453" s="44"/>
     </row>
-    <row r="454" ht="18.75" spans="1:52">
+    <row r="454" ht="17.4" spans="1:52">
       <c r="A454" s="138"/>
       <c r="B454" s="89"/>
       <c r="C454" s="18"/>
@@ -30888,7 +30977,7 @@
       <c r="AV454" s="18"/>
       <c r="AZ454" s="44"/>
     </row>
-    <row r="455" ht="18.75" spans="1:52">
+    <row r="455" ht="17.4" spans="1:52">
       <c r="A455" s="138"/>
       <c r="B455" s="89"/>
       <c r="C455" s="18"/>
@@ -30938,7 +31027,7 @@
       <c r="AV455" s="18"/>
       <c r="AZ455" s="44"/>
     </row>
-    <row r="456" ht="18.75" spans="1:52">
+    <row r="456" ht="17.4" spans="1:52">
       <c r="A456" s="138"/>
       <c r="B456" s="89"/>
       <c r="C456" s="18"/>
@@ -30988,7 +31077,7 @@
       <c r="AV456" s="82"/>
       <c r="AZ456" s="44"/>
     </row>
-    <row r="457" ht="18.75" spans="1:52">
+    <row r="457" ht="17.4" spans="1:52">
       <c r="A457" s="138"/>
       <c r="B457" s="89"/>
       <c r="C457" s="18"/>
@@ -31038,7 +31127,7 @@
       <c r="AV457" s="18"/>
       <c r="AZ457" s="44"/>
     </row>
-    <row r="458" ht="18.75" spans="1:52">
+    <row r="458" ht="17.4" spans="1:52">
       <c r="A458" s="138"/>
       <c r="B458" s="89"/>
       <c r="C458" s="18"/>
@@ -31088,7 +31177,7 @@
       <c r="AV458" s="18"/>
       <c r="AZ458" s="44"/>
     </row>
-    <row r="459" ht="18.75" spans="1:52">
+    <row r="459" ht="17.4" spans="1:52">
       <c r="A459" s="138"/>
       <c r="B459" s="89"/>
       <c r="C459" s="18"/>
@@ -31138,7 +31227,7 @@
       <c r="AV459" s="18"/>
       <c r="AZ459" s="44"/>
     </row>
-    <row r="460" ht="18.75" spans="1:52">
+    <row r="460" ht="17.4" spans="1:52">
       <c r="A460" s="138"/>
       <c r="B460" s="89"/>
       <c r="C460" s="18"/>
@@ -31188,7 +31277,7 @@
       <c r="AV460" s="18"/>
       <c r="AZ460" s="44"/>
     </row>
-    <row r="461" ht="18.75" spans="1:52">
+    <row r="461" ht="17.4" spans="1:52">
       <c r="A461" s="138"/>
       <c r="B461" s="89"/>
       <c r="C461" s="18"/>
@@ -31238,7 +31327,7 @@
       <c r="AV461" s="18"/>
       <c r="AZ461" s="44"/>
     </row>
-    <row r="462" ht="18.75" spans="1:52">
+    <row r="462" ht="17.4" spans="1:52">
       <c r="A462" s="138"/>
       <c r="B462" s="89"/>
       <c r="C462" s="18"/>
@@ -31288,7 +31377,7 @@
       <c r="AV462" s="18"/>
       <c r="AZ462" s="44"/>
     </row>
-    <row r="463" ht="18.75" spans="1:52">
+    <row r="463" ht="17.4" spans="1:52">
       <c r="A463" s="138"/>
       <c r="B463" s="89"/>
       <c r="C463" s="18"/>
@@ -31338,7 +31427,7 @@
       <c r="AV463" s="18"/>
       <c r="AZ463" s="44"/>
     </row>
-    <row r="464" ht="18.75" spans="1:52">
+    <row r="464" ht="17.4" spans="1:52">
       <c r="A464" s="138"/>
       <c r="B464" s="89"/>
       <c r="C464" s="18"/>
@@ -31388,7 +31477,7 @@
       <c r="AV464" s="18"/>
       <c r="AZ464" s="44"/>
     </row>
-    <row r="465" ht="18.75" spans="1:52">
+    <row r="465" ht="17.4" spans="1:52">
       <c r="A465" s="138"/>
       <c r="B465" s="89"/>
       <c r="C465" s="18"/>
@@ -31438,7 +31527,7 @@
       <c r="AV465" s="18"/>
       <c r="AZ465" s="44"/>
     </row>
-    <row r="466" ht="18.75" spans="1:52">
+    <row r="466" ht="17.4" spans="1:52">
       <c r="A466" s="138"/>
       <c r="B466" s="89"/>
       <c r="C466" s="18"/>
@@ -31488,7 +31577,7 @@
       <c r="AV466" s="18"/>
       <c r="AZ466" s="18"/>
     </row>
-    <row r="467" ht="18.75" spans="1:52">
+    <row r="467" ht="17.4" spans="1:52">
       <c r="A467" s="138"/>
       <c r="B467" s="89"/>
       <c r="C467" s="18"/>
@@ -31538,7 +31627,7 @@
       <c r="AV467" s="18"/>
       <c r="AZ467" s="44"/>
     </row>
-    <row r="468" ht="18.75" spans="1:52">
+    <row r="468" ht="17.4" spans="1:52">
       <c r="A468" s="138"/>
       <c r="B468" s="89"/>
       <c r="C468" s="18"/>
@@ -31588,7 +31677,7 @@
       <c r="AV468" s="18"/>
       <c r="AZ468" s="18"/>
     </row>
-    <row r="469" ht="18.75" spans="1:52">
+    <row r="469" ht="17.4" spans="1:52">
       <c r="A469" s="138"/>
       <c r="B469" s="89"/>
       <c r="C469" s="18"/>
@@ -31638,7 +31727,7 @@
       <c r="AV469" s="18"/>
       <c r="AZ469" s="44"/>
     </row>
-    <row r="470" ht="18.75" spans="1:52">
+    <row r="470" ht="17.4" spans="1:52">
       <c r="A470" s="138"/>
       <c r="B470" s="89"/>
       <c r="C470" s="18"/>
@@ -31688,7 +31777,7 @@
       <c r="AV470" s="18"/>
       <c r="AZ470" s="44"/>
     </row>
-    <row r="471" ht="18.75" spans="1:52">
+    <row r="471" ht="17.4" spans="1:52">
       <c r="A471" s="138"/>
       <c r="B471" s="89"/>
       <c r="C471" s="157"/>
@@ -31738,7 +31827,7 @@
       <c r="AV471" s="166"/>
       <c r="AZ471" s="66"/>
     </row>
-    <row r="472" ht="18.75" spans="1:52">
+    <row r="472" ht="17.4" spans="1:52">
       <c r="A472" s="138"/>
       <c r="B472" s="89"/>
       <c r="C472" s="38"/>
@@ -31788,7 +31877,7 @@
       <c r="AV472" s="18"/>
       <c r="AZ472" s="44"/>
     </row>
-    <row r="473" ht="18.75" spans="1:52">
+    <row r="473" ht="17.4" spans="1:52">
       <c r="A473" s="138"/>
       <c r="B473" s="89"/>
       <c r="C473" s="38"/>
@@ -31838,7 +31927,7 @@
       <c r="AV473" s="18"/>
       <c r="AZ473" s="44"/>
     </row>
-    <row r="474" ht="18.75" spans="1:52">
+    <row r="474" ht="17.4" spans="1:52">
       <c r="A474" s="138"/>
       <c r="B474" s="89"/>
       <c r="C474" s="38"/>
@@ -31888,7 +31977,7 @@
       <c r="AV474" s="18"/>
       <c r="AZ474" s="44"/>
     </row>
-    <row r="475" ht="18.75" spans="1:52">
+    <row r="475" ht="17.4" spans="1:52">
       <c r="A475" s="138"/>
       <c r="B475" s="89"/>
       <c r="C475" s="38"/>
@@ -31938,7 +32027,7 @@
       <c r="AV475" s="18"/>
       <c r="AZ475" s="44"/>
     </row>
-    <row r="476" ht="18.75" spans="1:52">
+    <row r="476" ht="17.4" spans="1:52">
       <c r="A476" s="138"/>
       <c r="B476" s="89"/>
       <c r="C476" s="38"/>
@@ -31988,7 +32077,7 @@
       <c r="AV476" s="18"/>
       <c r="AZ476" s="44"/>
     </row>
-    <row r="477" ht="18.75" spans="1:52">
+    <row r="477" ht="17.4" spans="1:52">
       <c r="A477" s="138"/>
       <c r="B477" s="89"/>
       <c r="C477" s="38"/>
@@ -32038,7 +32127,7 @@
       <c r="AV477" s="18"/>
       <c r="AZ477" s="44"/>
     </row>
-    <row r="478" ht="18.75" spans="1:52">
+    <row r="478" ht="17.4" spans="1:52">
       <c r="A478" s="138"/>
       <c r="B478" s="89"/>
       <c r="C478" s="38"/>
@@ -32088,7 +32177,7 @@
       <c r="AV478" s="18"/>
       <c r="AZ478" s="44"/>
     </row>
-    <row r="479" ht="18.75" spans="1:52">
+    <row r="479" ht="17.4" spans="1:52">
       <c r="A479" s="138"/>
       <c r="B479" s="89"/>
       <c r="C479" s="38"/>
@@ -32138,7 +32227,7 @@
       <c r="AV479" s="18"/>
       <c r="AZ479" s="44"/>
     </row>
-    <row r="480" ht="18.75" spans="1:52">
+    <row r="480" ht="17.4" spans="1:52">
       <c r="A480" s="138"/>
       <c r="B480" s="89"/>
       <c r="C480" s="38"/>
@@ -32188,7 +32277,7 @@
       <c r="AV480" s="18"/>
       <c r="AZ480" s="44"/>
     </row>
-    <row r="481" ht="18.75" spans="1:52">
+    <row r="481" ht="17.4" spans="1:52">
       <c r="A481" s="138"/>
       <c r="B481" s="89"/>
       <c r="C481" s="38"/>
@@ -32238,7 +32327,7 @@
       <c r="AV481" s="18"/>
       <c r="AZ481" s="44"/>
     </row>
-    <row r="482" ht="18.75" spans="1:52">
+    <row r="482" ht="17.4" spans="1:52">
       <c r="A482" s="138"/>
       <c r="B482" s="89"/>
       <c r="C482" s="38"/>
@@ -32288,7 +32377,7 @@
       <c r="AV482" s="18"/>
       <c r="AZ482" s="44"/>
     </row>
-    <row r="483" ht="18.75" spans="1:52">
+    <row r="483" ht="17.4" spans="1:52">
       <c r="A483" s="138"/>
       <c r="B483" s="89"/>
       <c r="C483" s="38"/>
@@ -32338,7 +32427,7 @@
       <c r="AV483" s="18"/>
       <c r="AZ483" s="44"/>
     </row>
-    <row r="484" ht="18.75" spans="1:52">
+    <row r="484" ht="17.4" spans="1:52">
       <c r="A484" s="138"/>
       <c r="B484" s="89"/>
       <c r="C484" s="38"/>
@@ -32388,7 +32477,7 @@
       <c r="AV484" s="18"/>
       <c r="AZ484" s="44"/>
     </row>
-    <row r="485" ht="18.75" spans="1:52">
+    <row r="485" ht="17.4" spans="1:52">
       <c r="A485" s="138"/>
       <c r="B485" s="89"/>
       <c r="C485" s="38"/>
@@ -32438,7 +32527,7 @@
       <c r="AV485" s="18"/>
       <c r="AZ485" s="44"/>
     </row>
-    <row r="486" ht="18.75" spans="1:52">
+    <row r="486" ht="17.4" spans="1:52">
       <c r="A486" s="138"/>
       <c r="B486" s="89"/>
       <c r="C486" s="38"/>
@@ -32473,7 +32562,7 @@
       <c r="AV486" s="82"/>
       <c r="AZ486" s="44"/>
     </row>
-    <row r="487" ht="18.75" spans="1:52">
+    <row r="487" ht="17.4" spans="1:52">
       <c r="A487" s="138"/>
       <c r="B487" s="89"/>
       <c r="C487" s="38"/>
@@ -32508,7 +32597,7 @@
       <c r="AV487" s="18"/>
       <c r="AZ487" s="44"/>
     </row>
-    <row r="488" ht="18.75" spans="1:52">
+    <row r="488" ht="17.4" spans="1:52">
       <c r="A488" s="138"/>
       <c r="B488" s="89"/>
       <c r="C488" s="38"/>
@@ -32543,7 +32632,7 @@
       <c r="AV488" s="18"/>
       <c r="AZ488" s="44"/>
     </row>
-    <row r="489" ht="18.75" spans="1:52">
+    <row r="489" ht="17.4" spans="1:52">
       <c r="A489" s="138"/>
       <c r="B489" s="89"/>
       <c r="C489" s="38"/>
@@ -32578,7 +32667,7 @@
       <c r="AV489" s="18"/>
       <c r="AZ489" s="44"/>
     </row>
-    <row r="490" ht="18.75" spans="1:52">
+    <row r="490" ht="17.4" spans="1:52">
       <c r="A490" s="138"/>
       <c r="B490" s="89"/>
       <c r="C490" s="38"/>
@@ -32613,7 +32702,7 @@
       <c r="AV490" s="18"/>
       <c r="AZ490" s="44"/>
     </row>
-    <row r="491" ht="18.75" spans="1:52">
+    <row r="491" ht="17.4" spans="1:52">
       <c r="A491" s="138"/>
       <c r="B491" s="89"/>
       <c r="C491" s="38"/>
@@ -32648,7 +32737,7 @@
       <c r="AV491" s="18"/>
       <c r="AZ491" s="44"/>
     </row>
-    <row r="492" ht="18.75" spans="1:52">
+    <row r="492" ht="17.4" spans="1:52">
       <c r="A492" s="138"/>
       <c r="B492" s="89"/>
       <c r="C492" s="38"/>
@@ -32683,7 +32772,7 @@
       <c r="AV492" s="18"/>
       <c r="AZ492" s="44"/>
     </row>
-    <row r="493" ht="18.75" spans="1:52">
+    <row r="493" ht="17.4" spans="1:52">
       <c r="A493" s="138"/>
       <c r="B493" s="89"/>
       <c r="C493" s="38"/>
@@ -32718,7 +32807,7 @@
       <c r="AV493" s="18"/>
       <c r="AZ493" s="44"/>
     </row>
-    <row r="494" ht="18.75" spans="1:52">
+    <row r="494" ht="17.4" spans="1:52">
       <c r="A494" s="138"/>
       <c r="B494" s="89"/>
       <c r="C494" s="38"/>
@@ -32753,7 +32842,7 @@
       <c r="AV494" s="18"/>
       <c r="AZ494" s="44"/>
     </row>
-    <row r="495" ht="18.75" spans="1:52">
+    <row r="495" ht="17.4" spans="1:52">
       <c r="A495" s="138"/>
       <c r="B495" s="89"/>
       <c r="C495" s="38"/>
@@ -32788,7 +32877,7 @@
       <c r="AV495" s="82"/>
       <c r="AZ495" s="44"/>
     </row>
-    <row r="496" ht="18.75" spans="1:52">
+    <row r="496" ht="17.4" spans="1:52">
       <c r="A496" s="138"/>
       <c r="B496" s="89"/>
       <c r="C496" s="38"/>
@@ -32823,7 +32912,7 @@
       <c r="AV496" s="18"/>
       <c r="AZ496" s="44"/>
     </row>
-    <row r="497" ht="18.75" spans="1:52">
+    <row r="497" ht="17.4" spans="1:52">
       <c r="A497" s="138"/>
       <c r="B497" s="89"/>
       <c r="C497" s="38"/>
@@ -32858,7 +32947,7 @@
       <c r="AV497" s="18"/>
       <c r="AZ497" s="44"/>
     </row>
-    <row r="498" ht="18.75" spans="1:52">
+    <row r="498" ht="17.4" spans="1:52">
       <c r="A498" s="138"/>
       <c r="B498" s="89"/>
       <c r="C498" s="38"/>
@@ -32893,7 +32982,7 @@
       <c r="AV498" s="18"/>
       <c r="AZ498" s="44"/>
     </row>
-    <row r="499" ht="18.75" spans="1:52">
+    <row r="499" ht="17.4" spans="1:52">
       <c r="A499" s="138"/>
       <c r="B499" s="89"/>
       <c r="C499" s="38"/>
@@ -32928,7 +33017,7 @@
       <c r="AV499" s="18"/>
       <c r="AZ499" s="44"/>
     </row>
-    <row r="500" ht="18.75" spans="1:52">
+    <row r="500" ht="17.4" spans="1:52">
       <c r="A500" s="138"/>
       <c r="B500" s="89"/>
       <c r="C500" s="38"/>
@@ -32963,7 +33052,7 @@
       <c r="AV500" s="82"/>
       <c r="AZ500" s="44"/>
     </row>
-    <row r="501" ht="18.75" spans="1:52">
+    <row r="501" ht="17.4" spans="1:52">
       <c r="A501" s="138"/>
       <c r="B501" s="89"/>
       <c r="C501" s="38"/>
@@ -32998,7 +33087,7 @@
       <c r="AV501" s="18"/>
       <c r="AZ501" s="44"/>
     </row>
-    <row r="502" ht="18.75" spans="1:52">
+    <row r="502" ht="17.4" spans="1:52">
       <c r="A502" s="138"/>
       <c r="B502" s="89"/>
       <c r="C502" s="38"/>
@@ -33033,7 +33122,7 @@
       <c r="AV502" s="18"/>
       <c r="AZ502" s="18"/>
     </row>
-    <row r="503" ht="18.75" spans="1:52">
+    <row r="503" ht="17.4" spans="1:52">
       <c r="A503" s="138"/>
       <c r="B503" s="89"/>
       <c r="C503" s="38"/>
@@ -33068,7 +33157,7 @@
       <c r="AV503" s="18"/>
       <c r="AZ503" s="44"/>
     </row>
-    <row r="504" ht="18.75" spans="1:52">
+    <row r="504" ht="17.4" spans="1:52">
       <c r="A504" s="138"/>
       <c r="B504" s="89"/>
       <c r="C504" s="38"/>
@@ -33103,7 +33192,7 @@
       <c r="AV504" s="18"/>
       <c r="AZ504" s="44"/>
     </row>
-    <row r="505" ht="18.75" spans="1:52">
+    <row r="505" ht="17.4" spans="1:52">
       <c r="A505" s="138"/>
       <c r="B505" s="89"/>
       <c r="C505" s="38"/>
@@ -33138,7 +33227,7 @@
       <c r="AV505" s="18"/>
       <c r="AZ505" s="18"/>
     </row>
-    <row r="506" ht="18.75" spans="1:52">
+    <row r="506" ht="17.4" spans="1:52">
       <c r="A506" s="138"/>
       <c r="B506" s="89"/>
       <c r="C506" s="38"/>
@@ -33173,7 +33262,7 @@
       <c r="AV506" s="18"/>
       <c r="AZ506" s="44"/>
     </row>
-    <row r="507" ht="18.75" spans="1:52">
+    <row r="507" ht="17.4" spans="1:52">
       <c r="A507" s="138"/>
       <c r="B507" s="89"/>
       <c r="C507" s="38"/>
@@ -33208,7 +33297,7 @@
       <c r="AV507" s="18"/>
       <c r="AZ507" s="44"/>
     </row>
-    <row r="508" ht="18.75" spans="1:52">
+    <row r="508" ht="17.4" spans="1:52">
       <c r="A508" s="138"/>
       <c r="B508" s="89"/>
       <c r="C508" s="38"/>
@@ -33243,7 +33332,7 @@
       <c r="AV508" s="18"/>
       <c r="AZ508" s="44"/>
     </row>
-    <row r="509" ht="18.75" spans="1:52">
+    <row r="509" ht="17.4" spans="1:52">
       <c r="A509" s="138"/>
       <c r="B509" s="89"/>
       <c r="C509" s="38"/>
@@ -33278,7 +33367,7 @@
       <c r="AV509" s="18"/>
       <c r="AZ509" s="44"/>
     </row>
-    <row r="510" ht="18.75" spans="1:52">
+    <row r="510" ht="17.4" spans="1:52">
       <c r="A510" s="138"/>
       <c r="B510" s="89"/>
       <c r="C510" s="38"/>
@@ -33313,7 +33402,7 @@
       <c r="AV510" s="18"/>
       <c r="AZ510" s="44"/>
     </row>
-    <row r="511" ht="18.75" spans="1:52">
+    <row r="511" ht="17.4" spans="1:52">
       <c r="A511" s="138"/>
       <c r="B511" s="89"/>
       <c r="C511" s="38"/>
@@ -33348,7 +33437,7 @@
       <c r="AV511" s="18"/>
       <c r="AZ511" s="18"/>
     </row>
-    <row r="512" ht="18.75" spans="1:52">
+    <row r="512" ht="17.4" spans="1:52">
       <c r="A512" s="138"/>
       <c r="B512" s="89"/>
       <c r="C512" s="38"/>
@@ -33383,7 +33472,7 @@
       <c r="AV512" s="18"/>
       <c r="AZ512" s="44"/>
     </row>
-    <row r="513" ht="18.75" spans="1:52">
+    <row r="513" ht="17.4" spans="1:52">
       <c r="A513" s="138"/>
       <c r="B513" s="89"/>
       <c r="C513" s="38"/>
@@ -33418,7 +33507,7 @@
       <c r="AV513" s="18"/>
       <c r="AZ513" s="18"/>
     </row>
-    <row r="514" ht="18.75" spans="1:52">
+    <row r="514" ht="17.4" spans="1:52">
       <c r="A514" s="138"/>
       <c r="B514" s="89"/>
       <c r="C514" s="38"/>
@@ -33453,7 +33542,7 @@
       <c r="AV514" s="82"/>
       <c r="AZ514" s="44"/>
     </row>
-    <row r="515" ht="18.75" spans="1:52">
+    <row r="515" ht="17.4" spans="1:52">
       <c r="A515" s="138"/>
       <c r="B515" s="89"/>
       <c r="C515" s="38"/>
@@ -33488,7 +33577,7 @@
       <c r="AV515" s="18"/>
       <c r="AZ515" s="44"/>
     </row>
-    <row r="516" ht="18.75" spans="1:52">
+    <row r="516" ht="17.4" spans="1:52">
       <c r="A516" s="138"/>
       <c r="B516" s="89"/>
       <c r="C516" s="38"/>
@@ -33523,7 +33612,7 @@
       <c r="AV516" s="18"/>
       <c r="AZ516" s="44"/>
     </row>
-    <row r="517" ht="18.75" spans="1:52">
+    <row r="517" ht="17.4" spans="1:52">
       <c r="A517" s="138"/>
       <c r="B517" s="89"/>
       <c r="C517" s="38"/>
@@ -33558,7 +33647,7 @@
       <c r="AV517" s="82"/>
       <c r="AZ517" s="44"/>
     </row>
-    <row r="518" ht="18.75" spans="1:52">
+    <row r="518" ht="17.4" spans="1:52">
       <c r="A518" s="138"/>
       <c r="B518" s="89"/>
       <c r="C518" s="38"/>
@@ -33593,7 +33682,7 @@
       <c r="AV518" s="18"/>
       <c r="AZ518" s="44"/>
     </row>
-    <row r="519" ht="18.75" spans="1:52">
+    <row r="519" ht="17.4" spans="1:52">
       <c r="A519" s="138"/>
       <c r="B519" s="89"/>
       <c r="C519" s="38"/>
@@ -33628,7 +33717,7 @@
       <c r="AV519" s="18"/>
       <c r="AZ519" s="44"/>
     </row>
-    <row r="520" ht="18.75" spans="1:52">
+    <row r="520" ht="17.4" spans="1:52">
       <c r="A520" s="138"/>
       <c r="B520" s="89"/>
       <c r="C520" s="38"/>
@@ -33663,7 +33752,7 @@
       <c r="AV520" s="82"/>
       <c r="AZ520" s="44"/>
     </row>
-    <row r="521" ht="18.75" spans="1:52">
+    <row r="521" ht="17.4" spans="1:52">
       <c r="A521" s="138"/>
       <c r="B521" s="89"/>
       <c r="C521" s="38"/>
@@ -33698,7 +33787,7 @@
       <c r="AV521" s="18"/>
       <c r="AZ521" s="18"/>
     </row>
-    <row r="522" ht="18.75" spans="1:52">
+    <row r="522" ht="17.4" spans="1:52">
       <c r="A522" s="138"/>
       <c r="B522" s="89"/>
       <c r="C522" s="38"/>
@@ -33733,7 +33822,7 @@
       <c r="AV522" s="18"/>
       <c r="AZ522" s="44"/>
     </row>
-    <row r="523" ht="18.75" spans="1:52">
+    <row r="523" ht="17.4" spans="1:52">
       <c r="A523" s="138"/>
       <c r="B523" s="89"/>
       <c r="C523" s="38"/>
@@ -33768,7 +33857,7 @@
       <c r="AV523" s="18"/>
       <c r="AZ523" s="18"/>
     </row>
-    <row r="524" ht="18.75" spans="1:52">
+    <row r="524" ht="17.4" spans="1:52">
       <c r="A524" s="138"/>
       <c r="B524" s="89"/>
       <c r="C524" s="38"/>
@@ -33803,7 +33892,7 @@
       <c r="AV524" s="18"/>
       <c r="AZ524" s="44"/>
     </row>
-    <row r="525" ht="18.75" spans="1:52">
+    <row r="525" ht="17.4" spans="1:52">
       <c r="A525" s="138"/>
       <c r="B525" s="89"/>
       <c r="C525" s="38"/>
@@ -33838,7 +33927,7 @@
       <c r="AV525" s="18"/>
       <c r="AZ525" s="44"/>
     </row>
-    <row r="526" ht="18.75" spans="1:52">
+    <row r="526" ht="17.4" spans="1:52">
       <c r="A526" s="138"/>
       <c r="B526" s="89"/>
       <c r="C526" s="38"/>
@@ -33873,7 +33962,7 @@
       <c r="AV526" s="18"/>
       <c r="AZ526" s="44"/>
     </row>
-    <row r="527" ht="18.75" spans="1:52">
+    <row r="527" ht="17.4" spans="1:52">
       <c r="A527" s="138"/>
       <c r="B527" s="89"/>
       <c r="C527" s="38"/>
@@ -33908,7 +33997,7 @@
       <c r="AV527" s="18"/>
       <c r="AZ527" s="44"/>
     </row>
-    <row r="528" ht="18.75" spans="1:52">
+    <row r="528" ht="17.4" spans="1:52">
       <c r="A528" s="138"/>
       <c r="B528" s="89"/>
       <c r="C528" s="38"/>
@@ -33943,7 +34032,7 @@
       <c r="AV528" s="18"/>
       <c r="AZ528" s="44"/>
     </row>
-    <row r="529" ht="18.75" spans="1:52">
+    <row r="529" ht="17.4" spans="1:52">
       <c r="A529" s="138"/>
       <c r="B529" s="89"/>
       <c r="C529" s="38"/>
@@ -33978,7 +34067,7 @@
       <c r="AV529" s="18"/>
       <c r="AZ529" s="44"/>
     </row>
-    <row r="530" ht="18.75" spans="1:52">
+    <row r="530" ht="17.4" spans="1:52">
       <c r="A530" s="138"/>
       <c r="B530" s="89"/>
       <c r="C530" s="38"/>
@@ -34013,7 +34102,7 @@
       <c r="AV530" s="18"/>
       <c r="AZ530" s="18"/>
     </row>
-    <row r="531" ht="18.75" spans="1:52">
+    <row r="531" ht="17.4" spans="1:52">
       <c r="A531" s="138"/>
       <c r="B531" s="89"/>
       <c r="C531" s="38"/>
@@ -34048,7 +34137,7 @@
       <c r="AV531" s="18"/>
       <c r="AZ531" s="44"/>
     </row>
-    <row r="532" ht="18.75" spans="1:52">
+    <row r="532" ht="17.4" spans="1:52">
       <c r="A532" s="138"/>
       <c r="B532" s="89"/>
       <c r="C532" s="38"/>
@@ -34083,7 +34172,7 @@
       <c r="AV532" s="82"/>
       <c r="AZ532" s="44"/>
     </row>
-    <row r="533" ht="18.75" spans="1:52">
+    <row r="533" ht="17.4" spans="1:52">
       <c r="A533" s="138"/>
       <c r="B533" s="89"/>
       <c r="C533" s="38"/>
@@ -34118,7 +34207,7 @@
       <c r="AV533" s="18"/>
       <c r="AZ533" s="44"/>
     </row>
-    <row r="534" ht="18.75" spans="1:52">
+    <row r="534" ht="17.4" spans="1:52">
       <c r="A534" s="138"/>
       <c r="B534" s="89"/>
       <c r="C534" s="38"/>
@@ -34153,7 +34242,7 @@
       <c r="AV534" s="18"/>
       <c r="AZ534" s="44"/>
     </row>
-    <row r="535" ht="18.75" spans="1:52">
+    <row r="535" ht="17.4" spans="1:52">
       <c r="A535" s="138"/>
       <c r="B535" s="89"/>
       <c r="C535" s="38"/>
@@ -34188,7 +34277,7 @@
       <c r="AV535" s="18"/>
       <c r="AZ535" s="44"/>
     </row>
-    <row r="536" ht="18.75" spans="1:52">
+    <row r="536" ht="17.4" spans="1:52">
       <c r="A536" s="138"/>
       <c r="B536" s="89"/>
       <c r="C536" s="38"/>
@@ -34223,7 +34312,7 @@
       <c r="AV536" s="18"/>
       <c r="AZ536" s="18"/>
     </row>
-    <row r="537" ht="18.75" spans="1:52">
+    <row r="537" ht="17.4" spans="1:52">
       <c r="A537" s="138"/>
       <c r="B537" s="89"/>
       <c r="C537" s="38"/>
@@ -34258,7 +34347,7 @@
       <c r="AV537" s="18"/>
       <c r="AZ537" s="18"/>
     </row>
-    <row r="538" ht="18.75" spans="1:52">
+    <row r="538" ht="17.4" spans="1:52">
       <c r="A538" s="138"/>
       <c r="B538" s="89"/>
       <c r="C538" s="38"/>
@@ -34293,7 +34382,7 @@
       <c r="AV538" s="18"/>
       <c r="AZ538" s="18"/>
     </row>
-    <row r="539" ht="18.75" spans="1:52">
+    <row r="539" ht="17.4" spans="1:52">
       <c r="A539" s="138"/>
       <c r="B539" s="89"/>
       <c r="C539" s="38"/>
@@ -34328,7 +34417,7 @@
       <c r="AV539" s="18"/>
       <c r="AZ539" s="18"/>
     </row>
-    <row r="540" ht="18.75" spans="1:52">
+    <row r="540" ht="17.4" spans="1:52">
       <c r="A540" s="138"/>
       <c r="B540" s="89"/>
       <c r="C540" s="38"/>
@@ -34363,7 +34452,7 @@
       <c r="AV540" s="18"/>
       <c r="AZ540" s="44"/>
     </row>
-    <row r="541" ht="18.75" spans="1:52">
+    <row r="541" ht="17.4" spans="1:52">
       <c r="A541" s="138"/>
       <c r="B541" s="89"/>
       <c r="C541" s="38"/>
@@ -34398,7 +34487,7 @@
       <c r="AV541" s="18"/>
       <c r="AZ541" s="18"/>
     </row>
-    <row r="542" ht="18.75" spans="1:52">
+    <row r="542" ht="17.4" spans="1:52">
       <c r="A542" s="138"/>
       <c r="B542" s="89"/>
       <c r="C542" s="38"/>
@@ -34433,7 +34522,7 @@
       <c r="AV542" s="18"/>
       <c r="AZ542" s="18"/>
     </row>
-    <row r="543" ht="18.75" spans="1:52">
+    <row r="543" ht="17.4" spans="1:52">
       <c r="A543" s="138"/>
       <c r="B543" s="89"/>
       <c r="C543" s="38"/>
@@ -34468,7 +34557,7 @@
       <c r="AV543" s="18"/>
       <c r="AZ543" s="44"/>
     </row>
-    <row r="544" ht="18.75" spans="1:52">
+    <row r="544" ht="17.4" spans="1:52">
       <c r="A544" s="138"/>
       <c r="B544" s="89"/>
       <c r="C544" s="38"/>
@@ -34503,7 +34592,7 @@
       <c r="AV544" s="18"/>
       <c r="AZ544" s="44"/>
     </row>
-    <row r="545" ht="18.75" spans="1:52">
+    <row r="545" ht="17.4" spans="1:52">
       <c r="A545" s="138"/>
       <c r="B545" s="89"/>
       <c r="C545" s="38"/>
@@ -34538,7 +34627,7 @@
       <c r="AV545" s="18"/>
       <c r="AZ545" s="44"/>
     </row>
-    <row r="546" ht="18.75" spans="1:52">
+    <row r="546" ht="17.4" spans="1:52">
       <c r="A546" s="138"/>
       <c r="B546" s="89"/>
       <c r="C546" s="38"/>
@@ -34573,7 +34662,7 @@
       <c r="AV546" s="18"/>
       <c r="AZ546" s="44"/>
     </row>
-    <row r="547" ht="18.75" spans="1:52">
+    <row r="547" ht="17.4" spans="1:52">
       <c r="A547" s="138"/>
       <c r="B547" s="89"/>
       <c r="C547" s="38"/>
@@ -34608,7 +34697,7 @@
       <c r="AV547" s="18"/>
       <c r="AZ547" s="44"/>
     </row>
-    <row r="548" ht="18.75" spans="1:52">
+    <row r="548" ht="17.4" spans="1:52">
       <c r="A548" s="138"/>
       <c r="B548" s="89"/>
       <c r="C548" s="38"/>
@@ -34643,7 +34732,7 @@
       <c r="AV548" s="18"/>
       <c r="AZ548" s="44"/>
     </row>
-    <row r="549" ht="18.75" spans="1:52">
+    <row r="549" ht="17.4" spans="1:52">
       <c r="A549" s="138"/>
       <c r="B549" s="89"/>
       <c r="C549" s="38"/>
@@ -34678,7 +34767,7 @@
       <c r="AV549" s="18"/>
       <c r="AZ549" s="44"/>
     </row>
-    <row r="550" ht="18.75" spans="1:52">
+    <row r="550" ht="17.4" spans="1:52">
       <c r="A550" s="138"/>
       <c r="B550" s="89"/>
       <c r="C550" s="38"/>
@@ -34712,7 +34801,7 @@
       <c r="AV550" s="18"/>
       <c r="AZ550" s="44"/>
     </row>
-    <row r="551" ht="18.75" spans="1:52">
+    <row r="551" ht="17.4" spans="1:52">
       <c r="A551" s="138"/>
       <c r="B551" s="89"/>
       <c r="C551" s="38"/>
@@ -34746,7 +34835,7 @@
       <c r="AV551" s="18"/>
       <c r="AZ551" s="44"/>
     </row>
-    <row r="552" ht="18.75" spans="1:52">
+    <row r="552" ht="17.4" spans="1:52">
       <c r="A552" s="138"/>
       <c r="B552" s="89"/>
       <c r="C552" s="38"/>
@@ -34780,7 +34869,7 @@
       <c r="AV552" s="18"/>
       <c r="AZ552" s="44"/>
     </row>
-    <row r="553" ht="18.75" spans="1:52">
+    <row r="553" ht="17.4" spans="1:52">
       <c r="A553" s="138"/>
       <c r="B553" s="89"/>
       <c r="C553" s="38"/>
@@ -34814,7 +34903,7 @@
       <c r="AV553" s="82"/>
       <c r="AZ553" s="44"/>
     </row>
-    <row r="554" ht="18.75" spans="1:52">
+    <row r="554" ht="17.4" spans="1:52">
       <c r="A554" s="138"/>
       <c r="B554" s="89"/>
       <c r="C554" s="38"/>
@@ -34848,7 +34937,7 @@
       <c r="AV554" s="18"/>
       <c r="AZ554" s="44"/>
     </row>
-    <row r="555" ht="18.75" spans="1:52">
+    <row r="555" ht="17.4" spans="1:52">
       <c r="A555" s="138"/>
       <c r="B555" s="89"/>
       <c r="C555" s="38"/>
@@ -34882,7 +34971,7 @@
       <c r="AV555" s="18"/>
       <c r="AZ555" s="44"/>
     </row>
-    <row r="556" ht="18.75" spans="1:52">
+    <row r="556" ht="17.4" spans="1:52">
       <c r="A556" s="138"/>
       <c r="B556" s="89"/>
       <c r="C556" s="38"/>
@@ -34916,7 +35005,7 @@
       <c r="AV556" s="18"/>
       <c r="AZ556" s="44"/>
     </row>
-    <row r="557" ht="18.75" spans="1:52">
+    <row r="557" ht="17.4" spans="1:52">
       <c r="A557" s="138"/>
       <c r="B557" s="89"/>
       <c r="C557" s="38"/>
@@ -34950,7 +35039,7 @@
       <c r="AV557" s="18"/>
       <c r="AZ557" s="44"/>
     </row>
-    <row r="558" ht="18.75" spans="1:52">
+    <row r="558" ht="17.4" spans="1:52">
       <c r="A558" s="138"/>
       <c r="B558" s="89"/>
       <c r="C558" s="38"/>
@@ -34984,7 +35073,7 @@
       <c r="AV558" s="18"/>
       <c r="AZ558" s="44"/>
     </row>
-    <row r="559" ht="18.75" spans="1:52">
+    <row r="559" ht="17.4" spans="1:52">
       <c r="A559" s="138"/>
       <c r="B559" s="89"/>
       <c r="C559" s="38"/>
@@ -35018,7 +35107,7 @@
       <c r="AV559" s="18"/>
       <c r="AZ559" s="44"/>
     </row>
-    <row r="560" ht="18.75" spans="1:52">
+    <row r="560" ht="17.4" spans="1:52">
       <c r="A560" s="138"/>
       <c r="B560" s="89"/>
       <c r="C560" s="38"/>
@@ -35052,7 +35141,7 @@
       <c r="AV560" s="18"/>
       <c r="AZ560" s="18"/>
     </row>
-    <row r="561" ht="18.75" spans="1:52">
+    <row r="561" ht="17.4" spans="1:52">
       <c r="A561" s="138"/>
       <c r="B561" s="89"/>
       <c r="C561" s="38"/>
@@ -35086,7 +35175,7 @@
       <c r="AV561" s="18"/>
       <c r="AZ561" s="18"/>
     </row>
-    <row r="562" ht="18.75" spans="1:52">
+    <row r="562" ht="17.4" spans="1:52">
       <c r="A562" s="138"/>
       <c r="B562" s="89"/>
       <c r="C562" s="38"/>
@@ -35120,7 +35209,7 @@
       <c r="AV562" s="18"/>
       <c r="AZ562" s="44"/>
     </row>
-    <row r="563" ht="18.75" spans="1:52">
+    <row r="563" ht="17.4" spans="1:52">
       <c r="A563" s="138"/>
       <c r="B563" s="89"/>
       <c r="C563" s="38"/>
@@ -35154,7 +35243,7 @@
       <c r="AV563" s="18"/>
       <c r="AZ563" s="44"/>
     </row>
-    <row r="564" ht="18.75" spans="1:52">
+    <row r="564" ht="17.4" spans="1:52">
       <c r="A564" s="138"/>
       <c r="B564" s="89"/>
       <c r="C564" s="38"/>
@@ -35188,7 +35277,7 @@
       <c r="AV564" s="18"/>
       <c r="AZ564" s="44"/>
     </row>
-    <row r="565" ht="18.75" spans="1:52">
+    <row r="565" ht="17.4" spans="1:52">
       <c r="A565" s="138"/>
       <c r="B565" s="89"/>
       <c r="C565" s="38"/>
@@ -35222,7 +35311,7 @@
       <c r="AV565" s="18"/>
       <c r="AZ565" s="18"/>
     </row>
-    <row r="566" ht="18.75" spans="1:52">
+    <row r="566" ht="17.4" spans="1:52">
       <c r="A566" s="138"/>
       <c r="B566" s="89"/>
       <c r="C566" s="38"/>
@@ -35256,7 +35345,7 @@
       <c r="AV566" s="18"/>
       <c r="AZ566" s="18"/>
     </row>
-    <row r="567" ht="18.75" spans="1:52">
+    <row r="567" ht="17.4" spans="1:52">
       <c r="A567" s="138"/>
       <c r="B567" s="89"/>
       <c r="C567" s="38"/>
@@ -35290,7 +35379,7 @@
       <c r="AV567" s="18"/>
       <c r="AZ567" s="44"/>
     </row>
-    <row r="568" ht="18.75" spans="1:52">
+    <row r="568" ht="17.4" spans="1:52">
       <c r="A568" s="138"/>
       <c r="B568" s="89"/>
       <c r="C568" s="38"/>
@@ -35324,7 +35413,7 @@
       <c r="AV568" s="18"/>
       <c r="AZ568" s="44"/>
     </row>
-    <row r="569" ht="18.75" spans="1:52">
+    <row r="569" ht="17.4" spans="1:52">
       <c r="A569" s="138"/>
       <c r="B569" s="89"/>
       <c r="C569" s="38"/>
@@ -35358,7 +35447,7 @@
       <c r="AV569" s="18"/>
       <c r="AZ569" s="44"/>
     </row>
-    <row r="570" ht="18.75" spans="1:52">
+    <row r="570" ht="17.4" spans="1:52">
       <c r="A570" s="138"/>
       <c r="B570" s="89"/>
       <c r="C570" s="38"/>
@@ -35392,7 +35481,7 @@
       <c r="AV570" s="18"/>
       <c r="AZ570" s="44"/>
     </row>
-    <row r="571" ht="18.75" spans="1:52">
+    <row r="571" ht="17.4" spans="1:52">
       <c r="A571" s="138"/>
       <c r="B571" s="89"/>
       <c r="C571" s="38"/>
@@ -35426,7 +35515,7 @@
       <c r="AV571" s="18"/>
       <c r="AZ571" s="44"/>
     </row>
-    <row r="572" ht="18.75" spans="1:52">
+    <row r="572" ht="17.4" spans="1:52">
       <c r="A572" s="138"/>
       <c r="B572" s="89"/>
       <c r="C572" s="38"/>
@@ -35460,7 +35549,7 @@
       <c r="AV572" s="18"/>
       <c r="AZ572" s="18"/>
     </row>
-    <row r="573" ht="18.75" spans="1:52">
+    <row r="573" ht="17.4" spans="1:52">
       <c r="A573" s="138"/>
       <c r="B573" s="89"/>
       <c r="C573" s="135"/>
@@ -35528,7 +35617,7 @@
       <c r="AV574" s="102"/>
       <c r="AZ574" s="44"/>
     </row>
-    <row r="575" ht="18.75" spans="1:52">
+    <row r="575" ht="17.4" spans="1:52">
       <c r="A575" s="138"/>
       <c r="B575" s="50"/>
       <c r="C575" s="18"/>
@@ -35562,7 +35651,7 @@
       <c r="AV575" s="18"/>
       <c r="AZ575" s="44"/>
     </row>
-    <row r="576" ht="18.75" spans="1:52">
+    <row r="576" ht="17.4" spans="1:52">
       <c r="A576" s="138"/>
       <c r="B576" s="18"/>
       <c r="C576" s="18"/>
@@ -35596,7 +35685,7 @@
       <c r="AV576" s="18"/>
       <c r="AZ576" s="44"/>
     </row>
-    <row r="577" ht="18.75" spans="1:52">
+    <row r="577" ht="17.4" spans="1:52">
       <c r="A577" s="138"/>
       <c r="B577" s="18"/>
       <c r="C577" s="18"/>
@@ -35630,7 +35719,7 @@
       <c r="AV577" s="18"/>
       <c r="AZ577" s="44"/>
     </row>
-    <row r="578" ht="18.75" spans="1:52">
+    <row r="578" ht="17.4" spans="1:52">
       <c r="A578" s="138"/>
       <c r="B578" s="18"/>
       <c r="C578" s="18"/>
@@ -35664,7 +35753,7 @@
       <c r="AV578" s="18"/>
       <c r="AZ578" s="44"/>
     </row>
-    <row r="579" ht="18.75" spans="1:52">
+    <row r="579" ht="17.4" spans="1:52">
       <c r="A579" s="138"/>
       <c r="B579" s="18"/>
       <c r="C579" s="18"/>
@@ -35698,7 +35787,7 @@
       <c r="AV579" s="18"/>
       <c r="AZ579" s="44"/>
     </row>
-    <row r="580" ht="18.75" spans="1:52">
+    <row r="580" ht="17.4" spans="1:52">
       <c r="A580" s="138"/>
       <c r="B580" s="18"/>
       <c r="C580" s="89"/>
@@ -35732,7 +35821,7 @@
       <c r="AV580" s="89"/>
       <c r="AZ580" s="44"/>
     </row>
-    <row r="581" ht="18.75" spans="1:52">
+    <row r="581" ht="17.4" spans="1:52">
       <c r="A581" s="138"/>
       <c r="B581" s="18"/>
       <c r="C581" s="18"/>
@@ -35766,7 +35855,7 @@
       <c r="AV581" s="18"/>
       <c r="AZ581" s="44"/>
     </row>
-    <row r="582" ht="18.75" spans="1:52">
+    <row r="582" ht="17.4" spans="1:52">
       <c r="A582" s="138"/>
       <c r="B582" s="18"/>
       <c r="C582" s="18"/>
@@ -35800,7 +35889,7 @@
       <c r="AV582" s="18"/>
       <c r="AZ582" s="44"/>
     </row>
-    <row r="583" ht="18.75" spans="1:52">
+    <row r="583" ht="17.4" spans="1:52">
       <c r="A583" s="138"/>
       <c r="B583" s="137"/>
       <c r="C583" s="137"/>
@@ -35834,7 +35923,7 @@
       <c r="AV583" s="91"/>
       <c r="AZ583" s="137"/>
     </row>
-    <row r="584" ht="18.75" spans="1:52">
+    <row r="584" ht="17.4" spans="1:52">
       <c r="A584" s="138"/>
       <c r="B584" s="137"/>
       <c r="C584" s="137"/>
@@ -35868,7 +35957,7 @@
       <c r="AV584" s="91"/>
       <c r="AZ584" s="44"/>
     </row>
-    <row r="585" ht="18.75" spans="1:52">
+    <row r="585" ht="17.4" spans="1:52">
       <c r="A585" s="138"/>
       <c r="B585" s="137"/>
       <c r="C585" s="137"/>
@@ -35902,7 +35991,7 @@
       <c r="AV585" s="91"/>
       <c r="AZ585" s="44"/>
     </row>
-    <row r="586" ht="18.75" spans="1:52">
+    <row r="586" ht="17.4" spans="1:52">
       <c r="A586" s="138"/>
       <c r="B586" s="137"/>
       <c r="C586" s="137"/>
@@ -35936,7 +36025,7 @@
       <c r="AV586" s="91"/>
       <c r="AZ586" s="44"/>
     </row>
-    <row r="587" ht="18.75" spans="1:52">
+    <row r="587" ht="17.4" spans="1:52">
       <c r="A587" s="138"/>
       <c r="B587" s="173"/>
       <c r="C587" s="18"/>
@@ -35970,7 +36059,7 @@
       <c r="AV587" s="18"/>
       <c r="AZ587" s="18"/>
     </row>
-    <row r="588" ht="18.75" spans="1:52">
+    <row r="588" ht="17.4" spans="1:52">
       <c r="A588" s="138"/>
       <c r="B588" s="173"/>
       <c r="C588" s="18"/>
@@ -36004,7 +36093,7 @@
       <c r="AV588" s="18"/>
       <c r="AZ588" s="18"/>
     </row>
-    <row r="589" ht="18.75" spans="1:52">
+    <row r="589" ht="17.4" spans="1:52">
       <c r="A589" s="138"/>
       <c r="B589" s="173"/>
       <c r="C589" s="18"/>
@@ -36038,7 +36127,7 @@
       <c r="AV589" s="18"/>
       <c r="AZ589" s="18"/>
     </row>
-    <row r="590" ht="18.75" spans="1:52">
+    <row r="590" ht="17.4" spans="1:52">
       <c r="A590" s="138"/>
       <c r="B590" s="173"/>
       <c r="C590" s="18"/>
@@ -36072,7 +36161,7 @@
       <c r="AV590" s="18"/>
       <c r="AZ590" s="18"/>
     </row>
-    <row r="591" ht="18.75" spans="1:52">
+    <row r="591" ht="17.4" spans="1:52">
       <c r="A591" s="138"/>
       <c r="B591" s="173"/>
       <c r="C591" s="89"/>
@@ -36106,7 +36195,7 @@
       <c r="AV591" s="89"/>
       <c r="AZ591" s="18"/>
     </row>
-    <row r="592" ht="18.75" spans="1:52">
+    <row r="592" ht="17.4" spans="1:52">
       <c r="A592" s="138"/>
       <c r="B592" s="173"/>
       <c r="C592" s="18"/>
@@ -36140,7 +36229,7 @@
       <c r="AV592" s="18"/>
       <c r="AZ592" s="18"/>
     </row>
-    <row r="593" ht="18.75" spans="1:52">
+    <row r="593" ht="17.4" spans="1:52">
       <c r="A593" s="138"/>
       <c r="B593" s="173"/>
       <c r="C593" s="18"/>
@@ -36174,7 +36263,7 @@
       <c r="AV593" s="18"/>
       <c r="AZ593" s="18"/>
     </row>
-    <row r="594" ht="18.75" spans="1:52">
+    <row r="594" ht="17.4" spans="1:52">
       <c r="A594" s="138"/>
       <c r="B594" s="175"/>
       <c r="C594" s="176"/>
@@ -36208,7 +36297,7 @@
       <c r="AV594" s="174"/>
       <c r="AZ594" s="44"/>
     </row>
-    <row r="595" ht="18.75" spans="1:52">
+    <row r="595" ht="17.4" spans="1:52">
       <c r="A595" s="138"/>
       <c r="B595" s="173"/>
       <c r="C595" s="137"/>
@@ -36242,7 +36331,7 @@
       <c r="AV595" s="18"/>
       <c r="AZ595" s="44"/>
     </row>
-    <row r="596" ht="18.75" spans="1:52">
+    <row r="596" ht="17.4" spans="1:52">
       <c r="A596" s="138"/>
       <c r="B596" s="173"/>
       <c r="C596" s="176"/>
@@ -36276,7 +36365,7 @@
       <c r="AV596" s="174"/>
       <c r="AZ596" s="44"/>
     </row>
-    <row r="597" ht="18.75" spans="1:52">
+    <row r="597" ht="17.4" spans="1:52">
       <c r="A597" s="138"/>
       <c r="C597" s="18"/>
       <c r="E597" s="18"/>
@@ -36309,7 +36398,7 @@
       <c r="AV597" s="18"/>
       <c r="AZ597" s="44"/>
     </row>
-    <row r="598" ht="18.75" spans="1:52">
+    <row r="598" ht="17.4" spans="1:52">
       <c r="A598" s="138"/>
       <c r="B598" s="5"/>
       <c r="C598" s="102"/>
@@ -36343,7 +36432,7 @@
       <c r="AV598" s="102"/>
       <c r="AZ598" s="44"/>
     </row>
-    <row r="599" ht="18.75" spans="1:52">
+    <row r="599" ht="17.4" spans="1:52">
       <c r="A599" s="138"/>
       <c r="C599" s="18"/>
       <c r="E599" s="102"/>
@@ -36376,7 +36465,7 @@
       <c r="AV599" s="102"/>
       <c r="AZ599" s="44"/>
     </row>
-    <row r="600" ht="18.75" spans="1:52">
+    <row r="600" ht="17.4" spans="1:52">
       <c r="A600" s="138"/>
       <c r="C600" s="18"/>
       <c r="E600" s="102"/>
@@ -36409,7 +36498,7 @@
       <c r="AV600" s="102"/>
       <c r="AZ600" s="44"/>
     </row>
-    <row r="601" ht="18.75" spans="1:52">
+    <row r="601" ht="17.4" spans="1:52">
       <c r="A601" s="138"/>
       <c r="C601" s="18"/>
       <c r="E601" s="102"/>
@@ -36442,7 +36531,7 @@
       <c r="AV601" s="102"/>
       <c r="AZ601" s="44"/>
     </row>
-    <row r="602" ht="18.75" spans="1:52">
+    <row r="602" ht="17.4" spans="1:52">
       <c r="A602" s="138"/>
       <c r="C602" s="18"/>
       <c r="E602" s="178"/>
@@ -36475,7 +36564,7 @@
       <c r="AV602" s="178"/>
       <c r="AZ602" s="44"/>
     </row>
-    <row r="603" ht="18.75" spans="1:52">
+    <row r="603" ht="17.4" spans="1:52">
       <c r="A603" s="138"/>
       <c r="C603" s="18"/>
       <c r="E603" s="38"/>
@@ -36508,7 +36597,7 @@
       <c r="AV603" s="38"/>
       <c r="AZ603" s="44"/>
     </row>
-    <row r="604" ht="18.75" spans="1:52">
+    <row r="604" ht="17.4" spans="1:52">
       <c r="A604" s="138"/>
       <c r="C604" s="18"/>
       <c r="E604" s="136"/>
@@ -36541,7 +36630,7 @@
       <c r="AV604" s="136"/>
       <c r="AZ604" s="44"/>
     </row>
-    <row r="605" ht="18.75" spans="1:52">
+    <row r="605" ht="17.4" spans="1:52">
       <c r="A605" s="138"/>
       <c r="C605" s="18"/>
       <c r="E605" s="136"/>
@@ -36574,7 +36663,7 @@
       <c r="AV605" s="136"/>
       <c r="AZ605" s="44"/>
     </row>
-    <row r="606" ht="18.75" spans="1:52">
+    <row r="606" ht="17.4" spans="1:52">
       <c r="A606" s="138"/>
       <c r="C606" s="18"/>
       <c r="E606" s="136"/>
@@ -36607,7 +36696,7 @@
       <c r="AV606" s="136"/>
       <c r="AZ606" s="44"/>
     </row>
-    <row r="607" ht="18.75" spans="1:52">
+    <row r="607" ht="17.4" spans="1:52">
       <c r="A607" s="138"/>
       <c r="C607" s="18"/>
       <c r="E607" s="136"/>
@@ -36640,7 +36729,7 @@
       <c r="AV607" s="136"/>
       <c r="AZ607" s="44"/>
     </row>
-    <row r="608" ht="18.75" spans="1:52">
+    <row r="608" ht="17.4" spans="1:52">
       <c r="A608" s="138"/>
       <c r="C608" s="18"/>
       <c r="E608" s="136"/>
@@ -36673,7 +36762,7 @@
       <c r="AV608" s="136"/>
       <c r="AZ608" s="44"/>
     </row>
-    <row r="609" ht="18.75" spans="1:52">
+    <row r="609" ht="17.4" spans="1:52">
       <c r="A609" s="138"/>
       <c r="C609" s="18"/>
       <c r="E609" s="136"/>
@@ -36706,7 +36795,7 @@
       <c r="AV609" s="136"/>
       <c r="AZ609" s="44"/>
     </row>
-    <row r="610" ht="18.75" spans="1:52">
+    <row r="610" ht="17.4" spans="1:52">
       <c r="A610" s="138"/>
       <c r="C610" s="18"/>
       <c r="E610" s="136"/>
@@ -36739,7 +36828,7 @@
       <c r="AV610" s="136"/>
       <c r="AZ610" s="44"/>
     </row>
-    <row r="611" ht="18.75" spans="1:52">
+    <row r="611" ht="17.4" spans="1:52">
       <c r="A611" s="138"/>
       <c r="C611" s="18"/>
       <c r="E611" s="136"/>
@@ -36772,7 +36861,7 @@
       <c r="AV611" s="136"/>
       <c r="AZ611" s="44"/>
     </row>
-    <row r="612" ht="18.75" spans="1:52">
+    <row r="612" ht="17.4" spans="1:52">
       <c r="A612" s="138"/>
       <c r="C612" s="18"/>
       <c r="E612" s="136"/>
@@ -36805,7 +36894,7 @@
       <c r="AV612" s="136"/>
       <c r="AZ612" s="44"/>
     </row>
-    <row r="613" ht="18.75" spans="1:52">
+    <row r="613" ht="17.4" spans="1:52">
       <c r="A613" s="138"/>
       <c r="C613" s="18"/>
       <c r="E613" s="136"/>
@@ -36838,7 +36927,7 @@
       <c r="AV613" s="136"/>
       <c r="AZ613" s="44"/>
     </row>
-    <row r="614" ht="18.75" spans="1:52">
+    <row r="614" ht="17.4" spans="1:52">
       <c r="A614" s="138"/>
       <c r="C614" s="18"/>
       <c r="E614" s="136"/>
@@ -36871,7 +36960,7 @@
       <c r="AV614" s="136"/>
       <c r="AZ614" s="44"/>
     </row>
-    <row r="615" ht="18.75" spans="1:52">
+    <row r="615" ht="17.4" spans="1:52">
       <c r="A615" s="138"/>
       <c r="C615" s="18"/>
       <c r="E615" s="136"/>
@@ -36904,7 +36993,7 @@
       <c r="AV615" s="136"/>
       <c r="AZ615" s="136"/>
     </row>
-    <row r="616" ht="18.75" spans="1:52">
+    <row r="616" ht="17.4" spans="1:52">
       <c r="A616" s="138"/>
       <c r="C616" s="18"/>
       <c r="E616" s="136"/>
@@ -36937,7 +37026,7 @@
       <c r="AV616" s="136"/>
       <c r="AZ616" s="44"/>
     </row>
-    <row r="617" ht="18.75" spans="1:52">
+    <row r="617" ht="17.4" spans="1:52">
       <c r="A617" s="138"/>
       <c r="C617" s="18"/>
       <c r="E617" s="136"/>
@@ -36970,7 +37059,7 @@
       <c r="AV617" s="136"/>
       <c r="AZ617" s="44"/>
     </row>
-    <row r="618" ht="18.75" spans="1:52">
+    <row r="618" ht="17.4" spans="1:52">
       <c r="A618" s="138"/>
       <c r="C618" s="18"/>
       <c r="E618" s="136"/>
@@ -37003,7 +37092,7 @@
       <c r="AV618" s="136"/>
       <c r="AZ618" s="156"/>
     </row>
-    <row r="619" ht="18.75" spans="1:52">
+    <row r="619" ht="17.4" spans="1:52">
       <c r="A619" s="138"/>
       <c r="C619" s="18"/>
       <c r="E619" s="136"/>
@@ -37036,7 +37125,7 @@
       <c r="AV619" s="136"/>
       <c r="AZ619" s="44"/>
     </row>
-    <row r="620" ht="18.75" spans="1:52">
+    <row r="620" ht="17.4" spans="1:52">
       <c r="A620" s="138"/>
       <c r="C620" s="18"/>
       <c r="E620" s="136"/>
@@ -37069,7 +37158,7 @@
       <c r="AV620" s="136"/>
       <c r="AZ620" s="44"/>
     </row>
-    <row r="621" ht="18.75" spans="1:52">
+    <row r="621" ht="17.4" spans="1:52">
       <c r="A621" s="138"/>
       <c r="C621" s="18"/>
       <c r="E621" s="182"/>
@@ -37102,7 +37191,7 @@
       <c r="AV621" s="182"/>
       <c r="AZ621" s="44"/>
     </row>
-    <row r="622" ht="18.75" spans="1:52">
+    <row r="622" ht="17.4" spans="1:52">
       <c r="A622" s="138"/>
       <c r="C622" s="18"/>
       <c r="E622" s="18"/>
@@ -37135,7 +37224,7 @@
       <c r="AV622" s="18"/>
       <c r="AZ622" s="44"/>
     </row>
-    <row r="623" ht="18.75" spans="1:52">
+    <row r="623" ht="17.4" spans="1:52">
       <c r="A623" s="138"/>
       <c r="C623" s="18"/>
       <c r="E623" s="102"/>
@@ -37168,7 +37257,7 @@
       <c r="AV623" s="102"/>
       <c r="AZ623" s="44"/>
     </row>
-    <row r="624" ht="18.75" spans="1:52">
+    <row r="624" ht="17.4" spans="1:52">
       <c r="A624" s="138"/>
       <c r="C624" s="18"/>
       <c r="E624" s="102"/>
@@ -37201,7 +37290,7 @@
       <c r="AV624" s="102"/>
       <c r="AZ624" s="44"/>
     </row>
-    <row r="625" ht="18.75" spans="1:52">
+    <row r="625" ht="17.4" spans="1:52">
       <c r="A625" s="138"/>
       <c r="C625" s="89"/>
       <c r="E625" s="184"/>
@@ -37234,7 +37323,7 @@
       <c r="AV625" s="184"/>
       <c r="AZ625" s="44"/>
     </row>
-    <row r="626" ht="18.75" spans="1:52">
+    <row r="626" ht="17.4" spans="1:52">
       <c r="A626" s="138"/>
       <c r="B626" s="5"/>
       <c r="C626" s="18"/>
@@ -37268,7 +37357,7 @@
       <c r="AV626" s="18"/>
       <c r="AZ626" s="44"/>
     </row>
-    <row r="627" ht="18.75" spans="1:52">
+    <row r="627" ht="17.4" spans="1:52">
       <c r="A627" s="138"/>
       <c r="C627" s="18"/>
       <c r="E627" s="18"/>
@@ -37301,7 +37390,7 @@
       <c r="AV627" s="18"/>
       <c r="AZ627" s="44"/>
     </row>
-    <row r="628" ht="18.75" spans="1:52">
+    <row r="628" ht="17.4" spans="1:52">
       <c r="A628" s="138"/>
       <c r="C628" s="18"/>
       <c r="E628" s="18"/>
@@ -37334,7 +37423,7 @@
       <c r="AV628" s="18"/>
       <c r="AZ628" s="44"/>
     </row>
-    <row r="629" ht="18.75" spans="1:52">
+    <row r="629" ht="17.4" spans="1:52">
       <c r="A629" s="138"/>
       <c r="C629" s="18"/>
       <c r="E629" s="18"/>
@@ -37367,7 +37456,7 @@
       <c r="AV629" s="18"/>
       <c r="AZ629" s="44"/>
     </row>
-    <row r="630" ht="18.75" spans="1:52">
+    <row r="630" ht="17.4" spans="1:52">
       <c r="A630" s="138"/>
       <c r="C630" s="186"/>
       <c r="E630" s="137"/>
@@ -37400,7 +37489,7 @@
       <c r="AV630" s="137"/>
       <c r="AZ630" s="44"/>
     </row>
-    <row r="631" ht="18.75" spans="1:52">
+    <row r="631" ht="17.4" spans="1:52">
       <c r="A631" s="138"/>
       <c r="C631" s="186"/>
       <c r="E631" s="137"/>
@@ -37433,7 +37522,7 @@
       <c r="AV631" s="137"/>
       <c r="AZ631" s="44"/>
     </row>
-    <row r="632" ht="18.75" spans="1:52">
+    <row r="632" ht="17.4" spans="1:52">
       <c r="A632" s="138"/>
       <c r="C632" s="186"/>
       <c r="E632" s="137"/>
@@ -37466,7 +37555,7 @@
       <c r="AV632" s="137"/>
       <c r="AZ632" s="44"/>
     </row>
-    <row r="633" ht="18.75" spans="1:52">
+    <row r="633" ht="17.4" spans="1:52">
       <c r="A633" s="138"/>
       <c r="C633" s="186"/>
       <c r="E633" s="137"/>
@@ -37499,7 +37588,7 @@
       <c r="AV633" s="137"/>
       <c r="AZ633" s="44"/>
     </row>
-    <row r="634" ht="18.75" spans="1:52">
+    <row r="634" ht="17.4" spans="1:52">
       <c r="A634" s="138"/>
       <c r="B634" s="5"/>
       <c r="C634" s="187"/>
@@ -37533,7 +37622,7 @@
       <c r="AV634" s="205"/>
       <c r="AZ634" s="44"/>
     </row>
-    <row r="635" ht="18.75" spans="1:52">
+    <row r="635" ht="17.4" spans="1:52">
       <c r="A635" s="138"/>
       <c r="B635" s="5"/>
       <c r="C635" s="189"/>
@@ -37567,7 +37656,7 @@
       <c r="AV635" s="137"/>
       <c r="AZ635" s="44"/>
     </row>
-    <row r="636" ht="18.75" spans="1:52">
+    <row r="636" ht="17.4" spans="1:52">
       <c r="A636" s="138"/>
       <c r="C636" s="189"/>
       <c r="E636" s="189"/>
@@ -37600,7 +37689,7 @@
       <c r="AV636" s="137"/>
       <c r="AZ636" s="44"/>
     </row>
-    <row r="637" ht="18.75" spans="1:52">
+    <row r="637" ht="17.4" spans="1:52">
       <c r="A637" s="138"/>
       <c r="C637" s="189"/>
       <c r="E637" s="189"/>
@@ -37633,7 +37722,7 @@
       <c r="AV637" s="137"/>
       <c r="AZ637" s="44"/>
     </row>
-    <row r="638" ht="18.75" spans="1:52">
+    <row r="638" ht="17.4" spans="1:52">
       <c r="A638" s="138"/>
       <c r="C638" s="187"/>
       <c r="E638" s="89"/>
@@ -37666,7 +37755,7 @@
       <c r="AV638" s="176"/>
       <c r="AZ638" s="44"/>
     </row>
-    <row r="639" ht="18.75" spans="1:52">
+    <row r="639" ht="17.4" spans="1:52">
       <c r="A639" s="138"/>
       <c r="C639" s="174"/>
       <c r="E639" s="192"/>
@@ -37699,7 +37788,7 @@
       <c r="AV639" s="193"/>
       <c r="AZ639" s="44"/>
     </row>
-    <row r="640" ht="18.75" spans="1:52">
+    <row r="640" ht="17.4" spans="1:52">
       <c r="A640" s="138"/>
       <c r="C640" s="174"/>
       <c r="E640" s="192"/>
@@ -37732,7 +37821,7 @@
       <c r="AV640" s="193"/>
       <c r="AZ640" s="192"/>
     </row>
-    <row r="641" ht="18.75" spans="1:52">
+    <row r="641" ht="17.4" spans="1:52">
       <c r="A641" s="138"/>
       <c r="C641" s="91"/>
       <c r="E641" s="192"/>
@@ -37765,7 +37854,7 @@
       <c r="AV641" s="193"/>
       <c r="AZ641" s="44"/>
     </row>
-    <row r="642" ht="18.75" spans="1:52">
+    <row r="642" ht="17.4" spans="1:52">
       <c r="A642" s="138"/>
       <c r="C642" s="174"/>
       <c r="E642" s="192"/>
@@ -37798,7 +37887,7 @@
       <c r="AV642" s="193"/>
       <c r="AZ642" s="44"/>
     </row>
-    <row r="643" ht="18.75" spans="1:52">
+    <row r="643" ht="17.4" spans="1:52">
       <c r="A643" s="138"/>
       <c r="C643" s="89"/>
       <c r="E643" s="89"/>
@@ -37831,7 +37920,7 @@
       <c r="AV643" s="89"/>
       <c r="AZ643" s="44"/>
     </row>
-    <row r="644" ht="18.75" spans="1:52">
+    <row r="644" ht="17.4" spans="1:52">
       <c r="A644" s="138"/>
       <c r="C644" s="89"/>
       <c r="E644" s="192"/>
@@ -37864,7 +37953,7 @@
       <c r="AV644" s="193"/>
       <c r="AZ644" s="44"/>
     </row>
-    <row r="645" ht="18.75" spans="1:52">
+    <row r="645" ht="17.4" spans="1:52">
       <c r="A645" s="138"/>
       <c r="C645" s="206"/>
       <c r="E645" s="192"/>
@@ -37897,7 +37986,7 @@
       <c r="AV645" s="193"/>
       <c r="AZ645" s="192"/>
     </row>
-    <row r="646" ht="18.75" spans="1:52">
+    <row r="646" ht="17.4" spans="1:52">
       <c r="A646" s="138"/>
       <c r="C646" s="207"/>
       <c r="E646" s="89"/>
@@ -37930,7 +38019,7 @@
       <c r="AV646" s="89"/>
       <c r="AZ646" s="89"/>
     </row>
-    <row r="647" ht="18.75" spans="1:52">
+    <row r="647" ht="17.4" spans="1:52">
       <c r="A647" s="138"/>
       <c r="C647" s="97"/>
       <c r="E647" s="97"/>
@@ -37963,7 +38052,7 @@
       <c r="AV647" s="97"/>
       <c r="AZ647" s="44"/>
     </row>
-    <row r="648" ht="18.75" spans="1:52">
+    <row r="648" ht="17.4" spans="1:52">
       <c r="A648" s="138"/>
       <c r="C648" s="97"/>
       <c r="E648" s="97"/>
@@ -37996,7 +38085,7 @@
       <c r="AV648" s="97"/>
       <c r="AZ648" s="44"/>
     </row>
-    <row r="649" ht="18.75" spans="1:52">
+    <row r="649" ht="17.4" spans="1:52">
       <c r="A649" s="138"/>
       <c r="C649" s="208"/>
       <c r="E649" s="209"/>
@@ -38029,7 +38118,7 @@
       <c r="AV649" s="209"/>
       <c r="AZ649" s="44"/>
     </row>
-    <row r="650" ht="18.75" spans="1:52">
+    <row r="650" ht="17.4" spans="1:52">
       <c r="A650" s="138"/>
       <c r="C650" s="208"/>
       <c r="E650" s="209"/>
@@ -38062,7 +38151,7 @@
       <c r="AV650" s="209"/>
       <c r="AZ650" s="45"/>
     </row>
-    <row r="651" ht="18.75" spans="1:52">
+    <row r="651" ht="17.4" spans="1:52">
       <c r="A651" s="138"/>
       <c r="C651" s="208"/>
       <c r="E651" s="209"/>
@@ -38095,7 +38184,7 @@
       <c r="AV651" s="209"/>
       <c r="AZ651" s="45"/>
     </row>
-    <row r="652" ht="18.75" spans="1:52">
+    <row r="652" ht="17.4" spans="1:52">
       <c r="A652" s="138"/>
       <c r="C652" s="208"/>
       <c r="E652" s="209"/>
@@ -38128,7 +38217,7 @@
       <c r="AV652" s="209"/>
       <c r="AZ652" s="44"/>
     </row>
-    <row r="653" ht="18.75" spans="1:52">
+    <row r="653" ht="17.4" spans="1:52">
       <c r="A653" s="138"/>
       <c r="C653" s="208"/>
       <c r="E653" s="209"/>
@@ -38161,7 +38250,7 @@
       <c r="AV653" s="209"/>
       <c r="AZ653" s="44"/>
     </row>
-    <row r="654" ht="18.75" spans="1:52">
+    <row r="654" ht="17.4" spans="1:52">
       <c r="A654" s="138"/>
       <c r="C654" s="208"/>
       <c r="E654" s="209"/>
@@ -38194,7 +38283,7 @@
       <c r="AV654" s="209"/>
       <c r="AZ654" s="44"/>
     </row>
-    <row r="655" ht="18.75" spans="1:52">
+    <row r="655" ht="17.4" spans="1:52">
       <c r="A655" s="138"/>
       <c r="C655" s="208"/>
       <c r="E655" s="209"/>
@@ -38227,7 +38316,7 @@
       <c r="AV655" s="209"/>
       <c r="AZ655" s="44"/>
     </row>
-    <row r="656" ht="18.75" spans="1:52">
+    <row r="656" ht="17.4" spans="1:52">
       <c r="A656" s="138"/>
       <c r="C656" s="208"/>
       <c r="E656" s="209"/>
@@ -38260,7 +38349,7 @@
       <c r="AV656" s="209"/>
       <c r="AZ656" s="44"/>
     </row>
-    <row r="657" ht="18.75" spans="1:52">
+    <row r="657" ht="17.4" spans="1:52">
       <c r="A657" s="138"/>
       <c r="C657" s="208"/>
       <c r="E657" s="209"/>
@@ -38293,7 +38382,7 @@
       <c r="AV657" s="209"/>
       <c r="AZ657" s="44"/>
     </row>
-    <row r="658" ht="18.75" spans="1:52">
+    <row r="658" ht="17.4" spans="1:52">
       <c r="A658" s="138"/>
       <c r="C658" s="208"/>
       <c r="E658" s="209"/>
@@ -38326,7 +38415,7 @@
       <c r="AV658" s="209"/>
       <c r="AZ658" s="44"/>
     </row>
-    <row r="659" ht="18.75" spans="1:52">
+    <row r="659" ht="17.4" spans="1:52">
       <c r="A659" s="138"/>
       <c r="C659" s="208"/>
       <c r="E659" s="209"/>
@@ -38359,7 +38448,7 @@
       <c r="AV659" s="209"/>
       <c r="AZ659" s="44"/>
     </row>
-    <row r="660" ht="18.75" spans="1:52">
+    <row r="660" ht="17.4" spans="1:52">
       <c r="A660" s="138"/>
       <c r="C660" s="210"/>
       <c r="E660" s="205"/>
@@ -38392,7 +38481,7 @@
       <c r="AV660" s="205"/>
       <c r="AZ660" s="44"/>
     </row>
-    <row r="661" ht="18.75" spans="1:52">
+    <row r="661" ht="17.4" spans="1:52">
       <c r="A661" s="138"/>
       <c r="C661" s="18"/>
       <c r="E661" s="18"/>
@@ -38425,7 +38514,7 @@
       <c r="AV661" s="18"/>
       <c r="AZ661" s="44"/>
     </row>
-    <row r="662" ht="18.75" spans="1:52">
+    <row r="662" ht="17.4" spans="1:52">
       <c r="A662" s="138"/>
       <c r="C662" s="89"/>
       <c r="E662" s="187"/>
@@ -38458,7 +38547,7 @@
       <c r="AV662" s="174"/>
       <c r="AZ662" s="18"/>
     </row>
-    <row r="663" ht="18.75" spans="1:52">
+    <row r="663" ht="17.4" spans="1:52">
       <c r="A663" s="138"/>
       <c r="C663" s="18"/>
       <c r="E663" s="18"/>
@@ -38491,7 +38580,7 @@
       <c r="AV663" s="18"/>
       <c r="AZ663" s="44"/>
     </row>
-    <row r="664" ht="18.75" spans="1:52">
+    <row r="664" ht="17.4" spans="1:52">
       <c r="A664" s="138"/>
       <c r="C664" s="186"/>
       <c r="E664" s="137"/>
@@ -38524,7 +38613,7 @@
       <c r="AV664" s="137"/>
       <c r="AZ664" s="137"/>
     </row>
-    <row r="665" ht="18.75" spans="1:52">
+    <row r="665" ht="17.4" spans="1:52">
       <c r="A665" s="138"/>
       <c r="C665" s="186"/>
       <c r="E665" s="137"/>
@@ -38557,7 +38646,7 @@
       <c r="AV665" s="137"/>
       <c r="AZ665" s="137"/>
     </row>
-    <row r="666" ht="18.75" spans="1:52">
+    <row r="666" ht="17.4" spans="1:52">
       <c r="A666" s="138"/>
       <c r="C666" s="186"/>
       <c r="E666" s="137"/>
@@ -38590,7 +38679,7 @@
       <c r="AV666" s="137"/>
       <c r="AZ666" s="44"/>
     </row>
-    <row r="667" ht="18.75" spans="1:52">
+    <row r="667" ht="17.4" spans="1:52">
       <c r="A667" s="138"/>
       <c r="C667" s="186"/>
       <c r="E667" s="137"/>
@@ -38623,7 +38712,7 @@
       <c r="AV667" s="137"/>
       <c r="AZ667" s="44"/>
     </row>
-    <row r="668" ht="18.75" spans="1:52">
+    <row r="668" ht="17.4" spans="1:52">
       <c r="A668" s="138"/>
       <c r="C668" s="186"/>
       <c r="E668" s="137"/>
@@ -38656,7 +38745,7 @@
       <c r="AV668" s="137"/>
       <c r="AZ668" s="137"/>
     </row>
-    <row r="669" ht="18.75" spans="1:52">
+    <row r="669" ht="17.4" spans="1:52">
       <c r="A669" s="138"/>
       <c r="C669" s="186"/>
       <c r="E669" s="137"/>
@@ -38689,7 +38778,7 @@
       <c r="AV669" s="137"/>
       <c r="AZ669" s="44"/>
     </row>
-    <row r="670" ht="18.75" spans="1:52">
+    <row r="670" ht="17.4" spans="1:52">
       <c r="A670" s="138"/>
       <c r="C670" s="186"/>
       <c r="E670" s="74"/>
@@ -38722,7 +38811,7 @@
       <c r="AV670" s="74"/>
       <c r="AZ670" s="74"/>
     </row>
-    <row r="671" ht="18.75" spans="1:52">
+    <row r="671" ht="17.4" spans="1:52">
       <c r="A671" s="138"/>
       <c r="C671" s="186"/>
       <c r="E671" s="74"/>
@@ -38755,7 +38844,7 @@
       <c r="AV671" s="74"/>
       <c r="AZ671" s="74"/>
     </row>
-    <row r="672" ht="18.75" spans="1:52">
+    <row r="672" ht="17.4" spans="1:52">
       <c r="A672" s="138"/>
       <c r="C672" s="186"/>
       <c r="E672" s="137"/>
@@ -38788,7 +38877,7 @@
       <c r="AV672" s="137"/>
       <c r="AZ672" s="44"/>
     </row>
-    <row r="673" ht="18.75" spans="1:52">
+    <row r="673" ht="17.4" spans="1:52">
       <c r="A673" s="138"/>
       <c r="C673" s="186"/>
       <c r="E673" s="137"/>
@@ -38821,7 +38910,7 @@
       <c r="AV673" s="137"/>
       <c r="AZ673" s="137"/>
     </row>
-    <row r="674" ht="18.75" spans="1:52">
+    <row r="674" ht="17.4" spans="1:52">
       <c r="A674" s="138"/>
       <c r="C674" s="186"/>
       <c r="E674" s="171"/>
@@ -38854,7 +38943,7 @@
       <c r="AV674" s="171"/>
       <c r="AZ674" s="171"/>
     </row>
-    <row r="675" ht="18.75" spans="1:52">
+    <row r="675" ht="17.4" spans="1:52">
       <c r="A675" s="138"/>
       <c r="C675" s="186"/>
       <c r="E675" s="137"/>
@@ -38887,7 +38976,7 @@
       <c r="AV675" s="137"/>
       <c r="AZ675" s="44"/>
     </row>
-    <row r="676" ht="18.75" spans="1:52">
+    <row r="676" ht="17.4" spans="1:52">
       <c r="A676" s="138"/>
       <c r="C676" s="186"/>
       <c r="E676" s="137"/>
@@ -38920,7 +39009,7 @@
       <c r="AV676" s="137"/>
       <c r="AZ676" s="137"/>
     </row>
-    <row r="677" ht="18.75" spans="1:52">
+    <row r="677" ht="17.4" spans="1:52">
       <c r="A677" s="138"/>
       <c r="C677" s="186"/>
       <c r="E677" s="137"/>
@@ -38953,7 +39042,7 @@
       <c r="AV677" s="137"/>
       <c r="AZ677" s="44"/>
     </row>
-    <row r="678" ht="18.75" spans="1:52">
+    <row r="678" ht="17.4" spans="1:52">
       <c r="A678" s="138"/>
       <c r="C678" s="186"/>
       <c r="E678" s="137"/>
@@ -38986,7 +39075,7 @@
       <c r="AV678" s="137"/>
       <c r="AZ678" s="44"/>
     </row>
-    <row r="679" ht="18.75" spans="1:52">
+    <row r="679" ht="17.4" spans="1:52">
       <c r="A679" s="138"/>
       <c r="C679" s="186"/>
       <c r="E679" s="74"/>
@@ -39019,7 +39108,7 @@
       <c r="AV679" s="74"/>
       <c r="AZ679" s="44"/>
     </row>
-    <row r="680" ht="18.75" spans="1:52">
+    <row r="680" ht="17.4" spans="1:52">
       <c r="A680" s="138"/>
       <c r="C680" s="187"/>
       <c r="E680" s="176"/>
@@ -39052,7 +39141,7 @@
       <c r="AV680" s="176"/>
       <c r="AZ680" s="44"/>
     </row>
-    <row r="681" ht="18.75" spans="1:52">
+    <row r="681" ht="17.4" spans="1:52">
       <c r="A681" s="138"/>
       <c r="C681" s="186"/>
       <c r="E681" s="186"/>
@@ -39085,7 +39174,7 @@
       <c r="AV681" s="211"/>
       <c r="AZ681" s="186"/>
     </row>
-    <row r="682" ht="18.75" spans="1:52">
+    <row r="682" ht="17.4" spans="1:52">
       <c r="A682" s="138"/>
       <c r="C682" s="187"/>
       <c r="E682" s="212"/>
@@ -39118,7 +39207,7 @@
       <c r="AV682" s="213"/>
       <c r="AZ682" s="44"/>
     </row>
-    <row r="683" ht="18.75" spans="1:52">
+    <row r="683" ht="17.4" spans="1:52">
       <c r="A683" s="138"/>
       <c r="C683" s="187"/>
       <c r="E683" s="212"/>
@@ -39151,7 +39240,7 @@
       <c r="AV683" s="212"/>
       <c r="AZ683" s="212"/>
     </row>
-    <row r="684" ht="18.75" spans="1:52">
+    <row r="684" ht="18" spans="1:52">
       <c r="A684" s="138"/>
       <c r="C684" s="214"/>
       <c r="E684" s="215"/>
@@ -39184,7 +39273,7 @@
       <c r="AV684" s="215"/>
       <c r="AZ684" s="44"/>
     </row>
-    <row r="685" ht="18.75" spans="1:52">
+    <row r="685" ht="18" spans="1:52">
       <c r="A685" s="138"/>
       <c r="C685" s="214"/>
       <c r="E685" s="215"/>
@@ -39221,7 +39310,7 @@
       <c r="P686" s="220"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA277" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:BA278" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="9">

--- a/ute/language/defaultLanguage/input.xlsx
+++ b/ute/language/defaultLanguage/input.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="921">
   <si>
     <t>界面编号</t>
   </si>
@@ -3317,6 +3317,24 @@
   </si>
   <si>
     <t>STR_CALENDAR_SEVEN</t>
+  </si>
+  <si>
+    <t>更多</t>
+  </si>
+  <si>
+    <t>STR_MORE</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>常用应用</t>
+  </si>
+  <si>
+    <t>STR_COMMON_APP</t>
+  </si>
+  <si>
+    <t>Common applications</t>
   </si>
 </sst>
 </file>
@@ -5725,12 +5743,12 @@
   <sheetPr/>
   <dimension ref="A1:BA686"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F289" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomRight" activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -23459,11 +23477,19 @@
       <c r="AZ298" s="44"/>
     </row>
     <row r="299" ht="17.4" spans="1:52">
-      <c r="A299" s="111"/>
+      <c r="A299" s="111">
+        <v>293</v>
+      </c>
       <c r="B299" s="110"/>
-      <c r="C299" s="110"/>
-      <c r="D299" s="112"/>
-      <c r="E299" s="21"/>
+      <c r="C299" s="110" t="s">
+        <v>915</v>
+      </c>
+      <c r="D299" s="112" t="s">
+        <v>916</v>
+      </c>
+      <c r="E299" s="21" t="s">
+        <v>917</v>
+      </c>
       <c r="F299" s="84"/>
       <c r="G299" s="18"/>
       <c r="H299" s="18"/>
@@ -23510,11 +23536,19 @@
       <c r="AZ299" s="44"/>
     </row>
     <row r="300" ht="17.4" spans="1:52">
-      <c r="A300" s="111"/>
+      <c r="A300" s="111">
+        <v>294</v>
+      </c>
       <c r="B300" s="110"/>
-      <c r="C300" s="110"/>
-      <c r="D300" s="112"/>
-      <c r="E300" s="21"/>
+      <c r="C300" s="110" t="s">
+        <v>918</v>
+      </c>
+      <c r="D300" s="112" t="s">
+        <v>919</v>
+      </c>
+      <c r="E300" s="21" t="s">
+        <v>920</v>
+      </c>
       <c r="F300" s="84"/>
       <c r="G300" s="18"/>
       <c r="H300" s="18"/>
